--- a/BackTest/2020-01-26 BackTest AOA.xlsx
+++ b/BackTest/2020-01-26 BackTest AOA.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M234"/>
+  <dimension ref="A1:M235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
+        <v>1.807</v>
+      </c>
+      <c r="C2" t="n">
         <v>1.81</v>
       </c>
-      <c r="C2" t="n">
-        <v>1.811</v>
-      </c>
       <c r="D2" t="n">
-        <v>1.811</v>
+        <v>1.81</v>
       </c>
       <c r="E2" t="n">
-        <v>1.81</v>
+        <v>1.807</v>
       </c>
       <c r="F2" t="n">
-        <v>91326.48299999999</v>
+        <v>1073292.509</v>
       </c>
       <c r="G2" t="n">
-        <v>1.7792</v>
+        <v>1.778833333333333</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -471,25 +471,25 @@
         <v>1.81</v>
       </c>
       <c r="C3" t="n">
-        <v>1.81</v>
+        <v>1.811</v>
       </c>
       <c r="D3" t="n">
-        <v>1.81</v>
+        <v>1.811</v>
       </c>
       <c r="E3" t="n">
         <v>1.81</v>
       </c>
       <c r="F3" t="n">
-        <v>255930</v>
+        <v>91326.48299999999</v>
       </c>
       <c r="G3" t="n">
-        <v>1.779833333333333</v>
+        <v>1.7792</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
@@ -506,25 +506,25 @@
         <v>1.81</v>
       </c>
       <c r="C4" t="n">
-        <v>1.789</v>
+        <v>1.81</v>
       </c>
       <c r="D4" t="n">
         <v>1.81</v>
       </c>
       <c r="E4" t="n">
-        <v>1.789</v>
+        <v>1.81</v>
       </c>
       <c r="F4" t="n">
-        <v>1374693.0595</v>
+        <v>255930</v>
       </c>
       <c r="G4" t="n">
-        <v>1.779816666666666</v>
+        <v>1.779833333333333</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
@@ -538,28 +538,28 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1.809</v>
+        <v>1.81</v>
       </c>
       <c r="C5" t="n">
-        <v>1.762</v>
+        <v>1.789</v>
       </c>
       <c r="D5" t="n">
-        <v>1.809</v>
+        <v>1.81</v>
       </c>
       <c r="E5" t="n">
-        <v>1.762</v>
+        <v>1.789</v>
       </c>
       <c r="F5" t="n">
-        <v>2798851</v>
+        <v>1374693.0595</v>
       </c>
       <c r="G5" t="n">
-        <v>1.77965</v>
+        <v>1.779816666666666</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1.77</v>
+        <v>1.809</v>
       </c>
       <c r="C6" t="n">
-        <v>1.77</v>
+        <v>1.762</v>
       </c>
       <c r="D6" t="n">
-        <v>1.77</v>
+        <v>1.809</v>
       </c>
       <c r="E6" t="n">
-        <v>1.77</v>
+        <v>1.762</v>
       </c>
       <c r="F6" t="n">
-        <v>740.7378</v>
+        <v>2798851</v>
       </c>
       <c r="G6" t="n">
-        <v>1.7793</v>
+        <v>1.77965</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1.809</v>
+        <v>1.77</v>
       </c>
       <c r="C7" t="n">
-        <v>1.809</v>
+        <v>1.77</v>
       </c>
       <c r="D7" t="n">
-        <v>1.809</v>
+        <v>1.77</v>
       </c>
       <c r="E7" t="n">
-        <v>1.809</v>
+        <v>1.77</v>
       </c>
       <c r="F7" t="n">
-        <v>277</v>
+        <v>740.7378</v>
       </c>
       <c r="G7" t="n">
-        <v>1.779633333333333</v>
+        <v>1.7793</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1.807</v>
+        <v>1.809</v>
       </c>
       <c r="C8" t="n">
-        <v>1.788</v>
+        <v>1.809</v>
       </c>
       <c r="D8" t="n">
-        <v>1.807</v>
+        <v>1.809</v>
       </c>
       <c r="E8" t="n">
-        <v>1.788</v>
+        <v>1.809</v>
       </c>
       <c r="F8" t="n">
-        <v>1446642</v>
+        <v>277</v>
       </c>
       <c r="G8" t="n">
-        <v>1.779899999999999</v>
+        <v>1.779633333333333</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -690,16 +690,16 @@
         <v>1.788</v>
       </c>
       <c r="F9" t="n">
-        <v>2411476</v>
+        <v>1446642</v>
       </c>
       <c r="G9" t="n">
-        <v>1.780166666666666</v>
+        <v>1.779899999999999</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1.806</v>
+        <v>1.807</v>
       </c>
       <c r="C10" t="n">
-        <v>1.806</v>
+        <v>1.788</v>
       </c>
       <c r="D10" t="n">
-        <v>1.806</v>
+        <v>1.807</v>
       </c>
       <c r="E10" t="n">
-        <v>1.806</v>
+        <v>1.788</v>
       </c>
       <c r="F10" t="n">
-        <v>277</v>
+        <v>2411476</v>
       </c>
       <c r="G10" t="n">
-        <v>1.780733333333333</v>
+        <v>1.780166666666666</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1.804</v>
+        <v>1.806</v>
       </c>
       <c r="C11" t="n">
-        <v>1.788</v>
+        <v>1.806</v>
       </c>
       <c r="D11" t="n">
-        <v>1.804</v>
+        <v>1.806</v>
       </c>
       <c r="E11" t="n">
-        <v>1.788</v>
+        <v>1.806</v>
       </c>
       <c r="F11" t="n">
-        <v>2227536</v>
+        <v>277</v>
       </c>
       <c r="G11" t="n">
-        <v>1.780716666666666</v>
+        <v>1.780733333333333</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -795,10 +795,10 @@
         <v>1.788</v>
       </c>
       <c r="F12" t="n">
-        <v>1246114</v>
+        <v>2227536</v>
       </c>
       <c r="G12" t="n">
-        <v>1.780983333333332</v>
+        <v>1.780716666666666</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1.787</v>
+        <v>1.804</v>
       </c>
       <c r="C13" t="n">
-        <v>1.787</v>
+        <v>1.788</v>
       </c>
       <c r="D13" t="n">
-        <v>1.787</v>
+        <v>1.804</v>
       </c>
       <c r="E13" t="n">
-        <v>1.787</v>
+        <v>1.788</v>
       </c>
       <c r="F13" t="n">
-        <v>10856.963</v>
+        <v>1246114</v>
       </c>
       <c r="G13" t="n">
-        <v>1.780949999999999</v>
+        <v>1.780983333333332</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,22 +853,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1.803</v>
+        <v>1.787</v>
       </c>
       <c r="C14" t="n">
-        <v>1.803</v>
+        <v>1.787</v>
       </c>
       <c r="D14" t="n">
-        <v>1.803</v>
+        <v>1.787</v>
       </c>
       <c r="E14" t="n">
-        <v>1.781</v>
+        <v>1.787</v>
       </c>
       <c r="F14" t="n">
-        <v>984128</v>
+        <v>10856.963</v>
       </c>
       <c r="G14" t="n">
-        <v>1.781483333333332</v>
+        <v>1.780949999999999</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,10 +888,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1.781</v>
+        <v>1.803</v>
       </c>
       <c r="C15" t="n">
-        <v>1.781</v>
+        <v>1.803</v>
       </c>
       <c r="D15" t="n">
         <v>1.803</v>
@@ -900,10 +900,10 @@
         <v>1.781</v>
       </c>
       <c r="F15" t="n">
-        <v>2801797</v>
+        <v>984128</v>
       </c>
       <c r="G15" t="n">
-        <v>1.781649999999999</v>
+        <v>1.781483333333332</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,22 +923,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1.804</v>
+        <v>1.781</v>
       </c>
       <c r="C16" t="n">
-        <v>1.804</v>
+        <v>1.781</v>
       </c>
       <c r="D16" t="n">
-        <v>1.804</v>
+        <v>1.803</v>
       </c>
       <c r="E16" t="n">
-        <v>1.804</v>
+        <v>1.781</v>
       </c>
       <c r="F16" t="n">
-        <v>535.303</v>
+        <v>2801797</v>
       </c>
       <c r="G16" t="n">
-        <v>1.782199999999999</v>
+        <v>1.781649999999999</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,22 +958,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>1.802</v>
+        <v>1.804</v>
       </c>
       <c r="C17" t="n">
-        <v>1.77</v>
+        <v>1.804</v>
       </c>
       <c r="D17" t="n">
-        <v>1.802</v>
+        <v>1.804</v>
       </c>
       <c r="E17" t="n">
-        <v>1.77</v>
+        <v>1.804</v>
       </c>
       <c r="F17" t="n">
-        <v>1006003.0886</v>
+        <v>535.303</v>
       </c>
       <c r="G17" t="n">
-        <v>1.781899999999999</v>
+        <v>1.782199999999999</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -996,19 +996,19 @@
         <v>1.802</v>
       </c>
       <c r="C18" t="n">
-        <v>1.802</v>
+        <v>1.77</v>
       </c>
       <c r="D18" t="n">
         <v>1.802</v>
       </c>
       <c r="E18" t="n">
-        <v>1.802</v>
+        <v>1.77</v>
       </c>
       <c r="F18" t="n">
-        <v>278</v>
+        <v>1006003.0886</v>
       </c>
       <c r="G18" t="n">
-        <v>1.782416666666666</v>
+        <v>1.781899999999999</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>1.801</v>
+        <v>1.802</v>
       </c>
       <c r="C19" t="n">
-        <v>1.803</v>
+        <v>1.802</v>
       </c>
       <c r="D19" t="n">
-        <v>1.803</v>
+        <v>1.802</v>
       </c>
       <c r="E19" t="n">
-        <v>1.766</v>
+        <v>1.802</v>
       </c>
       <c r="F19" t="n">
-        <v>2622578</v>
+        <v>278</v>
       </c>
       <c r="G19" t="n">
-        <v>1.782949999999999</v>
+        <v>1.782416666666666</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,22 +1063,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>1.771</v>
+        <v>1.801</v>
       </c>
       <c r="C20" t="n">
-        <v>1.764</v>
+        <v>1.803</v>
       </c>
       <c r="D20" t="n">
         <v>1.803</v>
       </c>
       <c r="E20" t="n">
-        <v>1.764</v>
+        <v>1.766</v>
       </c>
       <c r="F20" t="n">
-        <v>1175202</v>
+        <v>2622578</v>
       </c>
       <c r="G20" t="n">
-        <v>1.782833333333332</v>
+        <v>1.782949999999999</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>1.769</v>
+        <v>1.771</v>
       </c>
       <c r="C21" t="n">
-        <v>1.769</v>
+        <v>1.764</v>
       </c>
       <c r="D21" t="n">
-        <v>1.769</v>
+        <v>1.803</v>
       </c>
       <c r="E21" t="n">
-        <v>1.769</v>
+        <v>1.764</v>
       </c>
       <c r="F21" t="n">
-        <v>5000</v>
+        <v>1175202</v>
       </c>
       <c r="G21" t="n">
-        <v>1.782516666666666</v>
+        <v>1.782833333333332</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>1.768</v>
+        <v>1.769</v>
       </c>
       <c r="C22" t="n">
-        <v>1.768</v>
+        <v>1.769</v>
       </c>
       <c r="D22" t="n">
-        <v>1.768</v>
+        <v>1.769</v>
       </c>
       <c r="E22" t="n">
-        <v>1.768</v>
+        <v>1.769</v>
       </c>
       <c r="F22" t="n">
         <v>5000</v>
       </c>
       <c r="G22" t="n">
-        <v>1.782466666666666</v>
+        <v>1.782516666666666</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>1.768</v>
       </c>
       <c r="F23" t="n">
-        <v>118296.253</v>
+        <v>5000</v>
       </c>
       <c r="G23" t="n">
-        <v>1.782133333333333</v>
+        <v>1.782466666666666</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,22 +1203,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>1.796</v>
+        <v>1.768</v>
       </c>
       <c r="C24" t="n">
-        <v>1.762</v>
+        <v>1.768</v>
       </c>
       <c r="D24" t="n">
-        <v>1.796</v>
+        <v>1.768</v>
       </c>
       <c r="E24" t="n">
-        <v>1.762</v>
+        <v>1.768</v>
       </c>
       <c r="F24" t="n">
-        <v>2268087</v>
+        <v>118296.253</v>
       </c>
       <c r="G24" t="n">
-        <v>1.781699999999999</v>
+        <v>1.782133333333333</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1241,7 +1241,7 @@
         <v>1.796</v>
       </c>
       <c r="C25" t="n">
-        <v>1.763</v>
+        <v>1.762</v>
       </c>
       <c r="D25" t="n">
         <v>1.796</v>
@@ -1250,10 +1250,10 @@
         <v>1.762</v>
       </c>
       <c r="F25" t="n">
-        <v>1619884</v>
+        <v>2268087</v>
       </c>
       <c r="G25" t="n">
-        <v>1.781566666666666</v>
+        <v>1.781699999999999</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1273,22 +1273,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>1.769</v>
+        <v>1.796</v>
       </c>
       <c r="C26" t="n">
-        <v>1.769</v>
+        <v>1.763</v>
       </c>
       <c r="D26" t="n">
-        <v>1.769</v>
+        <v>1.796</v>
       </c>
       <c r="E26" t="n">
-        <v>1.769</v>
+        <v>1.762</v>
       </c>
       <c r="F26" t="n">
-        <v>99561.67140000001</v>
+        <v>1619884</v>
       </c>
       <c r="G26" t="n">
-        <v>1.781533333333333</v>
+        <v>1.781566666666666</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1308,22 +1308,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>1.793</v>
+        <v>1.769</v>
       </c>
       <c r="C27" t="n">
-        <v>1.793</v>
+        <v>1.769</v>
       </c>
       <c r="D27" t="n">
-        <v>1.793</v>
+        <v>1.769</v>
       </c>
       <c r="E27" t="n">
-        <v>1.772</v>
+        <v>1.769</v>
       </c>
       <c r="F27" t="n">
-        <v>1818556</v>
+        <v>99561.67140000001</v>
       </c>
       <c r="G27" t="n">
-        <v>1.7819</v>
+        <v>1.781533333333333</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1343,22 +1343,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>1.772</v>
+        <v>1.793</v>
       </c>
       <c r="C28" t="n">
-        <v>1.772</v>
+        <v>1.793</v>
       </c>
       <c r="D28" t="n">
         <v>1.793</v>
       </c>
       <c r="E28" t="n">
-        <v>1.771</v>
+        <v>1.772</v>
       </c>
       <c r="F28" t="n">
-        <v>2901174</v>
+        <v>1818556</v>
       </c>
       <c r="G28" t="n">
-        <v>1.781916666666666</v>
+        <v>1.7819</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1378,22 +1378,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>1.79</v>
+        <v>1.772</v>
       </c>
       <c r="C29" t="n">
-        <v>1.77</v>
+        <v>1.772</v>
       </c>
       <c r="D29" t="n">
-        <v>1.79</v>
+        <v>1.793</v>
       </c>
       <c r="E29" t="n">
-        <v>1.77</v>
+        <v>1.771</v>
       </c>
       <c r="F29" t="n">
-        <v>1370764</v>
+        <v>2901174</v>
       </c>
       <c r="G29" t="n">
-        <v>1.7819</v>
+        <v>1.781916666666666</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1425,10 +1425,10 @@
         <v>1.77</v>
       </c>
       <c r="F30" t="n">
-        <v>2170938</v>
+        <v>1370764</v>
       </c>
       <c r="G30" t="n">
-        <v>1.781616666666666</v>
+        <v>1.7819</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1448,22 +1448,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>1.791</v>
+        <v>1.79</v>
       </c>
       <c r="C31" t="n">
-        <v>1.791</v>
+        <v>1.77</v>
       </c>
       <c r="D31" t="n">
-        <v>1.791</v>
+        <v>1.79</v>
       </c>
       <c r="E31" t="n">
-        <v>1.791</v>
+        <v>1.77</v>
       </c>
       <c r="F31" t="n">
-        <v>512.2294000000001</v>
+        <v>2170938</v>
       </c>
       <c r="G31" t="n">
-        <v>1.781949999999999</v>
+        <v>1.781616666666666</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1483,22 +1483,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>1.785</v>
+        <v>1.791</v>
       </c>
       <c r="C32" t="n">
-        <v>1.785</v>
+        <v>1.791</v>
       </c>
       <c r="D32" t="n">
-        <v>1.785</v>
+        <v>1.791</v>
       </c>
       <c r="E32" t="n">
-        <v>1.77</v>
+        <v>1.791</v>
       </c>
       <c r="F32" t="n">
-        <v>2329579</v>
+        <v>512.2294000000001</v>
       </c>
       <c r="G32" t="n">
-        <v>1.782183333333333</v>
+        <v>1.781949999999999</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1518,10 +1518,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>1.77</v>
+        <v>1.785</v>
       </c>
       <c r="C33" t="n">
-        <v>1.77</v>
+        <v>1.785</v>
       </c>
       <c r="D33" t="n">
         <v>1.785</v>
@@ -1530,10 +1530,10 @@
         <v>1.77</v>
       </c>
       <c r="F33" t="n">
-        <v>1214068</v>
+        <v>2329579</v>
       </c>
       <c r="G33" t="n">
-        <v>1.781916666666666</v>
+        <v>1.782183333333333</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1553,7 +1553,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>1.785</v>
+        <v>1.77</v>
       </c>
       <c r="C34" t="n">
         <v>1.77</v>
@@ -1565,10 +1565,10 @@
         <v>1.77</v>
       </c>
       <c r="F34" t="n">
-        <v>2924510</v>
+        <v>1214068</v>
       </c>
       <c r="G34" t="n">
-        <v>1.781899999999999</v>
+        <v>1.781916666666666</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1600,10 +1600,10 @@
         <v>1.77</v>
       </c>
       <c r="F35" t="n">
-        <v>645492</v>
+        <v>2924510</v>
       </c>
       <c r="G35" t="n">
-        <v>1.781616666666666</v>
+        <v>1.781899999999999</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1623,22 +1623,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>1.773</v>
+        <v>1.785</v>
       </c>
       <c r="C36" t="n">
-        <v>1.773</v>
+        <v>1.77</v>
       </c>
       <c r="D36" t="n">
-        <v>1.773</v>
+        <v>1.785</v>
       </c>
       <c r="E36" t="n">
-        <v>1.773</v>
+        <v>1.77</v>
       </c>
       <c r="F36" t="n">
-        <v>4991.5425</v>
+        <v>645492</v>
       </c>
       <c r="G36" t="n">
-        <v>1.781399999999999</v>
+        <v>1.781616666666666</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>1.772</v>
+        <v>1.773</v>
       </c>
       <c r="C37" t="n">
-        <v>1.772</v>
+        <v>1.773</v>
       </c>
       <c r="D37" t="n">
-        <v>1.772</v>
+        <v>1.773</v>
       </c>
       <c r="E37" t="n">
-        <v>1.772</v>
+        <v>1.773</v>
       </c>
       <c r="F37" t="n">
-        <v>110052.0168</v>
+        <v>4991.5425</v>
       </c>
       <c r="G37" t="n">
-        <v>1.781183333333332</v>
+        <v>1.781399999999999</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1693,22 +1693,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>1.786</v>
+        <v>1.772</v>
       </c>
       <c r="C38" t="n">
-        <v>1.803</v>
+        <v>1.772</v>
       </c>
       <c r="D38" t="n">
-        <v>1.805</v>
+        <v>1.772</v>
       </c>
       <c r="E38" t="n">
-        <v>1.782</v>
+        <v>1.772</v>
       </c>
       <c r="F38" t="n">
-        <v>1440025.1741</v>
+        <v>110052.0168</v>
       </c>
       <c r="G38" t="n">
-        <v>1.781483333333332</v>
+        <v>1.781183333333332</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1728,22 +1728,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>1.802</v>
+        <v>1.786</v>
       </c>
       <c r="C39" t="n">
-        <v>1.782</v>
+        <v>1.803</v>
       </c>
       <c r="D39" t="n">
         <v>1.805</v>
       </c>
       <c r="E39" t="n">
-        <v>1.781</v>
+        <v>1.782</v>
       </c>
       <c r="F39" t="n">
-        <v>2179728</v>
+        <v>1440025.1741</v>
       </c>
       <c r="G39" t="n">
-        <v>1.781466666666666</v>
+        <v>1.781483333333332</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1763,22 +1763,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>1.784</v>
+        <v>1.802</v>
       </c>
       <c r="C40" t="n">
-        <v>1.784</v>
+        <v>1.782</v>
       </c>
       <c r="D40" t="n">
-        <v>1.784</v>
+        <v>1.805</v>
       </c>
       <c r="E40" t="n">
-        <v>1.784</v>
+        <v>1.781</v>
       </c>
       <c r="F40" t="n">
-        <v>4540.3196</v>
+        <v>2179728</v>
       </c>
       <c r="G40" t="n">
-        <v>1.781683333333332</v>
+        <v>1.781466666666666</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1798,22 +1798,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>1.783</v>
+        <v>1.784</v>
       </c>
       <c r="C41" t="n">
-        <v>1.783</v>
+        <v>1.784</v>
       </c>
       <c r="D41" t="n">
-        <v>1.783</v>
+        <v>1.784</v>
       </c>
       <c r="E41" t="n">
-        <v>1.783</v>
+        <v>1.784</v>
       </c>
       <c r="F41" t="n">
-        <v>3651.4218</v>
+        <v>4540.3196</v>
       </c>
       <c r="G41" t="n">
-        <v>1.781966666666666</v>
+        <v>1.781683333333332</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1833,22 +1833,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>1.784</v>
+        <v>1.783</v>
       </c>
       <c r="C42" t="n">
-        <v>1.784</v>
+        <v>1.783</v>
       </c>
       <c r="D42" t="n">
-        <v>1.784</v>
+        <v>1.783</v>
       </c>
       <c r="E42" t="n">
-        <v>1.784</v>
+        <v>1.783</v>
       </c>
       <c r="F42" t="n">
-        <v>459.6804</v>
+        <v>3651.4218</v>
       </c>
       <c r="G42" t="n">
-        <v>1.782266666666666</v>
+        <v>1.781966666666666</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1868,22 +1868,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>1.801</v>
+        <v>1.784</v>
       </c>
       <c r="C43" t="n">
-        <v>1.781</v>
+        <v>1.784</v>
       </c>
       <c r="D43" t="n">
-        <v>1.804</v>
+        <v>1.784</v>
       </c>
       <c r="E43" t="n">
-        <v>1.773</v>
+        <v>1.784</v>
       </c>
       <c r="F43" t="n">
-        <v>2887699.8858</v>
+        <v>459.6804</v>
       </c>
       <c r="G43" t="n">
-        <v>1.782533333333332</v>
+        <v>1.782266666666666</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1903,22 +1903,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>1.802</v>
+        <v>1.801</v>
       </c>
       <c r="C44" t="n">
-        <v>1.783</v>
+        <v>1.781</v>
       </c>
       <c r="D44" t="n">
-        <v>1.802</v>
+        <v>1.804</v>
       </c>
       <c r="E44" t="n">
-        <v>1.781</v>
+        <v>1.773</v>
       </c>
       <c r="F44" t="n">
-        <v>1318790</v>
+        <v>2887699.8858</v>
       </c>
       <c r="G44" t="n">
-        <v>1.782849999999999</v>
+        <v>1.782533333333332</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1938,22 +1938,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>1.8</v>
+        <v>1.802</v>
       </c>
       <c r="C45" t="n">
-        <v>1.8</v>
+        <v>1.783</v>
       </c>
       <c r="D45" t="n">
-        <v>1.8</v>
+        <v>1.802</v>
       </c>
       <c r="E45" t="n">
-        <v>1.8</v>
+        <v>1.781</v>
       </c>
       <c r="F45" t="n">
-        <v>10000</v>
+        <v>1318790</v>
       </c>
       <c r="G45" t="n">
-        <v>1.783466666666666</v>
+        <v>1.782849999999999</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1976,19 +1976,19 @@
         <v>1.8</v>
       </c>
       <c r="C46" t="n">
-        <v>1.787</v>
+        <v>1.8</v>
       </c>
       <c r="D46" t="n">
-        <v>1.802</v>
+        <v>1.8</v>
       </c>
       <c r="E46" t="n">
-        <v>1.777</v>
+        <v>1.8</v>
       </c>
       <c r="F46" t="n">
-        <v>2963956</v>
+        <v>10000</v>
       </c>
       <c r="G46" t="n">
-        <v>1.783616666666666</v>
+        <v>1.783466666666666</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2008,7 +2008,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>1.802</v>
+        <v>1.8</v>
       </c>
       <c r="C47" t="n">
         <v>1.787</v>
@@ -2017,13 +2017,13 @@
         <v>1.802</v>
       </c>
       <c r="E47" t="n">
-        <v>1.787</v>
+        <v>1.777</v>
       </c>
       <c r="F47" t="n">
-        <v>834076</v>
+        <v>2963956</v>
       </c>
       <c r="G47" t="n">
-        <v>1.784049999999999</v>
+        <v>1.783616666666666</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2046,19 +2046,19 @@
         <v>1.802</v>
       </c>
       <c r="C48" t="n">
-        <v>1.802</v>
+        <v>1.787</v>
       </c>
       <c r="D48" t="n">
         <v>1.802</v>
       </c>
       <c r="E48" t="n">
-        <v>1.802</v>
+        <v>1.787</v>
       </c>
       <c r="F48" t="n">
-        <v>8999.2333</v>
+        <v>834076</v>
       </c>
       <c r="G48" t="n">
-        <v>1.784733333333333</v>
+        <v>1.784049999999999</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2078,22 +2078,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>1.788</v>
+        <v>1.802</v>
       </c>
       <c r="C49" t="n">
-        <v>1.788</v>
+        <v>1.802</v>
       </c>
       <c r="D49" t="n">
-        <v>1.788</v>
+        <v>1.802</v>
       </c>
       <c r="E49" t="n">
-        <v>1.788</v>
+        <v>1.802</v>
       </c>
       <c r="F49" t="n">
-        <v>394879.7469</v>
+        <v>8999.2333</v>
       </c>
       <c r="G49" t="n">
-        <v>1.785183333333333</v>
+        <v>1.784733333333333</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2125,10 +2125,10 @@
         <v>1.788</v>
       </c>
       <c r="F50" t="n">
-        <v>1300</v>
+        <v>394879.7469</v>
       </c>
       <c r="G50" t="n">
-        <v>1.785633333333333</v>
+        <v>1.785183333333333</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2160,10 +2160,10 @@
         <v>1.788</v>
       </c>
       <c r="F51" t="n">
-        <v>159347.3387</v>
+        <v>1300</v>
       </c>
       <c r="G51" t="n">
-        <v>1.786083333333333</v>
+        <v>1.785633333333333</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2183,22 +2183,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>1.789</v>
+        <v>1.788</v>
       </c>
       <c r="C52" t="n">
-        <v>1.8</v>
+        <v>1.788</v>
       </c>
       <c r="D52" t="n">
-        <v>1.8</v>
+        <v>1.788</v>
       </c>
       <c r="E52" t="n">
-        <v>1.789</v>
+        <v>1.788</v>
       </c>
       <c r="F52" t="n">
-        <v>566.8509</v>
+        <v>159347.3387</v>
       </c>
       <c r="G52" t="n">
-        <v>1.786416666666666</v>
+        <v>1.786083333333333</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2218,7 +2218,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>1.8</v>
+        <v>1.789</v>
       </c>
       <c r="C53" t="n">
         <v>1.8</v>
@@ -2227,13 +2227,13 @@
         <v>1.8</v>
       </c>
       <c r="E53" t="n">
-        <v>1.8</v>
+        <v>1.789</v>
       </c>
       <c r="F53" t="n">
-        <v>4718.1491</v>
+        <v>566.8509</v>
       </c>
       <c r="G53" t="n">
-        <v>1.787066666666666</v>
+        <v>1.786416666666666</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2253,22 +2253,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>1.801</v>
+        <v>1.8</v>
       </c>
       <c r="C54" t="n">
-        <v>1.801</v>
+        <v>1.8</v>
       </c>
       <c r="D54" t="n">
-        <v>1.801</v>
+        <v>1.8</v>
       </c>
       <c r="E54" t="n">
-        <v>1.801</v>
+        <v>1.8</v>
       </c>
       <c r="F54" t="n">
-        <v>167284.141</v>
+        <v>4718.1491</v>
       </c>
       <c r="G54" t="n">
-        <v>1.787233333333333</v>
+        <v>1.787066666666666</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2300,10 +2300,10 @@
         <v>1.801</v>
       </c>
       <c r="F55" t="n">
-        <v>249801.1247</v>
+        <v>167284.141</v>
       </c>
       <c r="G55" t="n">
-        <v>1.787183333333333</v>
+        <v>1.787233333333333</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2335,10 +2335,10 @@
         <v>1.801</v>
       </c>
       <c r="F56" t="n">
-        <v>14342.7273</v>
+        <v>249801.1247</v>
       </c>
       <c r="G56" t="n">
-        <v>1.787083333333333</v>
+        <v>1.787183333333333</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2361,19 +2361,19 @@
         <v>1.801</v>
       </c>
       <c r="C57" t="n">
-        <v>1.81</v>
+        <v>1.801</v>
       </c>
       <c r="D57" t="n">
-        <v>1.81</v>
+        <v>1.801</v>
       </c>
       <c r="E57" t="n">
-        <v>1.792</v>
+        <v>1.801</v>
       </c>
       <c r="F57" t="n">
-        <v>1983777.6673</v>
+        <v>14342.7273</v>
       </c>
       <c r="G57" t="n">
-        <v>1.787116666666666</v>
+        <v>1.787083333333333</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2393,22 +2393,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>1.792</v>
+        <v>1.801</v>
       </c>
       <c r="C58" t="n">
-        <v>1.809</v>
+        <v>1.81</v>
       </c>
       <c r="D58" t="n">
-        <v>1.809</v>
+        <v>1.81</v>
       </c>
       <c r="E58" t="n">
         <v>1.792</v>
       </c>
       <c r="F58" t="n">
-        <v>2757586.5753</v>
+        <v>1983777.6673</v>
       </c>
       <c r="G58" t="n">
-        <v>1.787149999999999</v>
+        <v>1.787116666666666</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2428,7 +2428,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>1.809</v>
+        <v>1.792</v>
       </c>
       <c r="C59" t="n">
         <v>1.809</v>
@@ -2437,13 +2437,13 @@
         <v>1.809</v>
       </c>
       <c r="E59" t="n">
-        <v>1.809</v>
+        <v>1.792</v>
       </c>
       <c r="F59" t="n">
-        <v>53634.362</v>
+        <v>2757586.5753</v>
       </c>
       <c r="G59" t="n">
-        <v>1.787183333333332</v>
+        <v>1.787149999999999</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2463,22 +2463,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>1.794</v>
+        <v>1.809</v>
       </c>
       <c r="C60" t="n">
-        <v>1.793</v>
+        <v>1.809</v>
       </c>
       <c r="D60" t="n">
-        <v>1.794</v>
+        <v>1.809</v>
       </c>
       <c r="E60" t="n">
-        <v>1.793</v>
+        <v>1.809</v>
       </c>
       <c r="F60" t="n">
-        <v>150000</v>
+        <v>53634.362</v>
       </c>
       <c r="G60" t="n">
-        <v>1.787199999999999</v>
+        <v>1.787183333333332</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2498,22 +2498,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>1.793</v>
+        <v>1.794</v>
       </c>
       <c r="C61" t="n">
         <v>1.793</v>
       </c>
       <c r="D61" t="n">
-        <v>1.793</v>
+        <v>1.794</v>
       </c>
       <c r="E61" t="n">
         <v>1.793</v>
       </c>
       <c r="F61" t="n">
-        <v>95933.3756</v>
+        <v>150000</v>
       </c>
       <c r="G61" t="n">
-        <v>1.786916666666666</v>
+        <v>1.787199999999999</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2533,22 +2533,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>1.808</v>
+        <v>1.793</v>
       </c>
       <c r="C62" t="n">
-        <v>1.81</v>
+        <v>1.793</v>
       </c>
       <c r="D62" t="n">
-        <v>1.81</v>
+        <v>1.793</v>
       </c>
       <c r="E62" t="n">
-        <v>1.794</v>
+        <v>1.793</v>
       </c>
       <c r="F62" t="n">
-        <v>2835890</v>
+        <v>95933.3756</v>
       </c>
       <c r="G62" t="n">
-        <v>1.786899999999999</v>
+        <v>1.786916666666666</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2568,10 +2568,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
+        <v>1.808</v>
+      </c>
+      <c r="C63" t="n">
         <v>1.81</v>
-      </c>
-      <c r="C63" t="n">
-        <v>1.794</v>
       </c>
       <c r="D63" t="n">
         <v>1.81</v>
@@ -2580,10 +2580,10 @@
         <v>1.794</v>
       </c>
       <c r="F63" t="n">
-        <v>671392</v>
+        <v>2835890</v>
       </c>
       <c r="G63" t="n">
-        <v>1.786633333333333</v>
+        <v>1.786899999999999</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2606,7 +2606,7 @@
         <v>1.81</v>
       </c>
       <c r="C64" t="n">
-        <v>1.81</v>
+        <v>1.794</v>
       </c>
       <c r="D64" t="n">
         <v>1.81</v>
@@ -2615,10 +2615,10 @@
         <v>1.794</v>
       </c>
       <c r="F64" t="n">
-        <v>1438713</v>
+        <v>671392</v>
       </c>
       <c r="G64" t="n">
-        <v>1.786983333333333</v>
+        <v>1.786633333333333</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2641,7 +2641,7 @@
         <v>1.81</v>
       </c>
       <c r="C65" t="n">
-        <v>1.794</v>
+        <v>1.81</v>
       </c>
       <c r="D65" t="n">
         <v>1.81</v>
@@ -2650,10 +2650,10 @@
         <v>1.794</v>
       </c>
       <c r="F65" t="n">
-        <v>2108540</v>
+        <v>1438713</v>
       </c>
       <c r="G65" t="n">
-        <v>1.787516666666666</v>
+        <v>1.786983333333333</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2673,10 +2673,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="C66" t="n">
         <v>1.794</v>
-      </c>
-      <c r="C66" t="n">
-        <v>1.81</v>
       </c>
       <c r="D66" t="n">
         <v>1.81</v>
@@ -2685,10 +2685,10 @@
         <v>1.794</v>
       </c>
       <c r="F66" t="n">
-        <v>566.0652</v>
+        <v>2108540</v>
       </c>
       <c r="G66" t="n">
-        <v>1.788183333333333</v>
+        <v>1.787516666666666</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2708,22 +2708,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>1.808</v>
+        <v>1.794</v>
       </c>
       <c r="C67" t="n">
-        <v>1.793</v>
+        <v>1.81</v>
       </c>
       <c r="D67" t="n">
-        <v>1.808</v>
+        <v>1.81</v>
       </c>
       <c r="E67" t="n">
-        <v>1.793</v>
+        <v>1.794</v>
       </c>
       <c r="F67" t="n">
-        <v>1539326</v>
+        <v>566.0652</v>
       </c>
       <c r="G67" t="n">
-        <v>1.787916666666666</v>
+        <v>1.788183333333333</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2743,22 +2743,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>1.791</v>
+        <v>1.808</v>
       </c>
       <c r="C68" t="n">
-        <v>1.806</v>
+        <v>1.793</v>
       </c>
       <c r="D68" t="n">
-        <v>1.806</v>
+        <v>1.808</v>
       </c>
       <c r="E68" t="n">
-        <v>1.791</v>
+        <v>1.793</v>
       </c>
       <c r="F68" t="n">
-        <v>566.2238</v>
+        <v>1539326</v>
       </c>
       <c r="G68" t="n">
-        <v>1.788216666666666</v>
+        <v>1.787916666666666</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2778,22 +2778,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>1.808</v>
+        <v>1.791</v>
       </c>
       <c r="C69" t="n">
-        <v>1.792</v>
+        <v>1.806</v>
       </c>
       <c r="D69" t="n">
-        <v>1.808</v>
+        <v>1.806</v>
       </c>
       <c r="E69" t="n">
-        <v>1.792</v>
+        <v>1.791</v>
       </c>
       <c r="F69" t="n">
-        <v>2206309</v>
+        <v>566.2238</v>
       </c>
       <c r="G69" t="n">
-        <v>1.788283333333333</v>
+        <v>1.788216666666666</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2813,22 +2813,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>1.81</v>
+        <v>1.808</v>
       </c>
       <c r="C70" t="n">
-        <v>1.81</v>
+        <v>1.792</v>
       </c>
       <c r="D70" t="n">
-        <v>1.81</v>
+        <v>1.808</v>
       </c>
       <c r="E70" t="n">
-        <v>1.81</v>
+        <v>1.792</v>
       </c>
       <c r="F70" t="n">
-        <v>5000</v>
+        <v>2206309</v>
       </c>
       <c r="G70" t="n">
-        <v>1.78835</v>
+        <v>1.788283333333333</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2851,19 +2851,19 @@
         <v>1.81</v>
       </c>
       <c r="C71" t="n">
-        <v>1.794</v>
+        <v>1.81</v>
       </c>
       <c r="D71" t="n">
         <v>1.81</v>
       </c>
       <c r="E71" t="n">
-        <v>1.794</v>
+        <v>1.81</v>
       </c>
       <c r="F71" t="n">
-        <v>2938082</v>
+        <v>5000</v>
       </c>
       <c r="G71" t="n">
-        <v>1.78845</v>
+        <v>1.78835</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2883,22 +2883,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>1.809</v>
+        <v>1.81</v>
       </c>
       <c r="C72" t="n">
         <v>1.794</v>
       </c>
       <c r="D72" t="n">
-        <v>1.809</v>
+        <v>1.81</v>
       </c>
       <c r="E72" t="n">
         <v>1.794</v>
       </c>
       <c r="F72" t="n">
-        <v>1584686</v>
+        <v>2938082</v>
       </c>
       <c r="G72" t="n">
-        <v>1.78855</v>
+        <v>1.78845</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2918,22 +2918,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>1.808</v>
+        <v>1.809</v>
       </c>
       <c r="C73" t="n">
-        <v>1.808</v>
+        <v>1.794</v>
       </c>
       <c r="D73" t="n">
-        <v>1.808</v>
+        <v>1.809</v>
       </c>
       <c r="E73" t="n">
-        <v>1.808</v>
+        <v>1.794</v>
       </c>
       <c r="F73" t="n">
-        <v>5000</v>
+        <v>1584686</v>
       </c>
       <c r="G73" t="n">
-        <v>1.7889</v>
+        <v>1.78855</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2965,10 +2965,10 @@
         <v>1.808</v>
       </c>
       <c r="F74" t="n">
-        <v>126865.9876</v>
+        <v>5000</v>
       </c>
       <c r="G74" t="n">
-        <v>1.788983333333333</v>
+        <v>1.7889</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2988,22 +2988,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>1.809</v>
+        <v>1.808</v>
       </c>
       <c r="C75" t="n">
-        <v>1.809</v>
+        <v>1.808</v>
       </c>
       <c r="D75" t="n">
-        <v>1.809</v>
+        <v>1.808</v>
       </c>
       <c r="E75" t="n">
-        <v>1.809</v>
+        <v>1.808</v>
       </c>
       <c r="F75" t="n">
-        <v>12959.8447</v>
+        <v>126865.9876</v>
       </c>
       <c r="G75" t="n">
-        <v>1.78945</v>
+        <v>1.788983333333333</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3035,10 +3035,10 @@
         <v>1.809</v>
       </c>
       <c r="F76" t="n">
-        <v>35000</v>
+        <v>12959.8447</v>
       </c>
       <c r="G76" t="n">
-        <v>1.789533333333333</v>
+        <v>1.78945</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3061,19 +3061,19 @@
         <v>1.809</v>
       </c>
       <c r="C77" t="n">
-        <v>1.811</v>
+        <v>1.809</v>
       </c>
       <c r="D77" t="n">
-        <v>1.811</v>
+        <v>1.809</v>
       </c>
       <c r="E77" t="n">
-        <v>1.796</v>
+        <v>1.809</v>
       </c>
       <c r="F77" t="n">
-        <v>1690404.8654</v>
+        <v>35000</v>
       </c>
       <c r="G77" t="n">
-        <v>1.790216666666667</v>
+        <v>1.789533333333333</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3093,10 +3093,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
+        <v>1.809</v>
+      </c>
+      <c r="C78" t="n">
         <v>1.811</v>
-      </c>
-      <c r="C78" t="n">
-        <v>1.796</v>
       </c>
       <c r="D78" t="n">
         <v>1.811</v>
@@ -3105,10 +3105,10 @@
         <v>1.796</v>
       </c>
       <c r="F78" t="n">
-        <v>3560559</v>
+        <v>1690404.8654</v>
       </c>
       <c r="G78" t="n">
-        <v>1.790116666666667</v>
+        <v>1.790216666666667</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3131,19 +3131,19 @@
         <v>1.811</v>
       </c>
       <c r="C79" t="n">
-        <v>1.813</v>
+        <v>1.796</v>
       </c>
       <c r="D79" t="n">
-        <v>1.813</v>
+        <v>1.811</v>
       </c>
       <c r="E79" t="n">
-        <v>1.811</v>
+        <v>1.796</v>
       </c>
       <c r="F79" t="n">
-        <v>117770.6341</v>
+        <v>3560559</v>
       </c>
       <c r="G79" t="n">
-        <v>1.790283333333333</v>
+        <v>1.790116666666667</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3163,22 +3163,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>1.81</v>
+        <v>1.811</v>
       </c>
       <c r="C80" t="n">
-        <v>1.81</v>
+        <v>1.813</v>
       </c>
       <c r="D80" t="n">
-        <v>1.81</v>
+        <v>1.813</v>
       </c>
       <c r="E80" t="n">
-        <v>1.81</v>
+        <v>1.811</v>
       </c>
       <c r="F80" t="n">
-        <v>343886.2016</v>
+        <v>117770.6341</v>
       </c>
       <c r="G80" t="n">
-        <v>1.79105</v>
+        <v>1.790283333333333</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3198,22 +3198,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>1.812</v>
+        <v>1.81</v>
       </c>
       <c r="C81" t="n">
-        <v>1.796</v>
+        <v>1.81</v>
       </c>
       <c r="D81" t="n">
-        <v>1.812</v>
+        <v>1.81</v>
       </c>
       <c r="E81" t="n">
-        <v>1.796</v>
+        <v>1.81</v>
       </c>
       <c r="F81" t="n">
-        <v>283836.991</v>
+        <v>343886.2016</v>
       </c>
       <c r="G81" t="n">
-        <v>1.7915</v>
+        <v>1.79105</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3233,22 +3233,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>1.798</v>
+        <v>1.812</v>
       </c>
       <c r="C82" t="n">
-        <v>1.795</v>
+        <v>1.796</v>
       </c>
       <c r="D82" t="n">
-        <v>1.798</v>
+        <v>1.812</v>
       </c>
       <c r="E82" t="n">
-        <v>1.795</v>
+        <v>1.796</v>
       </c>
       <c r="F82" t="n">
-        <v>1082988.0226</v>
+        <v>283836.991</v>
       </c>
       <c r="G82" t="n">
-        <v>1.79195</v>
+        <v>1.7915</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3268,22 +3268,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>1.795</v>
+        <v>1.798</v>
       </c>
       <c r="C83" t="n">
         <v>1.795</v>
       </c>
       <c r="D83" t="n">
-        <v>1.795</v>
+        <v>1.798</v>
       </c>
       <c r="E83" t="n">
         <v>1.795</v>
       </c>
       <c r="F83" t="n">
-        <v>279</v>
+        <v>1082988.0226</v>
       </c>
       <c r="G83" t="n">
-        <v>1.7924</v>
+        <v>1.79195</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3315,10 +3315,10 @@
         <v>1.795</v>
       </c>
       <c r="F84" t="n">
-        <v>122674.8742</v>
+        <v>279</v>
       </c>
       <c r="G84" t="n">
-        <v>1.79295</v>
+        <v>1.7924</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3338,22 +3338,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>1.81</v>
+        <v>1.795</v>
       </c>
       <c r="C85" t="n">
-        <v>1.796</v>
+        <v>1.795</v>
       </c>
       <c r="D85" t="n">
-        <v>1.811</v>
+        <v>1.795</v>
       </c>
       <c r="E85" t="n">
-        <v>1.796</v>
+        <v>1.795</v>
       </c>
       <c r="F85" t="n">
-        <v>645534</v>
+        <v>122674.8742</v>
       </c>
       <c r="G85" t="n">
-        <v>1.7935</v>
+        <v>1.79295</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3376,19 +3376,19 @@
         <v>1.81</v>
       </c>
       <c r="C86" t="n">
-        <v>1.81</v>
+        <v>1.796</v>
       </c>
       <c r="D86" t="n">
-        <v>1.81</v>
+        <v>1.811</v>
       </c>
       <c r="E86" t="n">
-        <v>1.795</v>
+        <v>1.796</v>
       </c>
       <c r="F86" t="n">
-        <v>855808</v>
+        <v>645534</v>
       </c>
       <c r="G86" t="n">
-        <v>1.794183333333333</v>
+        <v>1.7935</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3408,10 +3408,10 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>1.795</v>
+        <v>1.81</v>
       </c>
       <c r="C87" t="n">
-        <v>1.795</v>
+        <v>1.81</v>
       </c>
       <c r="D87" t="n">
         <v>1.81</v>
@@ -3420,10 +3420,10 @@
         <v>1.795</v>
       </c>
       <c r="F87" t="n">
-        <v>1925731</v>
+        <v>855808</v>
       </c>
       <c r="G87" t="n">
-        <v>1.794216666666667</v>
+        <v>1.794183333333333</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3443,22 +3443,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>1.81</v>
+        <v>1.795</v>
       </c>
       <c r="C88" t="n">
-        <v>1.81</v>
+        <v>1.795</v>
       </c>
       <c r="D88" t="n">
         <v>1.81</v>
       </c>
       <c r="E88" t="n">
-        <v>1.81</v>
+        <v>1.795</v>
       </c>
       <c r="F88" t="n">
-        <v>163613.9099</v>
+        <v>1925731</v>
       </c>
       <c r="G88" t="n">
-        <v>1.79485</v>
+        <v>1.794216666666667</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3481,19 +3481,19 @@
         <v>1.81</v>
       </c>
       <c r="C89" t="n">
-        <v>1.811</v>
+        <v>1.81</v>
       </c>
       <c r="D89" t="n">
-        <v>1.811</v>
+        <v>1.81</v>
       </c>
       <c r="E89" t="n">
         <v>1.81</v>
       </c>
       <c r="F89" t="n">
-        <v>118165.5744</v>
+        <v>163613.9099</v>
       </c>
       <c r="G89" t="n">
-        <v>1.795533333333334</v>
+        <v>1.79485</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3513,7 +3513,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>1.811</v>
+        <v>1.81</v>
       </c>
       <c r="C90" t="n">
         <v>1.811</v>
@@ -3522,13 +3522,13 @@
         <v>1.811</v>
       </c>
       <c r="E90" t="n">
-        <v>1.796</v>
+        <v>1.81</v>
       </c>
       <c r="F90" t="n">
-        <v>942076</v>
+        <v>118165.5744</v>
       </c>
       <c r="G90" t="n">
-        <v>1.796216666666667</v>
+        <v>1.795533333333334</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>1.811</v>
       </c>
       <c r="C91" t="n">
-        <v>1.796</v>
+        <v>1.811</v>
       </c>
       <c r="D91" t="n">
         <v>1.811</v>
@@ -3560,10 +3560,10 @@
         <v>1.796</v>
       </c>
       <c r="F91" t="n">
-        <v>1401451</v>
+        <v>942076</v>
       </c>
       <c r="G91" t="n">
-        <v>1.7963</v>
+        <v>1.796216666666667</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3595,10 +3595,10 @@
         <v>1.796</v>
       </c>
       <c r="F92" t="n">
-        <v>684776</v>
+        <v>1401451</v>
       </c>
       <c r="G92" t="n">
-        <v>1.796483333333334</v>
+        <v>1.7963</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3630,10 +3630,10 @@
         <v>1.796</v>
       </c>
       <c r="F93" t="n">
-        <v>1544812</v>
+        <v>684776</v>
       </c>
       <c r="G93" t="n">
-        <v>1.796916666666667</v>
+        <v>1.796483333333334</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3656,19 +3656,19 @@
         <v>1.811</v>
       </c>
       <c r="C94" t="n">
-        <v>1.811</v>
+        <v>1.796</v>
       </c>
       <c r="D94" t="n">
         <v>1.811</v>
       </c>
       <c r="E94" t="n">
-        <v>1.811</v>
+        <v>1.796</v>
       </c>
       <c r="F94" t="n">
-        <v>2222</v>
+        <v>1544812</v>
       </c>
       <c r="G94" t="n">
-        <v>1.797600000000001</v>
+        <v>1.796916666666667</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3688,22 +3688,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>1.796</v>
+        <v>1.811</v>
       </c>
       <c r="C95" t="n">
-        <v>1.79</v>
+        <v>1.811</v>
       </c>
       <c r="D95" t="n">
-        <v>1.808</v>
+        <v>1.811</v>
       </c>
       <c r="E95" t="n">
-        <v>1.79</v>
+        <v>1.811</v>
       </c>
       <c r="F95" t="n">
-        <v>952354.1316</v>
+        <v>2222</v>
       </c>
       <c r="G95" t="n">
-        <v>1.797933333333334</v>
+        <v>1.797600000000001</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3723,22 +3723,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>1.791</v>
+        <v>1.796</v>
       </c>
       <c r="C96" t="n">
-        <v>1.808</v>
+        <v>1.79</v>
       </c>
       <c r="D96" t="n">
         <v>1.808</v>
       </c>
       <c r="E96" t="n">
-        <v>1.791</v>
+        <v>1.79</v>
       </c>
       <c r="F96" t="n">
-        <v>3016200</v>
+        <v>952354.1316</v>
       </c>
       <c r="G96" t="n">
-        <v>1.798516666666668</v>
+        <v>1.797933333333334</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3761,19 +3761,19 @@
         <v>1.791</v>
       </c>
       <c r="C97" t="n">
-        <v>1.791</v>
+        <v>1.808</v>
       </c>
       <c r="D97" t="n">
-        <v>1.791</v>
+        <v>1.808</v>
       </c>
       <c r="E97" t="n">
         <v>1.791</v>
       </c>
       <c r="F97" t="n">
-        <v>421896</v>
+        <v>3016200</v>
       </c>
       <c r="G97" t="n">
-        <v>1.798833333333334</v>
+        <v>1.798516666666668</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3793,22 +3793,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>1.808</v>
+        <v>1.791</v>
       </c>
       <c r="C98" t="n">
-        <v>1.808</v>
+        <v>1.791</v>
       </c>
       <c r="D98" t="n">
-        <v>1.808</v>
+        <v>1.791</v>
       </c>
       <c r="E98" t="n">
-        <v>1.808</v>
+        <v>1.791</v>
       </c>
       <c r="F98" t="n">
-        <v>359.2796</v>
+        <v>421896</v>
       </c>
       <c r="G98" t="n">
-        <v>1.798916666666668</v>
+        <v>1.798833333333334</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3831,19 +3831,19 @@
         <v>1.808</v>
       </c>
       <c r="C99" t="n">
-        <v>1.791</v>
+        <v>1.808</v>
       </c>
       <c r="D99" t="n">
         <v>1.808</v>
       </c>
       <c r="E99" t="n">
-        <v>1.791</v>
+        <v>1.808</v>
       </c>
       <c r="F99" t="n">
-        <v>3713939</v>
+        <v>359.2796</v>
       </c>
       <c r="G99" t="n">
-        <v>1.799066666666668</v>
+        <v>1.798916666666668</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3875,10 +3875,10 @@
         <v>1.791</v>
       </c>
       <c r="F100" t="n">
-        <v>738823</v>
+        <v>3713939</v>
       </c>
       <c r="G100" t="n">
-        <v>1.799183333333334</v>
+        <v>1.799066666666668</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3901,19 +3901,19 @@
         <v>1.808</v>
       </c>
       <c r="C101" t="n">
-        <v>1.808</v>
+        <v>1.791</v>
       </c>
       <c r="D101" t="n">
         <v>1.808</v>
       </c>
       <c r="E101" t="n">
-        <v>1.808</v>
+        <v>1.791</v>
       </c>
       <c r="F101" t="n">
-        <v>277</v>
+        <v>738823</v>
       </c>
       <c r="G101" t="n">
-        <v>1.799600000000001</v>
+        <v>1.799183333333334</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3933,22 +3933,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>1.806</v>
+        <v>1.808</v>
       </c>
       <c r="C102" t="n">
-        <v>1.806</v>
+        <v>1.808</v>
       </c>
       <c r="D102" t="n">
-        <v>1.806</v>
+        <v>1.808</v>
       </c>
       <c r="E102" t="n">
-        <v>1.806</v>
+        <v>1.808</v>
       </c>
       <c r="F102" t="n">
         <v>277</v>
       </c>
       <c r="G102" t="n">
-        <v>1.799966666666667</v>
+        <v>1.799600000000001</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3968,22 +3968,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>1.808</v>
+        <v>1.806</v>
       </c>
       <c r="C103" t="n">
-        <v>1.791</v>
+        <v>1.806</v>
       </c>
       <c r="D103" t="n">
-        <v>1.808</v>
+        <v>1.806</v>
       </c>
       <c r="E103" t="n">
-        <v>1.791</v>
+        <v>1.806</v>
       </c>
       <c r="F103" t="n">
-        <v>1595921</v>
+        <v>277</v>
       </c>
       <c r="G103" t="n">
-        <v>1.800133333333334</v>
+        <v>1.799966666666667</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4015,10 +4015,10 @@
         <v>1.791</v>
       </c>
       <c r="F104" t="n">
-        <v>3097551</v>
+        <v>1595921</v>
       </c>
       <c r="G104" t="n">
-        <v>1.800266666666667</v>
+        <v>1.800133333333334</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4050,10 +4050,10 @@
         <v>1.791</v>
       </c>
       <c r="F105" t="n">
-        <v>3020141</v>
+        <v>3097551</v>
       </c>
       <c r="G105" t="n">
-        <v>1.800116666666667</v>
+        <v>1.800266666666667</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4085,10 +4085,10 @@
         <v>1.791</v>
       </c>
       <c r="F106" t="n">
-        <v>1425535</v>
+        <v>3020141</v>
       </c>
       <c r="G106" t="n">
-        <v>1.800183333333334</v>
+        <v>1.800116666666667</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4111,19 +4111,19 @@
         <v>1.808</v>
       </c>
       <c r="C107" t="n">
-        <v>1.792</v>
+        <v>1.791</v>
       </c>
       <c r="D107" t="n">
         <v>1.808</v>
       </c>
       <c r="E107" t="n">
-        <v>1.792</v>
+        <v>1.791</v>
       </c>
       <c r="F107" t="n">
-        <v>637918</v>
+        <v>1425535</v>
       </c>
       <c r="G107" t="n">
-        <v>1.800266666666667</v>
+        <v>1.800183333333334</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4155,10 +4155,10 @@
         <v>1.792</v>
       </c>
       <c r="F108" t="n">
-        <v>2934340</v>
+        <v>637918</v>
       </c>
       <c r="G108" t="n">
-        <v>1.8001</v>
+        <v>1.800266666666667</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4181,29 +4181,35 @@
         <v>1.808</v>
       </c>
       <c r="C109" t="n">
-        <v>1.808</v>
+        <v>1.792</v>
       </c>
       <c r="D109" t="n">
         <v>1.808</v>
       </c>
       <c r="E109" t="n">
-        <v>1.808</v>
+        <v>1.792</v>
       </c>
       <c r="F109" t="n">
-        <v>269712</v>
+        <v>2934340</v>
       </c>
       <c r="G109" t="n">
-        <v>1.800433333333334</v>
+        <v>1.8001</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>1.792</v>
+      </c>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4213,22 +4219,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>1.792</v>
+        <v>1.808</v>
       </c>
       <c r="C110" t="n">
-        <v>1.792</v>
+        <v>1.808</v>
       </c>
       <c r="D110" t="n">
         <v>1.808</v>
       </c>
       <c r="E110" t="n">
-        <v>1.792</v>
+        <v>1.808</v>
       </c>
       <c r="F110" t="n">
-        <v>3518109</v>
+        <v>269712</v>
       </c>
       <c r="G110" t="n">
-        <v>1.8005</v>
+        <v>1.800433333333334</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4238,7 +4244,11 @@
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4248,10 +4258,10 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>1.808</v>
+        <v>1.792</v>
       </c>
       <c r="C111" t="n">
-        <v>1.808</v>
+        <v>1.792</v>
       </c>
       <c r="D111" t="n">
         <v>1.808</v>
@@ -4260,10 +4270,10 @@
         <v>1.792</v>
       </c>
       <c r="F111" t="n">
-        <v>1025580</v>
+        <v>3518109</v>
       </c>
       <c r="G111" t="n">
-        <v>1.800833333333334</v>
+        <v>1.8005</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4273,7 +4283,11 @@
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4283,10 +4297,10 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>1.792</v>
+        <v>1.808</v>
       </c>
       <c r="C112" t="n">
-        <v>1.792</v>
+        <v>1.808</v>
       </c>
       <c r="D112" t="n">
         <v>1.808</v>
@@ -4295,10 +4309,10 @@
         <v>1.792</v>
       </c>
       <c r="F112" t="n">
-        <v>2617583</v>
+        <v>1025580</v>
       </c>
       <c r="G112" t="n">
-        <v>1.800700000000001</v>
+        <v>1.800833333333334</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4308,7 +4322,11 @@
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4318,10 +4336,10 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>1.808</v>
+        <v>1.792</v>
       </c>
       <c r="C113" t="n">
-        <v>1.808</v>
+        <v>1.792</v>
       </c>
       <c r="D113" t="n">
         <v>1.808</v>
@@ -4330,10 +4348,10 @@
         <v>1.792</v>
       </c>
       <c r="F113" t="n">
-        <v>2622521</v>
+        <v>2617583</v>
       </c>
       <c r="G113" t="n">
-        <v>1.800833333333334</v>
+        <v>1.800700000000001</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4343,7 +4361,11 @@
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4353,10 +4375,10 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>1.792</v>
+        <v>1.808</v>
       </c>
       <c r="C114" t="n">
-        <v>1.792</v>
+        <v>1.808</v>
       </c>
       <c r="D114" t="n">
         <v>1.808</v>
@@ -4365,10 +4387,10 @@
         <v>1.792</v>
       </c>
       <c r="F114" t="n">
-        <v>1920413</v>
+        <v>2622521</v>
       </c>
       <c r="G114" t="n">
-        <v>1.800683333333334</v>
+        <v>1.800833333333334</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4378,7 +4400,11 @@
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4388,22 +4414,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>1.808</v>
+        <v>1.792</v>
       </c>
       <c r="C115" t="n">
-        <v>1.808</v>
+        <v>1.792</v>
       </c>
       <c r="D115" t="n">
         <v>1.808</v>
       </c>
       <c r="E115" t="n">
-        <v>1.808</v>
+        <v>1.792</v>
       </c>
       <c r="F115" t="n">
-        <v>277</v>
+        <v>1920413</v>
       </c>
       <c r="G115" t="n">
-        <v>1.800800000000001</v>
+        <v>1.800683333333334</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4413,7 +4439,11 @@
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4426,19 +4456,19 @@
         <v>1.808</v>
       </c>
       <c r="C116" t="n">
-        <v>1.812</v>
+        <v>1.808</v>
       </c>
       <c r="D116" t="n">
-        <v>1.812</v>
+        <v>1.808</v>
       </c>
       <c r="E116" t="n">
         <v>1.808</v>
       </c>
       <c r="F116" t="n">
-        <v>199623.5704761037</v>
+        <v>277</v>
       </c>
       <c r="G116" t="n">
-        <v>1.800983333333334</v>
+        <v>1.800800000000001</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4448,7 +4478,11 @@
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4458,7 +4492,7 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>1.811</v>
+        <v>1.808</v>
       </c>
       <c r="C117" t="n">
         <v>1.812</v>
@@ -4467,13 +4501,13 @@
         <v>1.812</v>
       </c>
       <c r="E117" t="n">
-        <v>1.793</v>
+        <v>1.808</v>
       </c>
       <c r="F117" t="n">
-        <v>995237.7417218543</v>
+        <v>199623.5704761037</v>
       </c>
       <c r="G117" t="n">
-        <v>1.801016666666668</v>
+        <v>1.800983333333334</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4483,7 +4517,11 @@
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4496,19 +4534,19 @@
         <v>1.811</v>
       </c>
       <c r="C118" t="n">
-        <v>1.811</v>
+        <v>1.812</v>
       </c>
       <c r="D118" t="n">
-        <v>1.811</v>
+        <v>1.812</v>
       </c>
       <c r="E118" t="n">
-        <v>1.792</v>
+        <v>1.793</v>
       </c>
       <c r="F118" t="n">
-        <v>3046381</v>
+        <v>995237.7417218543</v>
       </c>
       <c r="G118" t="n">
-        <v>1.801050000000001</v>
+        <v>1.801016666666668</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4518,7 +4556,11 @@
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4531,7 +4573,7 @@
         <v>1.811</v>
       </c>
       <c r="C119" t="n">
-        <v>1.81</v>
+        <v>1.811</v>
       </c>
       <c r="D119" t="n">
         <v>1.811</v>
@@ -4540,24 +4582,22 @@
         <v>1.792</v>
       </c>
       <c r="F119" t="n">
-        <v>750700</v>
+        <v>3046381</v>
       </c>
       <c r="G119" t="n">
-        <v>1.801066666666667</v>
+        <v>1.801050000000001</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="n">
-        <v>1.811</v>
-      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M119" t="n">
@@ -4569,22 +4609,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>1.809</v>
+        <v>1.811</v>
       </c>
       <c r="C120" t="n">
-        <v>1.809</v>
+        <v>1.81</v>
       </c>
       <c r="D120" t="n">
-        <v>1.809</v>
+        <v>1.811</v>
       </c>
       <c r="E120" t="n">
-        <v>1.809</v>
+        <v>1.792</v>
       </c>
       <c r="F120" t="n">
-        <v>277</v>
+        <v>750700</v>
       </c>
       <c r="G120" t="n">
-        <v>1.801333333333334</v>
+        <v>1.801066666666667</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4623,7 +4663,7 @@
         <v>277</v>
       </c>
       <c r="G121" t="n">
-        <v>1.801600000000001</v>
+        <v>1.801333333333334</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4647,22 +4687,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>1.811</v>
+        <v>1.809</v>
       </c>
       <c r="C122" t="n">
-        <v>1.811</v>
+        <v>1.809</v>
       </c>
       <c r="D122" t="n">
-        <v>1.811</v>
+        <v>1.809</v>
       </c>
       <c r="E122" t="n">
-        <v>1.792</v>
+        <v>1.809</v>
       </c>
       <c r="F122" t="n">
-        <v>2352953</v>
+        <v>277</v>
       </c>
       <c r="G122" t="n">
-        <v>1.801616666666667</v>
+        <v>1.801600000000001</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4686,10 +4726,10 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>1.792</v>
+        <v>1.811</v>
       </c>
       <c r="C123" t="n">
-        <v>1.792</v>
+        <v>1.811</v>
       </c>
       <c r="D123" t="n">
         <v>1.811</v>
@@ -4698,10 +4738,10 @@
         <v>1.792</v>
       </c>
       <c r="F123" t="n">
-        <v>1872007</v>
+        <v>2352953</v>
       </c>
       <c r="G123" t="n">
-        <v>1.801583333333334</v>
+        <v>1.801616666666667</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4725,22 +4765,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>1.81</v>
+        <v>1.792</v>
       </c>
       <c r="C124" t="n">
-        <v>1.811</v>
+        <v>1.792</v>
       </c>
       <c r="D124" t="n">
         <v>1.811</v>
       </c>
       <c r="E124" t="n">
-        <v>1.793</v>
+        <v>1.792</v>
       </c>
       <c r="F124" t="n">
-        <v>1699087</v>
+        <v>1872007</v>
       </c>
       <c r="G124" t="n">
-        <v>1.801600000000001</v>
+        <v>1.801583333333334</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4764,10 +4804,10 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>1.794</v>
+        <v>1.81</v>
       </c>
       <c r="C125" t="n">
-        <v>1.794</v>
+        <v>1.811</v>
       </c>
       <c r="D125" t="n">
         <v>1.811</v>
@@ -4776,7 +4816,7 @@
         <v>1.793</v>
       </c>
       <c r="F125" t="n">
-        <v>2674487</v>
+        <v>1699087</v>
       </c>
       <c r="G125" t="n">
         <v>1.801600000000001</v>
@@ -4803,22 +4843,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>1.811</v>
+        <v>1.794</v>
       </c>
       <c r="C126" t="n">
-        <v>1.811</v>
+        <v>1.794</v>
       </c>
       <c r="D126" t="n">
         <v>1.811</v>
       </c>
       <c r="E126" t="n">
-        <v>1.811</v>
+        <v>1.793</v>
       </c>
       <c r="F126" t="n">
-        <v>2940.0325</v>
+        <v>2674487</v>
       </c>
       <c r="G126" t="n">
-        <v>1.801616666666667</v>
+        <v>1.801600000000001</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4842,22 +4882,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>1.809</v>
+        <v>1.811</v>
       </c>
       <c r="C127" t="n">
-        <v>1.809</v>
+        <v>1.811</v>
       </c>
       <c r="D127" t="n">
-        <v>1.809</v>
+        <v>1.811</v>
       </c>
       <c r="E127" t="n">
-        <v>1.809</v>
+        <v>1.811</v>
       </c>
       <c r="F127" t="n">
-        <v>277</v>
+        <v>2940.0325</v>
       </c>
       <c r="G127" t="n">
-        <v>1.801883333333334</v>
+        <v>1.801616666666667</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4881,22 +4921,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>1.81</v>
+        <v>1.809</v>
       </c>
       <c r="C128" t="n">
-        <v>1.81</v>
+        <v>1.809</v>
       </c>
       <c r="D128" t="n">
-        <v>1.81</v>
+        <v>1.809</v>
       </c>
       <c r="E128" t="n">
-        <v>1.81</v>
+        <v>1.809</v>
       </c>
       <c r="F128" t="n">
-        <v>490654.4351</v>
+        <v>277</v>
       </c>
       <c r="G128" t="n">
-        <v>1.801950000000001</v>
+        <v>1.801883333333334</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4920,22 +4960,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>1.811</v>
+        <v>1.81</v>
       </c>
       <c r="C129" t="n">
-        <v>1.815</v>
+        <v>1.81</v>
       </c>
       <c r="D129" t="n">
-        <v>1.815</v>
+        <v>1.81</v>
       </c>
       <c r="E129" t="n">
-        <v>1.811</v>
+        <v>1.81</v>
       </c>
       <c r="F129" t="n">
-        <v>1015307.056402042</v>
+        <v>490654.4351</v>
       </c>
       <c r="G129" t="n">
-        <v>1.802333333333334</v>
+        <v>1.801950000000001</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4959,22 +4999,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>1.816</v>
+        <v>1.811</v>
       </c>
       <c r="C130" t="n">
-        <v>1.816</v>
+        <v>1.815</v>
       </c>
       <c r="D130" t="n">
-        <v>1.817</v>
+        <v>1.815</v>
       </c>
       <c r="E130" t="n">
-        <v>1.801</v>
+        <v>1.811</v>
       </c>
       <c r="F130" t="n">
-        <v>3033448.2334</v>
+        <v>1015307.056402042</v>
       </c>
       <c r="G130" t="n">
-        <v>1.802433333333334</v>
+        <v>1.802333333333334</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4998,22 +5038,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>1.801</v>
+        <v>1.816</v>
       </c>
       <c r="C131" t="n">
-        <v>1.801</v>
+        <v>1.816</v>
       </c>
       <c r="D131" t="n">
-        <v>1.801</v>
+        <v>1.817</v>
       </c>
       <c r="E131" t="n">
         <v>1.801</v>
       </c>
       <c r="F131" t="n">
-        <v>406294</v>
+        <v>3033448.2334</v>
       </c>
       <c r="G131" t="n">
-        <v>1.802550000000001</v>
+        <v>1.802433333333334</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5037,22 +5077,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>1.815</v>
+        <v>1.801</v>
       </c>
       <c r="C132" t="n">
-        <v>1.798</v>
+        <v>1.801</v>
       </c>
       <c r="D132" t="n">
-        <v>1.816</v>
+        <v>1.801</v>
       </c>
       <c r="E132" t="n">
-        <v>1.798</v>
+        <v>1.801</v>
       </c>
       <c r="F132" t="n">
-        <v>708595</v>
+        <v>406294</v>
       </c>
       <c r="G132" t="n">
-        <v>1.802616666666667</v>
+        <v>1.802550000000001</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5076,10 +5116,10 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>1.816</v>
+        <v>1.815</v>
       </c>
       <c r="C133" t="n">
-        <v>1.801</v>
+        <v>1.798</v>
       </c>
       <c r="D133" t="n">
         <v>1.816</v>
@@ -5088,10 +5128,10 @@
         <v>1.798</v>
       </c>
       <c r="F133" t="n">
-        <v>2973208</v>
+        <v>708595</v>
       </c>
       <c r="G133" t="n">
-        <v>1.802500000000001</v>
+        <v>1.802616666666667</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5115,22 +5155,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
+        <v>1.816</v>
+      </c>
+      <c r="C134" t="n">
         <v>1.801</v>
       </c>
-      <c r="C134" t="n">
-        <v>1.8</v>
-      </c>
       <c r="D134" t="n">
-        <v>1.801</v>
+        <v>1.816</v>
       </c>
       <c r="E134" t="n">
-        <v>1.8</v>
+        <v>1.798</v>
       </c>
       <c r="F134" t="n">
-        <v>64176.9309</v>
+        <v>2973208</v>
       </c>
       <c r="G134" t="n">
-        <v>1.802366666666667</v>
+        <v>1.802500000000001</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5154,22 +5194,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>1.8</v>
+        <v>1.801</v>
       </c>
       <c r="C135" t="n">
         <v>1.8</v>
       </c>
       <c r="D135" t="n">
-        <v>1.8</v>
+        <v>1.801</v>
       </c>
       <c r="E135" t="n">
         <v>1.8</v>
       </c>
       <c r="F135" t="n">
-        <v>190283.1272</v>
+        <v>64176.9309</v>
       </c>
       <c r="G135" t="n">
-        <v>1.802216666666667</v>
+        <v>1.802366666666667</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5193,22 +5233,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>1.814</v>
+        <v>1.8</v>
       </c>
       <c r="C136" t="n">
-        <v>1.814</v>
+        <v>1.8</v>
       </c>
       <c r="D136" t="n">
-        <v>1.814</v>
+        <v>1.8</v>
       </c>
       <c r="E136" t="n">
-        <v>1.792</v>
+        <v>1.8</v>
       </c>
       <c r="F136" t="n">
-        <v>2625683</v>
+        <v>190283.1272</v>
       </c>
       <c r="G136" t="n">
-        <v>1.8023</v>
+        <v>1.802216666666667</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5232,10 +5272,10 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>1.792</v>
+        <v>1.814</v>
       </c>
       <c r="C137" t="n">
-        <v>1.792</v>
+        <v>1.814</v>
       </c>
       <c r="D137" t="n">
         <v>1.814</v>
@@ -5244,10 +5284,10 @@
         <v>1.792</v>
       </c>
       <c r="F137" t="n">
-        <v>1215418</v>
+        <v>2625683</v>
       </c>
       <c r="G137" t="n">
-        <v>1.801983333333334</v>
+        <v>1.8023</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5271,22 +5311,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>1.812</v>
+        <v>1.792</v>
       </c>
       <c r="C138" t="n">
         <v>1.792</v>
       </c>
       <c r="D138" t="n">
-        <v>1.812</v>
+        <v>1.814</v>
       </c>
       <c r="E138" t="n">
         <v>1.792</v>
       </c>
       <c r="F138" t="n">
-        <v>2880471</v>
+        <v>1215418</v>
       </c>
       <c r="G138" t="n">
-        <v>1.801916666666667</v>
+        <v>1.801983333333334</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5322,10 +5362,10 @@
         <v>1.792</v>
       </c>
       <c r="F139" t="n">
-        <v>1389327</v>
+        <v>2880471</v>
       </c>
       <c r="G139" t="n">
-        <v>1.801566666666667</v>
+        <v>1.801916666666667</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5349,19 +5389,19 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>1.81</v>
+        <v>1.812</v>
       </c>
       <c r="C140" t="n">
-        <v>1.81</v>
+        <v>1.792</v>
       </c>
       <c r="D140" t="n">
-        <v>1.81</v>
+        <v>1.812</v>
       </c>
       <c r="E140" t="n">
-        <v>1.81</v>
+        <v>1.792</v>
       </c>
       <c r="F140" t="n">
-        <v>277</v>
+        <v>1389327</v>
       </c>
       <c r="G140" t="n">
         <v>1.801566666666667</v>
@@ -5388,22 +5428,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>1.812</v>
+        <v>1.81</v>
       </c>
       <c r="C141" t="n">
-        <v>1.812</v>
+        <v>1.81</v>
       </c>
       <c r="D141" t="n">
-        <v>1.812</v>
+        <v>1.81</v>
       </c>
       <c r="E141" t="n">
-        <v>1.792</v>
+        <v>1.81</v>
       </c>
       <c r="F141" t="n">
-        <v>992451</v>
+        <v>277</v>
       </c>
       <c r="G141" t="n">
-        <v>1.801833333333334</v>
+        <v>1.801566666666667</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5427,10 +5467,10 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>1.792</v>
+        <v>1.812</v>
       </c>
       <c r="C142" t="n">
-        <v>1.792</v>
+        <v>1.812</v>
       </c>
       <c r="D142" t="n">
         <v>1.812</v>
@@ -5439,10 +5479,10 @@
         <v>1.792</v>
       </c>
       <c r="F142" t="n">
-        <v>3612988</v>
+        <v>992451</v>
       </c>
       <c r="G142" t="n">
-        <v>1.801783333333334</v>
+        <v>1.801833333333334</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5466,10 +5506,10 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>1.812</v>
+        <v>1.792</v>
       </c>
       <c r="C143" t="n">
-        <v>1.812</v>
+        <v>1.792</v>
       </c>
       <c r="D143" t="n">
         <v>1.812</v>
@@ -5478,10 +5518,10 @@
         <v>1.792</v>
       </c>
       <c r="F143" t="n">
-        <v>2173511</v>
+        <v>3612988</v>
       </c>
       <c r="G143" t="n">
-        <v>1.802066666666667</v>
+        <v>1.801783333333334</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5508,7 +5548,7 @@
         <v>1.812</v>
       </c>
       <c r="C144" t="n">
-        <v>1.792</v>
+        <v>1.812</v>
       </c>
       <c r="D144" t="n">
         <v>1.812</v>
@@ -5517,10 +5557,10 @@
         <v>1.792</v>
       </c>
       <c r="F144" t="n">
-        <v>1385847</v>
+        <v>2173511</v>
       </c>
       <c r="G144" t="n">
-        <v>1.802016666666667</v>
+        <v>1.802066666666667</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5556,10 +5596,10 @@
         <v>1.792</v>
       </c>
       <c r="F145" t="n">
-        <v>2593826</v>
+        <v>1385847</v>
       </c>
       <c r="G145" t="n">
-        <v>1.80195</v>
+        <v>1.802016666666667</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5583,7 +5623,7 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>1.792</v>
+        <v>1.812</v>
       </c>
       <c r="C146" t="n">
         <v>1.792</v>
@@ -5595,10 +5635,10 @@
         <v>1.792</v>
       </c>
       <c r="F146" t="n">
-        <v>1030346</v>
+        <v>2593826</v>
       </c>
       <c r="G146" t="n">
-        <v>1.80165</v>
+        <v>1.80195</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5622,22 +5662,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>1.811</v>
+        <v>1.792</v>
       </c>
       <c r="C147" t="n">
-        <v>1.811</v>
+        <v>1.792</v>
       </c>
       <c r="D147" t="n">
-        <v>1.811</v>
+        <v>1.812</v>
       </c>
       <c r="E147" t="n">
-        <v>1.811</v>
+        <v>1.792</v>
       </c>
       <c r="F147" t="n">
-        <v>262010</v>
+        <v>1030346</v>
       </c>
       <c r="G147" t="n">
-        <v>1.801916666666667</v>
+        <v>1.80165</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5661,22 +5701,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>1.795</v>
+        <v>1.811</v>
       </c>
       <c r="C148" t="n">
-        <v>1.792</v>
+        <v>1.811</v>
       </c>
       <c r="D148" t="n">
         <v>1.811</v>
       </c>
       <c r="E148" t="n">
-        <v>1.792</v>
+        <v>1.811</v>
       </c>
       <c r="F148" t="n">
-        <v>3267985</v>
+        <v>262010</v>
       </c>
       <c r="G148" t="n">
-        <v>1.801616666666667</v>
+        <v>1.801916666666667</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5700,22 +5740,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>1.811</v>
+        <v>1.795</v>
       </c>
       <c r="C149" t="n">
-        <v>1.811</v>
+        <v>1.792</v>
       </c>
       <c r="D149" t="n">
         <v>1.811</v>
       </c>
       <c r="E149" t="n">
-        <v>1.811</v>
+        <v>1.792</v>
       </c>
       <c r="F149" t="n">
-        <v>277</v>
+        <v>3267985</v>
       </c>
       <c r="G149" t="n">
-        <v>1.801616666666666</v>
+        <v>1.801616666666667</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5739,22 +5779,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>1.809</v>
+        <v>1.811</v>
       </c>
       <c r="C150" t="n">
-        <v>1.809</v>
+        <v>1.811</v>
       </c>
       <c r="D150" t="n">
-        <v>1.809</v>
+        <v>1.811</v>
       </c>
       <c r="E150" t="n">
-        <v>1.809</v>
+        <v>1.811</v>
       </c>
       <c r="F150" t="n">
         <v>277</v>
       </c>
       <c r="G150" t="n">
-        <v>1.801583333333333</v>
+        <v>1.801616666666666</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5778,22 +5818,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>1.811</v>
+        <v>1.809</v>
       </c>
       <c r="C151" t="n">
-        <v>1.811</v>
+        <v>1.809</v>
       </c>
       <c r="D151" t="n">
-        <v>1.811</v>
+        <v>1.809</v>
       </c>
       <c r="E151" t="n">
-        <v>1.794</v>
+        <v>1.809</v>
       </c>
       <c r="F151" t="n">
-        <v>1057878</v>
+        <v>277</v>
       </c>
       <c r="G151" t="n">
-        <v>1.801833333333333</v>
+        <v>1.801583333333333</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5817,22 +5857,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>1.793</v>
+        <v>1.811</v>
       </c>
       <c r="C152" t="n">
-        <v>1.792</v>
+        <v>1.811</v>
       </c>
       <c r="D152" t="n">
         <v>1.811</v>
       </c>
       <c r="E152" t="n">
-        <v>1.792</v>
+        <v>1.794</v>
       </c>
       <c r="F152" t="n">
-        <v>2430967</v>
+        <v>1057878</v>
       </c>
       <c r="G152" t="n">
-        <v>1.801766666666666</v>
+        <v>1.801833333333333</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5856,7 +5896,7 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>1.81</v>
+        <v>1.793</v>
       </c>
       <c r="C153" t="n">
         <v>1.792</v>
@@ -5868,10 +5908,10 @@
         <v>1.792</v>
       </c>
       <c r="F153" t="n">
-        <v>2812145</v>
+        <v>2430967</v>
       </c>
       <c r="G153" t="n">
-        <v>1.801699999999999</v>
+        <v>1.801766666666666</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5895,7 +5935,7 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>1.811</v>
+        <v>1.81</v>
       </c>
       <c r="C154" t="n">
         <v>1.792</v>
@@ -5907,10 +5947,10 @@
         <v>1.792</v>
       </c>
       <c r="F154" t="n">
-        <v>714286</v>
+        <v>2812145</v>
       </c>
       <c r="G154" t="n">
-        <v>1.801383333333333</v>
+        <v>1.801699999999999</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5934,22 +5974,22 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>1.81</v>
+        <v>1.811</v>
       </c>
       <c r="C155" t="n">
-        <v>1.811</v>
+        <v>1.792</v>
       </c>
       <c r="D155" t="n">
         <v>1.811</v>
       </c>
       <c r="E155" t="n">
-        <v>1.793</v>
+        <v>1.792</v>
       </c>
       <c r="F155" t="n">
-        <v>1571382</v>
+        <v>714286</v>
       </c>
       <c r="G155" t="n">
-        <v>1.801733333333333</v>
+        <v>1.801383333333333</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5973,10 +6013,10 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>1.793</v>
+        <v>1.81</v>
       </c>
       <c r="C156" t="n">
-        <v>1.793</v>
+        <v>1.811</v>
       </c>
       <c r="D156" t="n">
         <v>1.811</v>
@@ -5985,10 +6025,10 @@
         <v>1.793</v>
       </c>
       <c r="F156" t="n">
-        <v>1771255</v>
+        <v>1571382</v>
       </c>
       <c r="G156" t="n">
-        <v>1.801483333333333</v>
+        <v>1.801733333333333</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -6012,7 +6052,7 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>1.811</v>
+        <v>1.793</v>
       </c>
       <c r="C157" t="n">
         <v>1.793</v>
@@ -6024,10 +6064,10 @@
         <v>1.793</v>
       </c>
       <c r="F157" t="n">
-        <v>3078092</v>
+        <v>1771255</v>
       </c>
       <c r="G157" t="n">
-        <v>1.801516666666666</v>
+        <v>1.801483333333333</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -6063,10 +6103,10 @@
         <v>1.793</v>
       </c>
       <c r="F158" t="n">
-        <v>1482317</v>
+        <v>3078092</v>
       </c>
       <c r="G158" t="n">
-        <v>1.801266666666666</v>
+        <v>1.801516666666666</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -6090,22 +6130,22 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>1.81</v>
+        <v>1.811</v>
       </c>
       <c r="C159" t="n">
-        <v>1.794</v>
+        <v>1.793</v>
       </c>
       <c r="D159" t="n">
         <v>1.811</v>
       </c>
       <c r="E159" t="n">
-        <v>1.794</v>
+        <v>1.793</v>
       </c>
       <c r="F159" t="n">
-        <v>774819</v>
+        <v>1482317</v>
       </c>
       <c r="G159" t="n">
-        <v>1.801316666666666</v>
+        <v>1.801266666666666</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -6129,22 +6169,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>1.811</v>
+        <v>1.81</v>
       </c>
       <c r="C160" t="n">
-        <v>1.793</v>
+        <v>1.794</v>
       </c>
       <c r="D160" t="n">
         <v>1.811</v>
       </c>
       <c r="E160" t="n">
-        <v>1.793</v>
+        <v>1.794</v>
       </c>
       <c r="F160" t="n">
-        <v>3049302</v>
+        <v>774819</v>
       </c>
       <c r="G160" t="n">
-        <v>1.80135</v>
+        <v>1.801316666666666</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6168,10 +6208,10 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>1.81</v>
+        <v>1.811</v>
       </c>
       <c r="C161" t="n">
-        <v>1.811</v>
+        <v>1.793</v>
       </c>
       <c r="D161" t="n">
         <v>1.811</v>
@@ -6180,10 +6220,10 @@
         <v>1.793</v>
       </c>
       <c r="F161" t="n">
-        <v>1613612</v>
+        <v>3049302</v>
       </c>
       <c r="G161" t="n">
-        <v>1.8014</v>
+        <v>1.80135</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6207,10 +6247,10 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>1.793</v>
+        <v>1.81</v>
       </c>
       <c r="C162" t="n">
-        <v>1.793</v>
+        <v>1.811</v>
       </c>
       <c r="D162" t="n">
         <v>1.811</v>
@@ -6219,10 +6259,10 @@
         <v>1.793</v>
       </c>
       <c r="F162" t="n">
-        <v>1912792</v>
+        <v>1613612</v>
       </c>
       <c r="G162" t="n">
-        <v>1.801183333333333</v>
+        <v>1.8014</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6246,22 +6286,22 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>1.811</v>
+        <v>1.793</v>
       </c>
       <c r="C163" t="n">
-        <v>1.809</v>
+        <v>1.793</v>
       </c>
       <c r="D163" t="n">
         <v>1.811</v>
       </c>
       <c r="E163" t="n">
-        <v>1.791</v>
+        <v>1.793</v>
       </c>
       <c r="F163" t="n">
-        <v>2124026</v>
+        <v>1912792</v>
       </c>
       <c r="G163" t="n">
-        <v>1.801483333333333</v>
+        <v>1.801183333333333</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6285,22 +6325,22 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
+        <v>1.811</v>
+      </c>
+      <c r="C164" t="n">
         <v>1.809</v>
       </c>
-      <c r="C164" t="n">
-        <v>1.792</v>
-      </c>
       <c r="D164" t="n">
-        <v>1.809</v>
+        <v>1.811</v>
       </c>
       <c r="E164" t="n">
-        <v>1.792</v>
+        <v>1.791</v>
       </c>
       <c r="F164" t="n">
-        <v>1384013</v>
+        <v>2124026</v>
       </c>
       <c r="G164" t="n">
-        <v>1.8015</v>
+        <v>1.801483333333333</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6324,22 +6364,22 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>1.81</v>
+        <v>1.809</v>
       </c>
       <c r="C165" t="n">
-        <v>1.81</v>
+        <v>1.792</v>
       </c>
       <c r="D165" t="n">
-        <v>1.81</v>
+        <v>1.809</v>
       </c>
       <c r="E165" t="n">
-        <v>1.81</v>
+        <v>1.792</v>
       </c>
       <c r="F165" t="n">
-        <v>277</v>
+        <v>1384013</v>
       </c>
       <c r="G165" t="n">
-        <v>1.801816666666667</v>
+        <v>1.8015</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6363,22 +6403,22 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>1.808</v>
+        <v>1.81</v>
       </c>
       <c r="C166" t="n">
-        <v>1.808</v>
+        <v>1.81</v>
       </c>
       <c r="D166" t="n">
-        <v>1.808</v>
+        <v>1.81</v>
       </c>
       <c r="E166" t="n">
-        <v>1.808</v>
+        <v>1.81</v>
       </c>
       <c r="F166" t="n">
         <v>277</v>
       </c>
       <c r="G166" t="n">
-        <v>1.8021</v>
+        <v>1.801816666666667</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6402,19 +6442,19 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>1.809</v>
+        <v>1.808</v>
       </c>
       <c r="C167" t="n">
-        <v>1.792</v>
+        <v>1.808</v>
       </c>
       <c r="D167" t="n">
-        <v>1.809</v>
+        <v>1.808</v>
       </c>
       <c r="E167" t="n">
-        <v>1.792</v>
+        <v>1.808</v>
       </c>
       <c r="F167" t="n">
-        <v>2318573</v>
+        <v>277</v>
       </c>
       <c r="G167" t="n">
         <v>1.8021</v>
@@ -6453,7 +6493,7 @@
         <v>1.792</v>
       </c>
       <c r="F168" t="n">
-        <v>1466590</v>
+        <v>2318573</v>
       </c>
       <c r="G168" t="n">
         <v>1.8021</v>
@@ -6483,7 +6523,7 @@
         <v>1.809</v>
       </c>
       <c r="C169" t="n">
-        <v>1.809</v>
+        <v>1.792</v>
       </c>
       <c r="D169" t="n">
         <v>1.809</v>
@@ -6492,10 +6532,10 @@
         <v>1.792</v>
       </c>
       <c r="F169" t="n">
-        <v>2347363</v>
+        <v>1466590</v>
       </c>
       <c r="G169" t="n">
-        <v>1.802116666666667</v>
+        <v>1.8021</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6519,22 +6559,22 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>1.792</v>
+        <v>1.809</v>
       </c>
       <c r="C170" t="n">
-        <v>1.81</v>
+        <v>1.809</v>
       </c>
       <c r="D170" t="n">
-        <v>1.81</v>
+        <v>1.809</v>
       </c>
       <c r="E170" t="n">
         <v>1.792</v>
       </c>
       <c r="F170" t="n">
-        <v>1211332</v>
+        <v>2347363</v>
       </c>
       <c r="G170" t="n">
-        <v>1.802416666666667</v>
+        <v>1.802116666666667</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6558,22 +6598,22 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>1.807</v>
+        <v>1.792</v>
       </c>
       <c r="C171" t="n">
-        <v>1.807</v>
+        <v>1.81</v>
       </c>
       <c r="D171" t="n">
-        <v>1.807</v>
+        <v>1.81</v>
       </c>
       <c r="E171" t="n">
-        <v>1.807</v>
+        <v>1.792</v>
       </c>
       <c r="F171" t="n">
-        <v>277</v>
+        <v>1211332</v>
       </c>
       <c r="G171" t="n">
-        <v>1.8024</v>
+        <v>1.802416666666667</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6597,19 +6637,19 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>1.809</v>
+        <v>1.807</v>
       </c>
       <c r="C172" t="n">
-        <v>1.792</v>
+        <v>1.807</v>
       </c>
       <c r="D172" t="n">
-        <v>1.809</v>
+        <v>1.807</v>
       </c>
       <c r="E172" t="n">
-        <v>1.792</v>
+        <v>1.807</v>
       </c>
       <c r="F172" t="n">
-        <v>1425801</v>
+        <v>277</v>
       </c>
       <c r="G172" t="n">
         <v>1.8024</v>
@@ -6648,10 +6688,10 @@
         <v>1.792</v>
       </c>
       <c r="F173" t="n">
-        <v>2060025</v>
+        <v>1425801</v>
       </c>
       <c r="G173" t="n">
-        <v>1.802133333333333</v>
+        <v>1.8024</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6678,19 +6718,19 @@
         <v>1.809</v>
       </c>
       <c r="C174" t="n">
-        <v>1.81</v>
+        <v>1.792</v>
       </c>
       <c r="D174" t="n">
-        <v>1.81</v>
+        <v>1.809</v>
       </c>
       <c r="E174" t="n">
-        <v>1.809</v>
+        <v>1.792</v>
       </c>
       <c r="F174" t="n">
-        <v>269597</v>
+        <v>2060025</v>
       </c>
       <c r="G174" t="n">
-        <v>1.802433333333333</v>
+        <v>1.802133333333333</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6714,22 +6754,22 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>1.794</v>
+        <v>1.809</v>
       </c>
       <c r="C175" t="n">
-        <v>1.792</v>
+        <v>1.81</v>
       </c>
       <c r="D175" t="n">
         <v>1.81</v>
       </c>
       <c r="E175" t="n">
-        <v>1.792</v>
+        <v>1.809</v>
       </c>
       <c r="F175" t="n">
-        <v>3540179</v>
+        <v>269597</v>
       </c>
       <c r="G175" t="n">
-        <v>1.802166666666667</v>
+        <v>1.802433333333333</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6753,7 +6793,7 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>1.81</v>
+        <v>1.794</v>
       </c>
       <c r="C176" t="n">
         <v>1.792</v>
@@ -6765,10 +6805,10 @@
         <v>1.792</v>
       </c>
       <c r="F176" t="n">
-        <v>694510</v>
+        <v>3540179</v>
       </c>
       <c r="G176" t="n">
-        <v>1.801833333333333</v>
+        <v>1.802166666666667</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6795,19 +6835,19 @@
         <v>1.81</v>
       </c>
       <c r="C177" t="n">
-        <v>1.81</v>
+        <v>1.792</v>
       </c>
       <c r="D177" t="n">
         <v>1.81</v>
       </c>
       <c r="E177" t="n">
-        <v>1.81</v>
+        <v>1.792</v>
       </c>
       <c r="F177" t="n">
-        <v>257910</v>
+        <v>694510</v>
       </c>
       <c r="G177" t="n">
-        <v>1.8018</v>
+        <v>1.801833333333333</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6831,22 +6871,22 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>1.794</v>
+        <v>1.81</v>
       </c>
       <c r="C178" t="n">
-        <v>1.792</v>
+        <v>1.81</v>
       </c>
       <c r="D178" t="n">
         <v>1.81</v>
       </c>
       <c r="E178" t="n">
-        <v>1.792</v>
+        <v>1.81</v>
       </c>
       <c r="F178" t="n">
-        <v>3369039</v>
+        <v>257910</v>
       </c>
       <c r="G178" t="n">
-        <v>1.801483333333333</v>
+        <v>1.8018</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -6870,22 +6910,22 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
+        <v>1.794</v>
+      </c>
+      <c r="C179" t="n">
+        <v>1.792</v>
+      </c>
+      <c r="D179" t="n">
         <v>1.81</v>
       </c>
-      <c r="C179" t="n">
-        <v>1.811</v>
-      </c>
-      <c r="D179" t="n">
-        <v>1.811</v>
-      </c>
       <c r="E179" t="n">
-        <v>1.81</v>
+        <v>1.792</v>
       </c>
       <c r="F179" t="n">
-        <v>5524.57205963556</v>
+        <v>3369039</v>
       </c>
       <c r="G179" t="n">
-        <v>1.8015</v>
+        <v>1.801483333333333</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -6909,22 +6949,22 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>1.795</v>
+        <v>1.81</v>
       </c>
       <c r="C180" t="n">
-        <v>1.795</v>
+        <v>1.811</v>
       </c>
       <c r="D180" t="n">
-        <v>1.795</v>
+        <v>1.811</v>
       </c>
       <c r="E180" t="n">
-        <v>1.795</v>
+        <v>1.81</v>
       </c>
       <c r="F180" t="n">
-        <v>5000</v>
+        <v>5524.57205963556</v>
       </c>
       <c r="G180" t="n">
-        <v>1.801266666666667</v>
+        <v>1.8015</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -6951,19 +6991,19 @@
         <v>1.795</v>
       </c>
       <c r="C181" t="n">
-        <v>1.791</v>
+        <v>1.795</v>
       </c>
       <c r="D181" t="n">
         <v>1.795</v>
       </c>
       <c r="E181" t="n">
-        <v>1.791</v>
+        <v>1.795</v>
       </c>
       <c r="F181" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="G181" t="n">
-        <v>1.800966666666667</v>
+        <v>1.801266666666667</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -6987,22 +7027,22 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>1.81</v>
+        <v>1.795</v>
       </c>
       <c r="C182" t="n">
-        <v>1.812</v>
+        <v>1.791</v>
       </c>
       <c r="D182" t="n">
-        <v>1.812</v>
+        <v>1.795</v>
       </c>
       <c r="E182" t="n">
-        <v>1.81</v>
+        <v>1.791</v>
       </c>
       <c r="F182" t="n">
-        <v>49685.95978915031</v>
+        <v>100000</v>
       </c>
       <c r="G182" t="n">
-        <v>1.800983333333333</v>
+        <v>1.800966666666667</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -7026,22 +7066,22 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>1.811</v>
+        <v>1.81</v>
       </c>
       <c r="C183" t="n">
-        <v>1.811</v>
+        <v>1.812</v>
       </c>
       <c r="D183" t="n">
-        <v>1.811</v>
+        <v>1.812</v>
       </c>
       <c r="E183" t="n">
-        <v>1.811</v>
+        <v>1.81</v>
       </c>
       <c r="F183" t="n">
-        <v>1104.362230811706</v>
+        <v>49685.95978915031</v>
       </c>
       <c r="G183" t="n">
-        <v>1.8013</v>
+        <v>1.800983333333333</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -7065,22 +7105,22 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>1.792</v>
+        <v>1.811</v>
       </c>
       <c r="C184" t="n">
-        <v>1.791</v>
+        <v>1.811</v>
       </c>
       <c r="D184" t="n">
-        <v>1.792</v>
+        <v>1.811</v>
       </c>
       <c r="E184" t="n">
-        <v>1.791</v>
+        <v>1.811</v>
       </c>
       <c r="F184" t="n">
-        <v>150000</v>
+        <v>1104.362230811706</v>
       </c>
       <c r="G184" t="n">
-        <v>1.800966666666667</v>
+        <v>1.8013</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -7104,22 +7144,22 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>1.79</v>
+        <v>1.792</v>
       </c>
       <c r="C185" t="n">
-        <v>1.79</v>
+        <v>1.791</v>
       </c>
       <c r="D185" t="n">
-        <v>1.79</v>
+        <v>1.792</v>
       </c>
       <c r="E185" t="n">
-        <v>1.79</v>
+        <v>1.791</v>
       </c>
       <c r="F185" t="n">
         <v>150000</v>
       </c>
       <c r="G185" t="n">
-        <v>1.8009</v>
+        <v>1.800966666666667</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -7143,22 +7183,22 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>1.808</v>
+        <v>1.79</v>
       </c>
       <c r="C186" t="n">
-        <v>1.808</v>
+        <v>1.79</v>
       </c>
       <c r="D186" t="n">
-        <v>1.808</v>
+        <v>1.79</v>
       </c>
       <c r="E186" t="n">
-        <v>1.791</v>
+        <v>1.79</v>
       </c>
       <c r="F186" t="n">
-        <v>3246137</v>
+        <v>150000</v>
       </c>
       <c r="G186" t="n">
-        <v>1.80085</v>
+        <v>1.8009</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -7182,10 +7222,10 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>1.791</v>
+        <v>1.808</v>
       </c>
       <c r="C187" t="n">
-        <v>1.791</v>
+        <v>1.808</v>
       </c>
       <c r="D187" t="n">
         <v>1.808</v>
@@ -7194,10 +7234,10 @@
         <v>1.791</v>
       </c>
       <c r="F187" t="n">
-        <v>1223574</v>
+        <v>3246137</v>
       </c>
       <c r="G187" t="n">
-        <v>1.80055</v>
+        <v>1.80085</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -7221,7 +7261,7 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>1.808</v>
+        <v>1.791</v>
       </c>
       <c r="C188" t="n">
         <v>1.791</v>
@@ -7233,10 +7273,10 @@
         <v>1.791</v>
       </c>
       <c r="F188" t="n">
-        <v>2147.4748</v>
+        <v>1223574</v>
       </c>
       <c r="G188" t="n">
-        <v>1.800233333333334</v>
+        <v>1.80055</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -7260,22 +7300,22 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>1.791</v>
+        <v>1.808</v>
       </c>
       <c r="C189" t="n">
         <v>1.791</v>
       </c>
       <c r="D189" t="n">
-        <v>1.806</v>
+        <v>1.808</v>
       </c>
       <c r="E189" t="n">
         <v>1.791</v>
       </c>
       <c r="F189" t="n">
-        <v>3187599</v>
+        <v>2147.4748</v>
       </c>
       <c r="G189" t="n">
-        <v>1.799833333333333</v>
+        <v>1.800233333333334</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7299,7 +7339,7 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>1.806</v>
+        <v>1.791</v>
       </c>
       <c r="C190" t="n">
         <v>1.791</v>
@@ -7311,10 +7351,10 @@
         <v>1.791</v>
       </c>
       <c r="F190" t="n">
-        <v>1650891</v>
+        <v>3187599</v>
       </c>
       <c r="G190" t="n">
-        <v>1.799416666666667</v>
+        <v>1.799833333333333</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7341,19 +7381,19 @@
         <v>1.806</v>
       </c>
       <c r="C191" t="n">
-        <v>1.806</v>
+        <v>1.791</v>
       </c>
       <c r="D191" t="n">
         <v>1.806</v>
       </c>
       <c r="E191" t="n">
-        <v>1.806</v>
+        <v>1.791</v>
       </c>
       <c r="F191" t="n">
-        <v>1184.8501</v>
+        <v>1650891</v>
       </c>
       <c r="G191" t="n">
-        <v>1.7995</v>
+        <v>1.799416666666667</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7377,22 +7417,22 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>1.807</v>
+        <v>1.806</v>
       </c>
       <c r="C192" t="n">
-        <v>1.791</v>
+        <v>1.806</v>
       </c>
       <c r="D192" t="n">
-        <v>1.81</v>
+        <v>1.806</v>
       </c>
       <c r="E192" t="n">
-        <v>1.791</v>
+        <v>1.806</v>
       </c>
       <c r="F192" t="n">
-        <v>2799385</v>
+        <v>1184.8501</v>
       </c>
       <c r="G192" t="n">
-        <v>1.799383333333333</v>
+        <v>1.7995</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7416,22 +7456,22 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>1.808</v>
+        <v>1.807</v>
       </c>
       <c r="C193" t="n">
         <v>1.791</v>
       </c>
       <c r="D193" t="n">
-        <v>1.808</v>
+        <v>1.81</v>
       </c>
       <c r="E193" t="n">
         <v>1.791</v>
       </c>
       <c r="F193" t="n">
-        <v>1635896</v>
+        <v>2799385</v>
       </c>
       <c r="G193" t="n">
-        <v>1.799216666666666</v>
+        <v>1.799383333333333</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7467,10 +7507,10 @@
         <v>1.791</v>
       </c>
       <c r="F194" t="n">
-        <v>634354</v>
+        <v>1635896</v>
       </c>
       <c r="G194" t="n">
-        <v>1.799066666666666</v>
+        <v>1.799216666666666</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -7500,16 +7540,16 @@
         <v>1.791</v>
       </c>
       <c r="D195" t="n">
-        <v>1.81</v>
+        <v>1.808</v>
       </c>
       <c r="E195" t="n">
         <v>1.791</v>
       </c>
       <c r="F195" t="n">
-        <v>2940907</v>
+        <v>634354</v>
       </c>
       <c r="G195" t="n">
-        <v>1.798916666666666</v>
+        <v>1.799066666666666</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -7533,22 +7573,22 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>1.805</v>
+        <v>1.808</v>
       </c>
       <c r="C196" t="n">
-        <v>1.807</v>
+        <v>1.791</v>
       </c>
       <c r="D196" t="n">
-        <v>1.807</v>
+        <v>1.81</v>
       </c>
       <c r="E196" t="n">
-        <v>1.805</v>
+        <v>1.791</v>
       </c>
       <c r="F196" t="n">
-        <v>555</v>
+        <v>2940907</v>
       </c>
       <c r="G196" t="n">
-        <v>1.7988</v>
+        <v>1.798916666666666</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -7572,7 +7612,7 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>1.807</v>
+        <v>1.805</v>
       </c>
       <c r="C197" t="n">
         <v>1.807</v>
@@ -7581,13 +7621,13 @@
         <v>1.807</v>
       </c>
       <c r="E197" t="n">
-        <v>1.807</v>
+        <v>1.805</v>
       </c>
       <c r="F197" t="n">
-        <v>4723</v>
+        <v>555</v>
       </c>
       <c r="G197" t="n">
-        <v>1.79905</v>
+        <v>1.7988</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -7611,22 +7651,22 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>1.808</v>
+        <v>1.807</v>
       </c>
       <c r="C198" t="n">
-        <v>1.808</v>
+        <v>1.807</v>
       </c>
       <c r="D198" t="n">
-        <v>1.808</v>
+        <v>1.807</v>
       </c>
       <c r="E198" t="n">
-        <v>1.808</v>
+        <v>1.807</v>
       </c>
       <c r="F198" t="n">
-        <v>394.4946</v>
+        <v>4723</v>
       </c>
       <c r="G198" t="n">
-        <v>1.799316666666667</v>
+        <v>1.79905</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -7650,22 +7690,22 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>1.794</v>
+        <v>1.808</v>
       </c>
       <c r="C199" t="n">
-        <v>1.794</v>
+        <v>1.808</v>
       </c>
       <c r="D199" t="n">
-        <v>1.794</v>
+        <v>1.808</v>
       </c>
       <c r="E199" t="n">
-        <v>1.794</v>
+        <v>1.808</v>
       </c>
       <c r="F199" t="n">
-        <v>150000</v>
+        <v>394.4946</v>
       </c>
       <c r="G199" t="n">
-        <v>1.79935</v>
+        <v>1.799316666666667</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -7689,22 +7729,22 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>1.806</v>
+        <v>1.794</v>
       </c>
       <c r="C200" t="n">
-        <v>1.806</v>
+        <v>1.794</v>
       </c>
       <c r="D200" t="n">
-        <v>1.806</v>
+        <v>1.794</v>
       </c>
       <c r="E200" t="n">
-        <v>1.806</v>
+        <v>1.794</v>
       </c>
       <c r="F200" t="n">
-        <v>375.2957</v>
+        <v>150000</v>
       </c>
       <c r="G200" t="n">
-        <v>1.799283333333333</v>
+        <v>1.79935</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -7731,19 +7771,19 @@
         <v>1.806</v>
       </c>
       <c r="C201" t="n">
-        <v>1.807</v>
+        <v>1.806</v>
       </c>
       <c r="D201" t="n">
-        <v>1.807</v>
+        <v>1.806</v>
       </c>
       <c r="E201" t="n">
         <v>1.806</v>
       </c>
       <c r="F201" t="n">
-        <v>116433.3094</v>
+        <v>375.2957</v>
       </c>
       <c r="G201" t="n">
-        <v>1.7992</v>
+        <v>1.799283333333333</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -7767,22 +7807,22 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
+        <v>1.806</v>
+      </c>
+      <c r="C202" t="n">
         <v>1.807</v>
       </c>
-      <c r="C202" t="n">
-        <v>1.823</v>
-      </c>
       <c r="D202" t="n">
-        <v>1.823</v>
+        <v>1.807</v>
       </c>
       <c r="E202" t="n">
-        <v>1.807</v>
+        <v>1.806</v>
       </c>
       <c r="F202" t="n">
-        <v>1866042.877451214</v>
+        <v>116433.3094</v>
       </c>
       <c r="G202" t="n">
-        <v>1.799716666666666</v>
+        <v>1.7992</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -7806,22 +7846,22 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>1.824</v>
+        <v>1.807</v>
       </c>
       <c r="C203" t="n">
-        <v>1.824</v>
+        <v>1.823</v>
       </c>
       <c r="D203" t="n">
-        <v>1.824</v>
+        <v>1.823</v>
       </c>
       <c r="E203" t="n">
-        <v>1.824</v>
+        <v>1.807</v>
       </c>
       <c r="F203" t="n">
-        <v>76767.23579999999</v>
+        <v>1866042.877451214</v>
       </c>
       <c r="G203" t="n">
-        <v>1.799916666666667</v>
+        <v>1.799716666666666</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -7857,10 +7897,10 @@
         <v>1.824</v>
       </c>
       <c r="F204" t="n">
-        <v>150000</v>
+        <v>76767.23579999999</v>
       </c>
       <c r="G204" t="n">
-        <v>1.80045</v>
+        <v>1.799916666666667</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -7896,10 +7936,10 @@
         <v>1.824</v>
       </c>
       <c r="F205" t="n">
-        <v>9870.807199999999</v>
+        <v>150000</v>
       </c>
       <c r="G205" t="n">
-        <v>1.800983333333333</v>
+        <v>1.80045</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -7923,22 +7963,22 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>1.823</v>
+        <v>1.824</v>
       </c>
       <c r="C206" t="n">
-        <v>1.823</v>
+        <v>1.824</v>
       </c>
       <c r="D206" t="n">
-        <v>1.823</v>
+        <v>1.824</v>
       </c>
       <c r="E206" t="n">
-        <v>1.807</v>
+        <v>1.824</v>
       </c>
       <c r="F206" t="n">
-        <v>2231808</v>
+        <v>9870.807199999999</v>
       </c>
       <c r="G206" t="n">
-        <v>1.8015</v>
+        <v>1.800983333333333</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -7962,10 +8002,10 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>1.822</v>
+        <v>1.823</v>
       </c>
       <c r="C207" t="n">
-        <v>1.807</v>
+        <v>1.823</v>
       </c>
       <c r="D207" t="n">
         <v>1.823</v>
@@ -7974,10 +8014,10 @@
         <v>1.807</v>
       </c>
       <c r="F207" t="n">
-        <v>2075867</v>
+        <v>2231808</v>
       </c>
       <c r="G207" t="n">
-        <v>1.801433333333333</v>
+        <v>1.8015</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -8001,22 +8041,22 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>1.81</v>
+        <v>1.822</v>
       </c>
       <c r="C208" t="n">
-        <v>1.81</v>
+        <v>1.807</v>
       </c>
       <c r="D208" t="n">
-        <v>1.81</v>
+        <v>1.823</v>
       </c>
       <c r="E208" t="n">
-        <v>1.81</v>
+        <v>1.807</v>
       </c>
       <c r="F208" t="n">
-        <v>50000</v>
+        <v>2075867</v>
       </c>
       <c r="G208" t="n">
-        <v>1.801733333333333</v>
+        <v>1.801433333333333</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -8040,22 +8080,22 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>1.822</v>
+        <v>1.81</v>
       </c>
       <c r="C209" t="n">
-        <v>1.823</v>
+        <v>1.81</v>
       </c>
       <c r="D209" t="n">
-        <v>1.823</v>
+        <v>1.81</v>
       </c>
       <c r="E209" t="n">
-        <v>1.822</v>
+        <v>1.81</v>
       </c>
       <c r="F209" t="n">
-        <v>38398.73834339002</v>
+        <v>50000</v>
       </c>
       <c r="G209" t="n">
-        <v>1.801933333333333</v>
+        <v>1.801733333333333</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -8079,22 +8119,22 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>1.82</v>
+        <v>1.822</v>
       </c>
       <c r="C210" t="n">
-        <v>1.81</v>
+        <v>1.823</v>
       </c>
       <c r="D210" t="n">
-        <v>1.82</v>
+        <v>1.823</v>
       </c>
       <c r="E210" t="n">
-        <v>1.81</v>
+        <v>1.822</v>
       </c>
       <c r="F210" t="n">
-        <v>38398.7383</v>
+        <v>38398.73834339002</v>
       </c>
       <c r="G210" t="n">
-        <v>1.80195</v>
+        <v>1.801933333333333</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -8118,22 +8158,22 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>1.821</v>
+        <v>1.82</v>
       </c>
       <c r="C211" t="n">
-        <v>1.821</v>
+        <v>1.81</v>
       </c>
       <c r="D211" t="n">
-        <v>1.821</v>
+        <v>1.82</v>
       </c>
       <c r="E211" t="n">
-        <v>1.821</v>
+        <v>1.81</v>
       </c>
       <c r="F211" t="n">
-        <v>280</v>
+        <v>38398.7383</v>
       </c>
       <c r="G211" t="n">
-        <v>1.802116666666666</v>
+        <v>1.80195</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -8160,19 +8200,19 @@
         <v>1.821</v>
       </c>
       <c r="C212" t="n">
-        <v>1.832</v>
+        <v>1.821</v>
       </c>
       <c r="D212" t="n">
-        <v>1.832</v>
+        <v>1.821</v>
       </c>
       <c r="E212" t="n">
         <v>1.821</v>
       </c>
       <c r="F212" t="n">
-        <v>1568321.43875661</v>
+        <v>280</v>
       </c>
       <c r="G212" t="n">
-        <v>1.802783333333333</v>
+        <v>1.802116666666666</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -8196,22 +8236,22 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>1.833</v>
+        <v>1.821</v>
       </c>
       <c r="C213" t="n">
         <v>1.832</v>
       </c>
       <c r="D213" t="n">
-        <v>1.833</v>
+        <v>1.832</v>
       </c>
       <c r="E213" t="n">
-        <v>1.832</v>
+        <v>1.821</v>
       </c>
       <c r="F213" t="n">
-        <v>52013.3652</v>
+        <v>1568321.43875661</v>
       </c>
       <c r="G213" t="n">
-        <v>1.803449999999999</v>
+        <v>1.802783333333333</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -8235,22 +8275,22 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
+        <v>1.833</v>
+      </c>
+      <c r="C214" t="n">
         <v>1.832</v>
       </c>
-      <c r="C214" t="n">
-        <v>1.835</v>
-      </c>
       <c r="D214" t="n">
-        <v>1.835</v>
+        <v>1.833</v>
       </c>
       <c r="E214" t="n">
         <v>1.832</v>
       </c>
       <c r="F214" t="n">
-        <v>976812.3577000001</v>
+        <v>52013.3652</v>
       </c>
       <c r="G214" t="n">
-        <v>1.804166666666666</v>
+        <v>1.803449999999999</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -8274,22 +8314,22 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>1.834</v>
+        <v>1.832</v>
       </c>
       <c r="C215" t="n">
-        <v>1.834</v>
+        <v>1.835</v>
       </c>
       <c r="D215" t="n">
-        <v>1.834</v>
+        <v>1.835</v>
       </c>
       <c r="E215" t="n">
-        <v>1.812</v>
+        <v>1.832</v>
       </c>
       <c r="F215" t="n">
-        <v>1717309</v>
+        <v>976812.3577000001</v>
       </c>
       <c r="G215" t="n">
-        <v>1.804549999999999</v>
+        <v>1.804166666666666</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -8313,10 +8353,10 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>1.812</v>
+        <v>1.834</v>
       </c>
       <c r="C216" t="n">
-        <v>1.814</v>
+        <v>1.834</v>
       </c>
       <c r="D216" t="n">
         <v>1.834</v>
@@ -8325,10 +8365,10 @@
         <v>1.812</v>
       </c>
       <c r="F216" t="n">
-        <v>2628444</v>
+        <v>1717309</v>
       </c>
       <c r="G216" t="n">
-        <v>1.804899999999999</v>
+        <v>1.804549999999999</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -8352,22 +8392,22 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>1.832</v>
+        <v>1.812</v>
       </c>
       <c r="C217" t="n">
-        <v>1.832</v>
+        <v>1.814</v>
       </c>
       <c r="D217" t="n">
-        <v>1.832</v>
+        <v>1.834</v>
       </c>
       <c r="E217" t="n">
-        <v>1.832</v>
+        <v>1.812</v>
       </c>
       <c r="F217" t="n">
-        <v>20296.4804</v>
+        <v>2628444</v>
       </c>
       <c r="G217" t="n">
-        <v>1.805549999999999</v>
+        <v>1.804899999999999</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -8403,10 +8443,10 @@
         <v>1.832</v>
       </c>
       <c r="F218" t="n">
-        <v>20347.6352</v>
+        <v>20296.4804</v>
       </c>
       <c r="G218" t="n">
-        <v>1.806199999999999</v>
+        <v>1.805549999999999</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -8430,22 +8470,22 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>1.83</v>
+        <v>1.832</v>
       </c>
       <c r="C219" t="n">
-        <v>1.83</v>
+        <v>1.832</v>
       </c>
       <c r="D219" t="n">
-        <v>1.83</v>
+        <v>1.832</v>
       </c>
       <c r="E219" t="n">
-        <v>1.83</v>
+        <v>1.832</v>
       </c>
       <c r="F219" t="n">
-        <v>277189.8782</v>
+        <v>20347.6352</v>
       </c>
       <c r="G219" t="n">
-        <v>1.806799999999999</v>
+        <v>1.806199999999999</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -8481,10 +8521,10 @@
         <v>1.83</v>
       </c>
       <c r="F220" t="n">
-        <v>212283.2995</v>
+        <v>277189.8782</v>
       </c>
       <c r="G220" t="n">
-        <v>1.807416666666665</v>
+        <v>1.806799999999999</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -8508,22 +8548,22 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>1.813</v>
+        <v>1.83</v>
       </c>
       <c r="C221" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="D221" t="n">
-        <v>1.813</v>
+        <v>1.83</v>
       </c>
       <c r="E221" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="F221" t="n">
-        <v>7075.8498</v>
+        <v>212283.2995</v>
       </c>
       <c r="G221" t="n">
-        <v>1.807399999999999</v>
+        <v>1.807416666666665</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -8547,22 +8587,22 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>1.809</v>
+        <v>1.813</v>
       </c>
       <c r="C222" t="n">
-        <v>1.808</v>
+        <v>1.81</v>
       </c>
       <c r="D222" t="n">
-        <v>1.809</v>
+        <v>1.813</v>
       </c>
       <c r="E222" t="n">
-        <v>1.808</v>
+        <v>1.81</v>
       </c>
       <c r="F222" t="n">
-        <v>114864.3331</v>
+        <v>7075.8498</v>
       </c>
       <c r="G222" t="n">
-        <v>1.807649999999999</v>
+        <v>1.807399999999999</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -8586,22 +8626,22 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
+        <v>1.809</v>
+      </c>
+      <c r="C223" t="n">
         <v>1.808</v>
       </c>
-      <c r="C223" t="n">
-        <v>1.806</v>
-      </c>
       <c r="D223" t="n">
+        <v>1.809</v>
+      </c>
+      <c r="E223" t="n">
         <v>1.808</v>
       </c>
-      <c r="E223" t="n">
-        <v>1.806</v>
-      </c>
       <c r="F223" t="n">
-        <v>255907.5973</v>
+        <v>114864.3331</v>
       </c>
       <c r="G223" t="n">
-        <v>1.807599999999999</v>
+        <v>1.807649999999999</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -8625,22 +8665,22 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>1.806</v>
+        <v>1.808</v>
       </c>
       <c r="C224" t="n">
         <v>1.806</v>
       </c>
       <c r="D224" t="n">
-        <v>1.806</v>
+        <v>1.808</v>
       </c>
       <c r="E224" t="n">
         <v>1.806</v>
       </c>
       <c r="F224" t="n">
-        <v>237546.8653</v>
+        <v>255907.5973</v>
       </c>
       <c r="G224" t="n">
-        <v>1.807833333333332</v>
+        <v>1.807599999999999</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -8676,10 +8716,10 @@
         <v>1.806</v>
       </c>
       <c r="F225" t="n">
-        <v>1304.7944</v>
+        <v>237546.8653</v>
       </c>
       <c r="G225" t="n">
-        <v>1.807766666666665</v>
+        <v>1.807833333333332</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -8703,22 +8743,22 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>1.8</v>
+        <v>1.806</v>
       </c>
       <c r="C226" t="n">
-        <v>1.8</v>
+        <v>1.806</v>
       </c>
       <c r="D226" t="n">
-        <v>1.8</v>
+        <v>1.806</v>
       </c>
       <c r="E226" t="n">
-        <v>1.8</v>
+        <v>1.806</v>
       </c>
       <c r="F226" t="n">
-        <v>86546.3009</v>
+        <v>1304.7944</v>
       </c>
       <c r="G226" t="n">
-        <v>1.807633333333332</v>
+        <v>1.807766666666665</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -8742,22 +8782,22 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>1.793</v>
+        <v>1.8</v>
       </c>
       <c r="C227" t="n">
-        <v>1.793</v>
+        <v>1.8</v>
       </c>
       <c r="D227" t="n">
-        <v>1.793</v>
+        <v>1.8</v>
       </c>
       <c r="E227" t="n">
-        <v>1.793</v>
+        <v>1.8</v>
       </c>
       <c r="F227" t="n">
-        <v>1000</v>
+        <v>86546.3009</v>
       </c>
       <c r="G227" t="n">
-        <v>1.807649999999999</v>
+        <v>1.807633333333332</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -8793,10 +8833,10 @@
         <v>1.793</v>
       </c>
       <c r="F228" t="n">
-        <v>7324.9366</v>
+        <v>1000</v>
       </c>
       <c r="G228" t="n">
-        <v>1.807666666666665</v>
+        <v>1.807649999999999</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -8820,22 +8860,22 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>1.806</v>
+        <v>1.793</v>
       </c>
       <c r="C229" t="n">
-        <v>1.806</v>
+        <v>1.793</v>
       </c>
       <c r="D229" t="n">
-        <v>1.806</v>
+        <v>1.793</v>
       </c>
       <c r="E229" t="n">
-        <v>1.806</v>
+        <v>1.793</v>
       </c>
       <c r="F229" t="n">
-        <v>494.2339</v>
+        <v>7324.9366</v>
       </c>
       <c r="G229" t="n">
-        <v>1.807616666666665</v>
+        <v>1.807666666666665</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -8862,19 +8902,19 @@
         <v>1.806</v>
       </c>
       <c r="C230" t="n">
-        <v>1.825</v>
+        <v>1.806</v>
       </c>
       <c r="D230" t="n">
-        <v>1.825</v>
+        <v>1.806</v>
       </c>
       <c r="E230" t="n">
         <v>1.806</v>
       </c>
       <c r="F230" t="n">
-        <v>259254.3175</v>
+        <v>494.2339</v>
       </c>
       <c r="G230" t="n">
-        <v>1.807866666666665</v>
+        <v>1.807616666666665</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -8898,19 +8938,19 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>1.807</v>
+        <v>1.806</v>
       </c>
       <c r="C231" t="n">
-        <v>1.807</v>
+        <v>1.825</v>
       </c>
       <c r="D231" t="n">
-        <v>1.827</v>
+        <v>1.825</v>
       </c>
       <c r="E231" t="n">
-        <v>1.807</v>
+        <v>1.806</v>
       </c>
       <c r="F231" t="n">
-        <v>3171472</v>
+        <v>259254.3175</v>
       </c>
       <c r="G231" t="n">
         <v>1.807866666666665</v>
@@ -8937,22 +8977,22 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>1.806</v>
+        <v>1.807</v>
       </c>
       <c r="C232" t="n">
-        <v>1.826</v>
+        <v>1.807</v>
       </c>
       <c r="D232" t="n">
-        <v>1.826</v>
+        <v>1.827</v>
       </c>
       <c r="E232" t="n">
-        <v>1.806</v>
+        <v>1.807</v>
       </c>
       <c r="F232" t="n">
-        <v>10000</v>
+        <v>3171472</v>
       </c>
       <c r="G232" t="n">
-        <v>1.808433333333332</v>
+        <v>1.807866666666665</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -8976,7 +9016,7 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>1.826</v>
+        <v>1.806</v>
       </c>
       <c r="C233" t="n">
         <v>1.826</v>
@@ -8985,13 +9025,13 @@
         <v>1.826</v>
       </c>
       <c r="E233" t="n">
-        <v>1.826</v>
+        <v>1.806</v>
       </c>
       <c r="F233" t="n">
-        <v>50191.2824</v>
+        <v>10000</v>
       </c>
       <c r="G233" t="n">
-        <v>1.808999999999998</v>
+        <v>1.808433333333332</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -9018,19 +9058,19 @@
         <v>1.826</v>
       </c>
       <c r="C234" t="n">
-        <v>1.825</v>
+        <v>1.826</v>
       </c>
       <c r="D234" t="n">
-        <v>1.827</v>
+        <v>1.826</v>
       </c>
       <c r="E234" t="n">
-        <v>1.809</v>
+        <v>1.826</v>
       </c>
       <c r="F234" t="n">
-        <v>1248773</v>
+        <v>50191.2824</v>
       </c>
       <c r="G234" t="n">
-        <v>1.809249999999998</v>
+        <v>1.808999999999998</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -9046,6 +9086,45 @@
         </is>
       </c>
       <c r="M234" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="n">
+        <v>1.826</v>
+      </c>
+      <c r="C235" t="n">
+        <v>1.825</v>
+      </c>
+      <c r="D235" t="n">
+        <v>1.827</v>
+      </c>
+      <c r="E235" t="n">
+        <v>1.809</v>
+      </c>
+      <c r="F235" t="n">
+        <v>1248773</v>
+      </c>
+      <c r="G235" t="n">
+        <v>1.809249999999998</v>
+      </c>
+      <c r="H235" t="n">
+        <v>0</v>
+      </c>
+      <c r="I235" t="n">
+        <v>0</v>
+      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
+      <c r="L235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M235" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-26 BackTest AOA.xlsx
+++ b/BackTest/2020-01-26 BackTest AOA.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M235"/>
+  <dimension ref="A1:N245"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>1073292.509</v>
       </c>
       <c r="G2" t="n">
+        <v>1.7848</v>
+      </c>
+      <c r="H2" t="n">
         <v>1.778833333333333</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>91326.48299999999</v>
       </c>
       <c r="G3" t="n">
+        <v>1.788133333333333</v>
+      </c>
+      <c r="H3" t="n">
         <v>1.7792</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>255930</v>
       </c>
       <c r="G4" t="n">
+        <v>1.7914</v>
+      </c>
+      <c r="H4" t="n">
         <v>1.779833333333333</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>1374693.0595</v>
       </c>
       <c r="G5" t="n">
+        <v>1.793266666666667</v>
+      </c>
+      <c r="H5" t="n">
         <v>1.779816666666666</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>2798851</v>
       </c>
       <c r="G6" t="n">
+        <v>1.793333333333333</v>
+      </c>
+      <c r="H6" t="n">
         <v>1.77965</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>740.7378</v>
       </c>
       <c r="G7" t="n">
+        <v>1.793933333333333</v>
+      </c>
+      <c r="H7" t="n">
         <v>1.7793</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,25 @@
         <v>277</v>
       </c>
       <c r="G8" t="n">
+        <v>1.795866666666667</v>
+      </c>
+      <c r="H8" t="n">
         <v>1.779633333333333</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +723,27 @@
         <v>1446642</v>
       </c>
       <c r="G9" t="n">
+        <v>1.797666666666667</v>
+      </c>
+      <c r="H9" t="n">
         <v>1.779899999999999</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="L9" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +767,27 @@
         <v>2411476</v>
       </c>
       <c r="G10" t="n">
+        <v>1.797466666666667</v>
+      </c>
+      <c r="H10" t="n">
         <v>1.780166666666666</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="L10" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +811,21 @@
         <v>277</v>
       </c>
       <c r="G11" t="n">
+        <v>1.7976</v>
+      </c>
+      <c r="H11" t="n">
         <v>1.780733333333333</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +849,21 @@
         <v>2227536</v>
       </c>
       <c r="G12" t="n">
+        <v>1.796333333333334</v>
+      </c>
+      <c r="H12" t="n">
         <v>1.780716666666666</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +887,21 @@
         <v>1246114</v>
       </c>
       <c r="G13" t="n">
+        <v>1.795</v>
+      </c>
+      <c r="H13" t="n">
         <v>1.780983333333332</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +925,21 @@
         <v>10856.963</v>
       </c>
       <c r="G14" t="n">
+        <v>1.793666666666667</v>
+      </c>
+      <c r="H14" t="n">
         <v>1.780949999999999</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +963,21 @@
         <v>984128</v>
       </c>
       <c r="G15" t="n">
+        <v>1.793400000000001</v>
+      </c>
+      <c r="H15" t="n">
         <v>1.781483333333332</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +1001,21 @@
         <v>2801797</v>
       </c>
       <c r="G16" t="n">
+        <v>1.792666666666667</v>
+      </c>
+      <c r="H16" t="n">
         <v>1.781649999999999</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1039,21 @@
         <v>535.303</v>
       </c>
       <c r="G17" t="n">
+        <v>1.792266666666667</v>
+      </c>
+      <c r="H17" t="n">
         <v>1.782199999999999</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1077,21 @@
         <v>1006003.0886</v>
       </c>
       <c r="G18" t="n">
+        <v>1.789533333333334</v>
+      </c>
+      <c r="H18" t="n">
         <v>1.781899999999999</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1115,21 @@
         <v>278</v>
       </c>
       <c r="G19" t="n">
+        <v>1.789</v>
+      </c>
+      <c r="H19" t="n">
         <v>1.782416666666666</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1153,21 @@
         <v>2622578</v>
       </c>
       <c r="G20" t="n">
+        <v>1.789933333333334</v>
+      </c>
+      <c r="H20" t="n">
         <v>1.782949999999999</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1191,21 @@
         <v>1175202</v>
       </c>
       <c r="G21" t="n">
+        <v>1.790066666666667</v>
+      </c>
+      <c r="H21" t="n">
         <v>1.782833333333332</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1229,21 @@
         <v>5000</v>
       </c>
       <c r="G22" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="H22" t="n">
         <v>1.782516666666666</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1267,21 @@
         <v>5000</v>
       </c>
       <c r="G23" t="n">
+        <v>1.787266666666667</v>
+      </c>
+      <c r="H23" t="n">
         <v>1.782466666666666</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1305,21 @@
         <v>118296.253</v>
       </c>
       <c r="G24" t="n">
+        <v>1.785933333333333</v>
+      </c>
+      <c r="H24" t="n">
         <v>1.782133333333333</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1343,21 @@
         <v>2268087</v>
       </c>
       <c r="G25" t="n">
+        <v>1.7842</v>
+      </c>
+      <c r="H25" t="n">
         <v>1.781699999999999</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1381,21 @@
         <v>1619884</v>
       </c>
       <c r="G26" t="n">
+        <v>1.781333333333333</v>
+      </c>
+      <c r="H26" t="n">
         <v>1.781566666666666</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1419,21 @@
         <v>99561.67140000001</v>
       </c>
       <c r="G27" t="n">
+        <v>1.780066666666667</v>
+      </c>
+      <c r="H27" t="n">
         <v>1.781533333333333</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1457,25 @@
         <v>1818556</v>
       </c>
       <c r="G28" t="n">
+        <v>1.7804</v>
+      </c>
+      <c r="H28" t="n">
         <v>1.7819</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+        <v>1</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="L28" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1499,27 @@
         <v>2901174</v>
       </c>
       <c r="G29" t="n">
+        <v>1.7794</v>
+      </c>
+      <c r="H29" t="n">
         <v>1.781916666666666</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="L29" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1543,27 @@
         <v>1370764</v>
       </c>
       <c r="G30" t="n">
+        <v>1.7772</v>
+      </c>
+      <c r="H30" t="n">
         <v>1.7819</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="L30" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1587,29 @@
         <v>2170938</v>
       </c>
       <c r="G31" t="n">
+        <v>1.776466666666667</v>
+      </c>
+      <c r="H31" t="n">
         <v>1.781616666666666</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+        <v>1</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="L31" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1633,27 @@
         <v>512.2294000000001</v>
       </c>
       <c r="G32" t="n">
+        <v>1.7756</v>
+      </c>
+      <c r="H32" t="n">
         <v>1.781949999999999</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="L32" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1677,27 @@
         <v>2329579</v>
       </c>
       <c r="G33" t="n">
+        <v>1.7766</v>
+      </c>
+      <c r="H33" t="n">
         <v>1.782183333333333</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="L33" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1721,27 @@
         <v>1214068</v>
       </c>
       <c r="G34" t="n">
+        <v>1.774466666666667</v>
+      </c>
+      <c r="H34" t="n">
         <v>1.781916666666666</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="L34" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1765,27 @@
         <v>2924510</v>
       </c>
       <c r="G35" t="n">
+        <v>1.772266666666667</v>
+      </c>
+      <c r="H35" t="n">
         <v>1.781899999999999</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="L35" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1809,27 @@
         <v>645492</v>
       </c>
       <c r="G36" t="n">
+        <v>1.772666666666667</v>
+      </c>
+      <c r="H36" t="n">
         <v>1.781616666666666</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="L36" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1853,27 @@
         <v>4991.5425</v>
       </c>
       <c r="G37" t="n">
+        <v>1.772933333333333</v>
+      </c>
+      <c r="H37" t="n">
         <v>1.781399999999999</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="L37" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +1897,27 @@
         <v>110052.0168</v>
       </c>
       <c r="G38" t="n">
+        <v>1.7732</v>
+      </c>
+      <c r="H38" t="n">
         <v>1.781183333333332</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="L38" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +1941,29 @@
         <v>1440025.1741</v>
       </c>
       <c r="G39" t="n">
+        <v>1.775533333333333</v>
+      </c>
+      <c r="H39" t="n">
         <v>1.781483333333332</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+        <v>1</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="L39" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +1987,29 @@
         <v>2179728</v>
       </c>
       <c r="G40" t="n">
+        <v>1.776866666666667</v>
+      </c>
+      <c r="H40" t="n">
         <v>1.781466666666666</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+        <v>1</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>1.803</v>
+      </c>
+      <c r="L40" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +2033,27 @@
         <v>4540.3196</v>
       </c>
       <c r="G41" t="n">
+        <v>1.778266666666667</v>
+      </c>
+      <c r="H41" t="n">
         <v>1.781683333333332</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="L41" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +2077,27 @@
         <v>3651.4218</v>
       </c>
       <c r="G42" t="n">
+        <v>1.7792</v>
+      </c>
+      <c r="H42" t="n">
         <v>1.781966666666666</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="L42" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2121,27 @@
         <v>459.6804</v>
       </c>
       <c r="G43" t="n">
+        <v>1.7786</v>
+      </c>
+      <c r="H43" t="n">
         <v>1.782266666666666</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="L43" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2165,27 @@
         <v>2887699.8858</v>
       </c>
       <c r="G44" t="n">
+        <v>1.7792</v>
+      </c>
+      <c r="H44" t="n">
         <v>1.782533333333332</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="L44" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2209,27 @@
         <v>1318790</v>
       </c>
       <c r="G45" t="n">
+        <v>1.780066666666667</v>
+      </c>
+      <c r="H45" t="n">
         <v>1.782849999999999</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="L45" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2253,27 @@
         <v>10000</v>
       </c>
       <c r="G46" t="n">
+        <v>1.782066666666667</v>
+      </c>
+      <c r="H46" t="n">
         <v>1.783466666666666</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="L46" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2297,27 @@
         <v>2963956</v>
       </c>
       <c r="G47" t="n">
+        <v>1.7818</v>
+      </c>
+      <c r="H47" t="n">
         <v>1.783616666666666</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="L47" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2341,27 @@
         <v>834076</v>
       </c>
       <c r="G48" t="n">
+        <v>1.781933333333334</v>
+      </c>
+      <c r="H48" t="n">
         <v>1.784049999999999</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="L48" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2385,27 @@
         <v>8999.2333</v>
       </c>
       <c r="G49" t="n">
+        <v>1.784066666666667</v>
+      </c>
+      <c r="H49" t="n">
         <v>1.784733333333333</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="L49" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2429,27 @@
         <v>394879.7469</v>
       </c>
       <c r="G50" t="n">
+        <v>1.785266666666667</v>
+      </c>
+      <c r="H50" t="n">
         <v>1.785183333333333</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="L50" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,18 +2473,27 @@
         <v>1300</v>
       </c>
       <c r="G51" t="n">
+        <v>1.786466666666667</v>
+      </c>
+      <c r="H51" t="n">
         <v>1.785633333333333</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="L51" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,18 +2517,29 @@
         <v>159347.3387</v>
       </c>
       <c r="G52" t="n">
+        <v>1.787466666666667</v>
+      </c>
+      <c r="H52" t="n">
         <v>1.786083333333333</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+        <v>1</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
+      <c r="K52" t="n">
+        <v>1.788</v>
+      </c>
+      <c r="L52" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,18 +2563,29 @@
         <v>566.8509</v>
       </c>
       <c r="G53" t="n">
+        <v>1.789333333333334</v>
+      </c>
+      <c r="H53" t="n">
         <v>1.786416666666666</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+        <v>1</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
+      <c r="K53" t="n">
+        <v>1.788</v>
+      </c>
+      <c r="L53" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2268,18 +2609,29 @@
         <v>4718.1491</v>
       </c>
       <c r="G54" t="n">
+        <v>1.789133333333334</v>
+      </c>
+      <c r="H54" t="n">
         <v>1.787066666666666</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+        <v>1</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
+      <c r="K54" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="L54" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2303,18 +2655,27 @@
         <v>167284.141</v>
       </c>
       <c r="G55" t="n">
+        <v>1.7904</v>
+      </c>
+      <c r="H55" t="n">
         <v>1.787233333333333</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="L55" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,18 +2699,27 @@
         <v>249801.1247</v>
       </c>
       <c r="G56" t="n">
+        <v>1.791533333333334</v>
+      </c>
+      <c r="H56" t="n">
         <v>1.787183333333333</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="L56" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2373,18 +2743,27 @@
         <v>14342.7273</v>
       </c>
       <c r="G57" t="n">
+        <v>1.792733333333334</v>
+      </c>
+      <c r="H57" t="n">
         <v>1.787083333333333</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="L57" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2408,18 +2787,27 @@
         <v>1983777.6673</v>
       </c>
       <c r="G58" t="n">
+        <v>1.794466666666667</v>
+      </c>
+      <c r="H58" t="n">
         <v>1.787116666666666</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="L58" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2443,18 +2831,27 @@
         <v>2757586.5753</v>
       </c>
       <c r="G59" t="n">
+        <v>1.796333333333334</v>
+      </c>
+      <c r="H59" t="n">
         <v>1.787149999999999</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="L59" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2478,18 +2875,27 @@
         <v>53634.362</v>
       </c>
       <c r="G60" t="n">
+        <v>1.798066666666667</v>
+      </c>
+      <c r="H60" t="n">
         <v>1.787183333333332</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="L60" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2513,18 +2919,27 @@
         <v>150000</v>
       </c>
       <c r="G61" t="n">
+        <v>1.7976</v>
+      </c>
+      <c r="H61" t="n">
         <v>1.787199999999999</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="L61" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2548,18 +2963,27 @@
         <v>95933.3756</v>
       </c>
       <c r="G62" t="n">
+        <v>1.798</v>
+      </c>
+      <c r="H62" t="n">
         <v>1.786916666666666</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="L62" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2583,18 +3007,27 @@
         <v>2835890</v>
       </c>
       <c r="G63" t="n">
+        <v>1.799533333333333</v>
+      </c>
+      <c r="H63" t="n">
         <v>1.786899999999999</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="L63" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2618,18 +3051,27 @@
         <v>671392</v>
       </c>
       <c r="G64" t="n">
+        <v>1.799</v>
+      </c>
+      <c r="H64" t="n">
         <v>1.786633333333333</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="L64" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2653,18 +3095,27 @@
         <v>1438713</v>
       </c>
       <c r="G65" t="n">
+        <v>1.800466666666667</v>
+      </c>
+      <c r="H65" t="n">
         <v>1.786983333333333</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="L65" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2688,18 +3139,27 @@
         <v>2108540</v>
       </c>
       <c r="G66" t="n">
+        <v>1.800866666666667</v>
+      </c>
+      <c r="H66" t="n">
         <v>1.787516666666666</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="L66" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2723,18 +3183,27 @@
         <v>566.0652</v>
       </c>
       <c r="G67" t="n">
+        <v>1.802333333333333</v>
+      </c>
+      <c r="H67" t="n">
         <v>1.788183333333333</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="L67" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2758,18 +3227,27 @@
         <v>1539326</v>
       </c>
       <c r="G68" t="n">
+        <v>1.801866666666667</v>
+      </c>
+      <c r="H68" t="n">
         <v>1.787916666666666</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="L68" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2793,18 +3271,27 @@
         <v>566.2238</v>
       </c>
       <c r="G69" t="n">
+        <v>1.802266666666667</v>
+      </c>
+      <c r="H69" t="n">
         <v>1.788216666666666</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="L69" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2828,18 +3315,27 @@
         <v>2206309</v>
       </c>
       <c r="G70" t="n">
+        <v>1.801666666666667</v>
+      </c>
+      <c r="H70" t="n">
         <v>1.788283333333333</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="L70" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2863,18 +3359,27 @@
         <v>5000</v>
       </c>
       <c r="G71" t="n">
+        <v>1.802266666666667</v>
+      </c>
+      <c r="H71" t="n">
         <v>1.78835</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="L71" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2898,18 +3403,27 @@
         <v>2938082</v>
       </c>
       <c r="G72" t="n">
+        <v>1.8018</v>
+      </c>
+      <c r="H72" t="n">
         <v>1.78845</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="L72" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2933,18 +3447,27 @@
         <v>1584686</v>
       </c>
       <c r="G73" t="n">
+        <v>1.800733333333334</v>
+      </c>
+      <c r="H73" t="n">
         <v>1.78855</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="L73" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2968,18 +3491,27 @@
         <v>5000</v>
       </c>
       <c r="G74" t="n">
+        <v>1.800666666666667</v>
+      </c>
+      <c r="H74" t="n">
         <v>1.7889</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="L74" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3003,18 +3535,27 @@
         <v>126865.9876</v>
       </c>
       <c r="G75" t="n">
+        <v>1.8006</v>
+      </c>
+      <c r="H75" t="n">
         <v>1.788983333333333</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="L75" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3038,18 +3579,27 @@
         <v>12959.8447</v>
       </c>
       <c r="G76" t="n">
+        <v>1.801666666666667</v>
+      </c>
+      <c r="H76" t="n">
         <v>1.78945</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="L76" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3073,18 +3623,27 @@
         <v>35000</v>
       </c>
       <c r="G77" t="n">
+        <v>1.802733333333334</v>
+      </c>
+      <c r="H77" t="n">
         <v>1.789533333333333</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="L77" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3108,18 +3667,27 @@
         <v>1690404.8654</v>
       </c>
       <c r="G78" t="n">
+        <v>1.802800000000001</v>
+      </c>
+      <c r="H78" t="n">
         <v>1.790216666666667</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="L78" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3143,18 +3711,27 @@
         <v>3560559</v>
       </c>
       <c r="G79" t="n">
+        <v>1.802933333333334</v>
+      </c>
+      <c r="H79" t="n">
         <v>1.790116666666667</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="L79" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3178,18 +3755,27 @@
         <v>117770.6341</v>
       </c>
       <c r="G80" t="n">
+        <v>1.803133333333334</v>
+      </c>
+      <c r="H80" t="n">
         <v>1.790283333333333</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="L80" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3213,18 +3799,27 @@
         <v>343886.2016</v>
       </c>
       <c r="G81" t="n">
+        <v>1.8042</v>
+      </c>
+      <c r="H81" t="n">
         <v>1.79105</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="L81" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3248,18 +3843,27 @@
         <v>283836.991</v>
       </c>
       <c r="G82" t="n">
+        <v>1.803266666666667</v>
+      </c>
+      <c r="H82" t="n">
         <v>1.7915</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="L82" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3283,18 +3887,27 @@
         <v>1082988.0226</v>
       </c>
       <c r="G83" t="n">
+        <v>1.803400000000001</v>
+      </c>
+      <c r="H83" t="n">
         <v>1.79195</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="L83" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3318,18 +3931,27 @@
         <v>279</v>
       </c>
       <c r="G84" t="n">
+        <v>1.802666666666667</v>
+      </c>
+      <c r="H84" t="n">
         <v>1.7924</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="L84" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3353,18 +3975,27 @@
         <v>122674.8742</v>
       </c>
       <c r="G85" t="n">
+        <v>1.802866666666667</v>
+      </c>
+      <c r="H85" t="n">
         <v>1.79295</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="L85" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3388,18 +4019,27 @@
         <v>645534</v>
       </c>
       <c r="G86" t="n">
+        <v>1.801933333333334</v>
+      </c>
+      <c r="H86" t="n">
         <v>1.7935</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="L86" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3423,18 +4063,27 @@
         <v>855808</v>
       </c>
       <c r="G87" t="n">
+        <v>1.803</v>
+      </c>
+      <c r="H87" t="n">
         <v>1.794183333333333</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="L87" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3458,18 +4107,27 @@
         <v>1925731</v>
       </c>
       <c r="G88" t="n">
+        <v>1.803066666666667</v>
+      </c>
+      <c r="H88" t="n">
         <v>1.794216666666667</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="L88" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3493,18 +4151,27 @@
         <v>163613.9099</v>
       </c>
       <c r="G89" t="n">
+        <v>1.8032</v>
+      </c>
+      <c r="H89" t="n">
         <v>1.79485</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="L89" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3528,18 +4195,27 @@
         <v>118165.5744</v>
       </c>
       <c r="G90" t="n">
+        <v>1.8034</v>
+      </c>
+      <c r="H90" t="n">
         <v>1.795533333333334</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="L90" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3563,18 +4239,27 @@
         <v>942076</v>
       </c>
       <c r="G91" t="n">
+        <v>1.803533333333333</v>
+      </c>
+      <c r="H91" t="n">
         <v>1.796216666666667</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="L91" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3598,18 +4283,27 @@
         <v>1401451</v>
       </c>
       <c r="G92" t="n">
+        <v>1.802666666666667</v>
+      </c>
+      <c r="H92" t="n">
         <v>1.7963</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="L92" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3633,18 +4327,27 @@
         <v>684776</v>
       </c>
       <c r="G93" t="n">
+        <v>1.801666666666667</v>
+      </c>
+      <c r="H93" t="n">
         <v>1.796483333333334</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="L93" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3668,18 +4371,27 @@
         <v>1544812</v>
       </c>
       <c r="G94" t="n">
+        <v>1.801666666666667</v>
+      </c>
+      <c r="H94" t="n">
         <v>1.796916666666667</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="L94" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3703,18 +4415,27 @@
         <v>2222</v>
       </c>
       <c r="G95" t="n">
+        <v>1.801533333333333</v>
+      </c>
+      <c r="H95" t="n">
         <v>1.797600000000001</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="L95" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3738,18 +4459,27 @@
         <v>952354.1316</v>
       </c>
       <c r="G96" t="n">
+        <v>1.8002</v>
+      </c>
+      <c r="H96" t="n">
         <v>1.797933333333334</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="L96" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3773,18 +4503,27 @@
         <v>3016200</v>
       </c>
       <c r="G97" t="n">
+        <v>1.801</v>
+      </c>
+      <c r="H97" t="n">
         <v>1.798516666666668</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="L97" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3808,18 +4547,27 @@
         <v>421896</v>
       </c>
       <c r="G98" t="n">
+        <v>1.800733333333334</v>
+      </c>
+      <c r="H98" t="n">
         <v>1.798833333333334</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="L98" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3843,18 +4591,27 @@
         <v>359.2796</v>
       </c>
       <c r="G99" t="n">
+        <v>1.8016</v>
+      </c>
+      <c r="H99" t="n">
         <v>1.798916666666668</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="L99" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3878,18 +4635,27 @@
         <v>3713939</v>
       </c>
       <c r="G100" t="n">
+        <v>1.801333333333333</v>
+      </c>
+      <c r="H100" t="n">
         <v>1.799066666666668</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="L100" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3913,18 +4679,27 @@
         <v>738823</v>
       </c>
       <c r="G101" t="n">
+        <v>1.801</v>
+      </c>
+      <c r="H101" t="n">
         <v>1.799183333333334</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="L101" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3948,18 +4723,27 @@
         <v>277</v>
       </c>
       <c r="G102" t="n">
+        <v>1.800866666666667</v>
+      </c>
+      <c r="H102" t="n">
         <v>1.799600000000001</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="L102" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3983,18 +4767,27 @@
         <v>277</v>
       </c>
       <c r="G103" t="n">
+        <v>1.801600000000001</v>
+      </c>
+      <c r="H103" t="n">
         <v>1.799966666666667</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="L103" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4018,18 +4811,27 @@
         <v>1595921</v>
       </c>
       <c r="G104" t="n">
+        <v>1.800333333333334</v>
+      </c>
+      <c r="H104" t="n">
         <v>1.800133333333334</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="L104" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4053,18 +4855,27 @@
         <v>3097551</v>
       </c>
       <c r="G105" t="n">
+        <v>1.799000000000001</v>
+      </c>
+      <c r="H105" t="n">
         <v>1.800266666666667</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="L105" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4088,18 +4899,27 @@
         <v>3020141</v>
       </c>
       <c r="G106" t="n">
+        <v>1.797666666666667</v>
+      </c>
+      <c r="H106" t="n">
         <v>1.800116666666667</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="L106" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4123,18 +4943,27 @@
         <v>1425535</v>
       </c>
       <c r="G107" t="n">
+        <v>1.797333333333334</v>
+      </c>
+      <c r="H107" t="n">
         <v>1.800183333333334</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="L107" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4158,18 +4987,27 @@
         <v>637918</v>
       </c>
       <c r="G108" t="n">
+        <v>1.797066666666667</v>
+      </c>
+      <c r="H108" t="n">
         <v>1.800266666666667</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="L108" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4193,24 +5031,27 @@
         <v>2934340</v>
       </c>
       <c r="G109" t="n">
+        <v>1.796800000000001</v>
+      </c>
+      <c r="H109" t="n">
         <v>1.8001</v>
       </c>
-      <c r="H109" t="n">
-        <v>1</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
       <c r="J109" t="n">
-        <v>1.792</v>
+        <v>0</v>
       </c>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
+      <c r="L109" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4234,22 +5075,27 @@
         <v>269712</v>
       </c>
       <c r="G110" t="n">
+        <v>1.796600000000001</v>
+      </c>
+      <c r="H110" t="n">
         <v>1.800433333333334</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
+      <c r="L110" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4273,22 +5119,27 @@
         <v>3518109</v>
       </c>
       <c r="G111" t="n">
+        <v>1.796733333333335</v>
+      </c>
+      <c r="H111" t="n">
         <v>1.8005</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
+      <c r="L111" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4312,22 +5163,27 @@
         <v>1025580</v>
       </c>
       <c r="G112" t="n">
+        <v>1.796733333333335</v>
+      </c>
+      <c r="H112" t="n">
         <v>1.800833333333334</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
+      <c r="L112" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4351,22 +5207,27 @@
         <v>2617583</v>
       </c>
       <c r="G113" t="n">
+        <v>1.796800000000001</v>
+      </c>
+      <c r="H113" t="n">
         <v>1.800700000000001</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
+      <c r="L113" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4390,22 +5251,27 @@
         <v>2622521</v>
       </c>
       <c r="G114" t="n">
+        <v>1.796800000000001</v>
+      </c>
+      <c r="H114" t="n">
         <v>1.800833333333334</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
+      <c r="L114" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4429,22 +5295,27 @@
         <v>1920413</v>
       </c>
       <c r="G115" t="n">
+        <v>1.796866666666668</v>
+      </c>
+      <c r="H115" t="n">
         <v>1.800683333333334</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
+      <c r="L115" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4468,22 +5339,27 @@
         <v>277</v>
       </c>
       <c r="G116" t="n">
+        <v>1.798000000000001</v>
+      </c>
+      <c r="H116" t="n">
         <v>1.800800000000001</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
+      <c r="L116" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4507,22 +5383,27 @@
         <v>199623.5704761037</v>
       </c>
       <c r="G117" t="n">
+        <v>1.798266666666668</v>
+      </c>
+      <c r="H117" t="n">
         <v>1.800983333333334</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
+      <c r="L117" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4546,22 +5427,27 @@
         <v>995237.7417218543</v>
       </c>
       <c r="G118" t="n">
+        <v>1.798666666666668</v>
+      </c>
+      <c r="H118" t="n">
         <v>1.801016666666668</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
+      <c r="L118" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4585,22 +5471,27 @@
         <v>3046381</v>
       </c>
       <c r="G119" t="n">
+        <v>1.800000000000001</v>
+      </c>
+      <c r="H119" t="n">
         <v>1.801050000000001</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
+      <c r="L119" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4624,22 +5515,27 @@
         <v>750700</v>
       </c>
       <c r="G120" t="n">
+        <v>1.801266666666668</v>
+      </c>
+      <c r="H120" t="n">
         <v>1.801066666666667</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
+      <c r="L120" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4663,22 +5559,27 @@
         <v>277</v>
       </c>
       <c r="G121" t="n">
+        <v>1.802466666666668</v>
+      </c>
+      <c r="H121" t="n">
         <v>1.801333333333334</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
+      <c r="L121" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4702,22 +5603,27 @@
         <v>277</v>
       </c>
       <c r="G122" t="n">
+        <v>1.803666666666668</v>
+      </c>
+      <c r="H122" t="n">
         <v>1.801600000000001</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
+      <c r="L122" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4741,22 +5647,27 @@
         <v>2352953</v>
       </c>
       <c r="G123" t="n">
+        <v>1.804933333333335</v>
+      </c>
+      <c r="H123" t="n">
         <v>1.801616666666667</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
+      <c r="L123" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4780,22 +5691,27 @@
         <v>1872007</v>
       </c>
       <c r="G124" t="n">
+        <v>1.804933333333335</v>
+      </c>
+      <c r="H124" t="n">
         <v>1.801583333333334</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
+      <c r="L124" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4819,22 +5735,27 @@
         <v>1699087</v>
       </c>
       <c r="G125" t="n">
+        <v>1.805133333333335</v>
+      </c>
+      <c r="H125" t="n">
         <v>1.801600000000001</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
+      <c r="L125" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4858,22 +5779,27 @@
         <v>2674487</v>
       </c>
       <c r="G126" t="n">
+        <v>1.805266666666668</v>
+      </c>
+      <c r="H126" t="n">
         <v>1.801600000000001</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
+      <c r="L126" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4897,22 +5823,27 @@
         <v>2940.0325</v>
       </c>
       <c r="G127" t="n">
+        <v>1.805466666666668</v>
+      </c>
+      <c r="H127" t="n">
         <v>1.801616666666667</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
+      <c r="L127" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4936,22 +5867,27 @@
         <v>277</v>
       </c>
       <c r="G128" t="n">
+        <v>1.806600000000001</v>
+      </c>
+      <c r="H128" t="n">
         <v>1.801883333333334</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
+      <c r="L128" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4975,22 +5911,27 @@
         <v>490654.4351</v>
       </c>
       <c r="G129" t="n">
+        <v>1.806733333333334</v>
+      </c>
+      <c r="H129" t="n">
         <v>1.801950000000001</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
+      <c r="L129" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5014,22 +5955,27 @@
         <v>1015307.056402042</v>
       </c>
       <c r="G130" t="n">
+        <v>1.808266666666668</v>
+      </c>
+      <c r="H130" t="n">
         <v>1.802333333333334</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
+      <c r="L130" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5053,22 +5999,27 @@
         <v>3033448.2334</v>
       </c>
       <c r="G131" t="n">
+        <v>1.808800000000001</v>
+      </c>
+      <c r="H131" t="n">
         <v>1.802433333333334</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
+      <c r="L131" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5092,22 +6043,27 @@
         <v>406294</v>
       </c>
       <c r="G132" t="n">
+        <v>1.808066666666668</v>
+      </c>
+      <c r="H132" t="n">
         <v>1.802550000000001</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
+      <c r="L132" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5131,22 +6087,27 @@
         <v>708595</v>
       </c>
       <c r="G133" t="n">
+        <v>1.807133333333334</v>
+      </c>
+      <c r="H133" t="n">
         <v>1.802616666666667</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
+      <c r="L133" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5170,22 +6131,27 @@
         <v>2973208</v>
       </c>
       <c r="G134" t="n">
+        <v>1.806466666666667</v>
+      </c>
+      <c r="H134" t="n">
         <v>1.802500000000001</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
+      <c r="L134" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5209,22 +6175,27 @@
         <v>64176.9309</v>
       </c>
       <c r="G135" t="n">
+        <v>1.805800000000001</v>
+      </c>
+      <c r="H135" t="n">
         <v>1.802366666666667</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
+      <c r="L135" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5248,22 +6219,27 @@
         <v>190283.1272</v>
       </c>
       <c r="G136" t="n">
+        <v>1.805200000000001</v>
+      </c>
+      <c r="H136" t="n">
         <v>1.802216666666667</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
+      <c r="L136" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5287,22 +6263,27 @@
         <v>2625683</v>
       </c>
       <c r="G137" t="n">
+        <v>1.805533333333334</v>
+      </c>
+      <c r="H137" t="n">
         <v>1.8023</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
+      <c r="L137" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5326,22 +6307,27 @@
         <v>1215418</v>
       </c>
       <c r="G138" t="n">
+        <v>1.804266666666667</v>
+      </c>
+      <c r="H138" t="n">
         <v>1.801983333333334</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
+      <c r="L138" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5365,22 +6351,27 @@
         <v>2880471</v>
       </c>
       <c r="G139" t="n">
+        <v>1.804266666666667</v>
+      </c>
+      <c r="H139" t="n">
         <v>1.801916666666667</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
+      <c r="L139" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5404,22 +6395,27 @@
         <v>1389327</v>
       </c>
       <c r="G140" t="n">
+        <v>1.803000000000001</v>
+      </c>
+      <c r="H140" t="n">
         <v>1.801566666666667</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
+      <c r="L140" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5443,22 +6439,27 @@
         <v>277</v>
       </c>
       <c r="G141" t="n">
+        <v>1.804066666666667</v>
+      </c>
+      <c r="H141" t="n">
         <v>1.801566666666667</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
+      <c r="L141" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5482,22 +6483,27 @@
         <v>992451</v>
       </c>
       <c r="G142" t="n">
+        <v>1.804133333333334</v>
+      </c>
+      <c r="H142" t="n">
         <v>1.801833333333334</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
+      <c r="L142" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5521,22 +6527,27 @@
         <v>3612988</v>
       </c>
       <c r="G143" t="n">
+        <v>1.803000000000001</v>
+      </c>
+      <c r="H143" t="n">
         <v>1.801783333333334</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
+      <c r="L143" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5560,22 +6571,27 @@
         <v>2173511</v>
       </c>
       <c r="G144" t="n">
+        <v>1.803133333333334</v>
+      </c>
+      <c r="H144" t="n">
         <v>1.802066666666667</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
+      <c r="L144" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5599,22 +6615,27 @@
         <v>1385847</v>
       </c>
       <c r="G145" t="n">
+        <v>1.801600000000001</v>
+      </c>
+      <c r="H145" t="n">
         <v>1.802016666666667</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
+      <c r="L145" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5638,22 +6659,27 @@
         <v>2593826</v>
       </c>
       <c r="G146" t="n">
+        <v>1.800000000000001</v>
+      </c>
+      <c r="H146" t="n">
         <v>1.80195</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
+      <c r="L146" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5677,22 +6703,27 @@
         <v>1030346</v>
       </c>
       <c r="G147" t="n">
+        <v>1.799400000000001</v>
+      </c>
+      <c r="H147" t="n">
         <v>1.80165</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
+      <c r="L147" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5716,22 +6747,27 @@
         <v>262010</v>
       </c>
       <c r="G148" t="n">
+        <v>1.800266666666668</v>
+      </c>
+      <c r="H148" t="n">
         <v>1.801916666666667</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
+      <c r="L148" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5755,22 +6791,27 @@
         <v>3267985</v>
       </c>
       <c r="G149" t="n">
+        <v>1.799666666666668</v>
+      </c>
+      <c r="H149" t="n">
         <v>1.801616666666667</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
+      <c r="L149" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5794,22 +6835,27 @@
         <v>277</v>
       </c>
       <c r="G150" t="n">
+        <v>1.800400000000001</v>
+      </c>
+      <c r="H150" t="n">
         <v>1.801616666666666</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
+      <c r="L150" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5833,22 +6879,27 @@
         <v>277</v>
       </c>
       <c r="G151" t="n">
+        <v>1.801000000000001</v>
+      </c>
+      <c r="H151" t="n">
         <v>1.801583333333333</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
+      <c r="L151" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5872,22 +6923,27 @@
         <v>1057878</v>
       </c>
       <c r="G152" t="n">
+        <v>1.800800000000002</v>
+      </c>
+      <c r="H152" t="n">
         <v>1.801833333333333</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
+      <c r="L152" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5911,22 +6967,27 @@
         <v>2430967</v>
       </c>
       <c r="G153" t="n">
+        <v>1.800800000000002</v>
+      </c>
+      <c r="H153" t="n">
         <v>1.801766666666666</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
+      <c r="L153" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="M153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5950,22 +7011,27 @@
         <v>2812145</v>
       </c>
       <c r="G154" t="n">
+        <v>1.800800000000002</v>
+      </c>
+      <c r="H154" t="n">
         <v>1.801699999999999</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
+      <c r="L154" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="M154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5989,22 +7055,27 @@
         <v>714286</v>
       </c>
       <c r="G155" t="n">
+        <v>1.800800000000002</v>
+      </c>
+      <c r="H155" t="n">
         <v>1.801383333333333</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
+      <c r="L155" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="M155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6028,22 +7099,27 @@
         <v>1571382</v>
       </c>
       <c r="G156" t="n">
+        <v>1.800866666666668</v>
+      </c>
+      <c r="H156" t="n">
         <v>1.801733333333333</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
+      <c r="L156" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="M156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6067,22 +7143,27 @@
         <v>1771255</v>
       </c>
       <c r="G157" t="n">
+        <v>1.799600000000001</v>
+      </c>
+      <c r="H157" t="n">
         <v>1.801483333333333</v>
       </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
+      <c r="L157" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="M157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6106,22 +7187,27 @@
         <v>3078092</v>
       </c>
       <c r="G158" t="n">
+        <v>1.799666666666668</v>
+      </c>
+      <c r="H158" t="n">
         <v>1.801516666666666</v>
       </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
+      <c r="L158" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="M158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6145,22 +7231,27 @@
         <v>1482317</v>
       </c>
       <c r="G159" t="n">
+        <v>1.798400000000001</v>
+      </c>
+      <c r="H159" t="n">
         <v>1.801266666666666</v>
       </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
+      <c r="L159" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="M159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6184,22 +7275,27 @@
         <v>774819</v>
       </c>
       <c r="G160" t="n">
+        <v>1.798533333333334</v>
+      </c>
+      <c r="H160" t="n">
         <v>1.801316666666666</v>
       </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
+      <c r="L160" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="M160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6223,22 +7319,27 @@
         <v>3049302</v>
       </c>
       <c r="G161" t="n">
+        <v>1.798600000000001</v>
+      </c>
+      <c r="H161" t="n">
         <v>1.80135</v>
       </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
+      <c r="L161" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="M161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6262,22 +7363,27 @@
         <v>1613612</v>
       </c>
       <c r="G162" t="n">
+        <v>1.799866666666667</v>
+      </c>
+      <c r="H162" t="n">
         <v>1.8014</v>
       </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
+      <c r="L162" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="M162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6301,22 +7407,27 @@
         <v>1912792</v>
       </c>
       <c r="G163" t="n">
+        <v>1.798666666666667</v>
+      </c>
+      <c r="H163" t="n">
         <v>1.801183333333333</v>
       </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
+      <c r="L163" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="M163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6340,22 +7451,27 @@
         <v>2124026</v>
       </c>
       <c r="G164" t="n">
+        <v>1.799800000000001</v>
+      </c>
+      <c r="H164" t="n">
         <v>1.801483333333333</v>
       </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
+      <c r="L164" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="M164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6379,22 +7495,27 @@
         <v>1384013</v>
       </c>
       <c r="G165" t="n">
+        <v>1.798533333333334</v>
+      </c>
+      <c r="H165" t="n">
         <v>1.8015</v>
       </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M165" t="n">
+      <c r="L165" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="M165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6418,22 +7539,27 @@
         <v>277</v>
       </c>
       <c r="G166" t="n">
+        <v>1.798600000000001</v>
+      </c>
+      <c r="H166" t="n">
         <v>1.801816666666667</v>
       </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
+      <c r="L166" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="M166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6457,22 +7583,27 @@
         <v>277</v>
       </c>
       <c r="G167" t="n">
+        <v>1.798400000000001</v>
+      </c>
+      <c r="H167" t="n">
         <v>1.8021</v>
       </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
+      <c r="L167" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="M167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6496,22 +7627,27 @@
         <v>2318573</v>
       </c>
       <c r="G168" t="n">
+        <v>1.798400000000001</v>
+      </c>
+      <c r="H168" t="n">
         <v>1.8021</v>
       </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M168" t="n">
+      <c r="L168" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="M168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6535,22 +7671,27 @@
         <v>1466590</v>
       </c>
       <c r="G169" t="n">
+        <v>1.798400000000001</v>
+      </c>
+      <c r="H169" t="n">
         <v>1.8021</v>
       </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M169" t="n">
+      <c r="L169" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="M169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6574,22 +7715,27 @@
         <v>2347363</v>
       </c>
       <c r="G170" t="n">
+        <v>1.799533333333334</v>
+      </c>
+      <c r="H170" t="n">
         <v>1.802116666666667</v>
       </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M170" t="n">
+      <c r="L170" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="M170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6613,22 +7759,27 @@
         <v>1211332</v>
       </c>
       <c r="G171" t="n">
+        <v>1.799466666666667</v>
+      </c>
+      <c r="H171" t="n">
         <v>1.802416666666667</v>
       </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M171" t="n">
+      <c r="L171" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="M171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6652,22 +7803,27 @@
         <v>277</v>
       </c>
       <c r="G172" t="n">
+        <v>1.8004</v>
+      </c>
+      <c r="H172" t="n">
         <v>1.8024</v>
       </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M172" t="n">
+      <c r="L172" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="M172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6691,22 +7847,27 @@
         <v>1425801</v>
       </c>
       <c r="G173" t="n">
+        <v>1.800333333333334</v>
+      </c>
+      <c r="H173" t="n">
         <v>1.8024</v>
       </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M173" t="n">
+      <c r="L173" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="M173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6730,22 +7891,27 @@
         <v>2060025</v>
       </c>
       <c r="G174" t="n">
+        <v>1.800266666666668</v>
+      </c>
+      <c r="H174" t="n">
         <v>1.802133333333333</v>
       </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M174" t="n">
+      <c r="L174" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="M174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6769,22 +7935,27 @@
         <v>269597</v>
       </c>
       <c r="G175" t="n">
+        <v>1.801333333333334</v>
+      </c>
+      <c r="H175" t="n">
         <v>1.802433333333333</v>
       </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M175" t="n">
+      <c r="L175" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="M175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6808,22 +7979,27 @@
         <v>3540179</v>
       </c>
       <c r="G176" t="n">
+        <v>1.801266666666667</v>
+      </c>
+      <c r="H176" t="n">
         <v>1.802166666666667</v>
       </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M176" t="n">
+      <c r="L176" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="M176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6847,22 +8023,27 @@
         <v>694510</v>
       </c>
       <c r="G177" t="n">
+        <v>1.800000000000001</v>
+      </c>
+      <c r="H177" t="n">
         <v>1.801833333333333</v>
       </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M177" t="n">
+      <c r="L177" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="M177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N177" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6886,22 +8067,27 @@
         <v>257910</v>
       </c>
       <c r="G178" t="n">
+        <v>1.801133333333334</v>
+      </c>
+      <c r="H178" t="n">
         <v>1.8018</v>
       </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M178" t="n">
+      <c r="L178" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="M178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N178" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6925,22 +8111,27 @@
         <v>3369039</v>
       </c>
       <c r="G179" t="n">
+        <v>1.800000000000001</v>
+      </c>
+      <c r="H179" t="n">
         <v>1.801483333333333</v>
       </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M179" t="n">
+      <c r="L179" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="M179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N179" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6964,22 +8155,27 @@
         <v>5524.57205963556</v>
       </c>
       <c r="G180" t="n">
+        <v>1.801266666666667</v>
+      </c>
+      <c r="H180" t="n">
         <v>1.8015</v>
       </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M180" t="n">
+      <c r="L180" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="M180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N180" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7003,22 +8199,27 @@
         <v>5000</v>
       </c>
       <c r="G181" t="n">
+        <v>1.800266666666668</v>
+      </c>
+      <c r="H181" t="n">
         <v>1.801266666666667</v>
       </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M181" t="n">
+      <c r="L181" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="M181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N181" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7042,22 +8243,27 @@
         <v>100000</v>
       </c>
       <c r="G182" t="n">
+        <v>1.799133333333334</v>
+      </c>
+      <c r="H182" t="n">
         <v>1.800966666666667</v>
       </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>0</v>
+      </c>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M182" t="n">
+      <c r="L182" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="M182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N182" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7081,22 +8287,27 @@
         <v>49685.95978915031</v>
       </c>
       <c r="G183" t="n">
+        <v>1.800466666666668</v>
+      </c>
+      <c r="H183" t="n">
         <v>1.800983333333333</v>
       </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>0</v>
+      </c>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M183" t="n">
+      <c r="L183" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="M183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N183" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7120,22 +8331,27 @@
         <v>1104.362230811706</v>
       </c>
       <c r="G184" t="n">
+        <v>1.801733333333334</v>
+      </c>
+      <c r="H184" t="n">
         <v>1.8013</v>
       </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>0</v>
+      </c>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M184" t="n">
+      <c r="L184" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="M184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N184" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7159,22 +8375,27 @@
         <v>150000</v>
       </c>
       <c r="G185" t="n">
+        <v>1.800533333333334</v>
+      </c>
+      <c r="H185" t="n">
         <v>1.800966666666667</v>
       </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>0</v>
+      </c>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M185" t="n">
+      <c r="L185" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="M185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N185" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7198,22 +8419,27 @@
         <v>150000</v>
       </c>
       <c r="G186" t="n">
+        <v>1.799200000000001</v>
+      </c>
+      <c r="H186" t="n">
         <v>1.8009</v>
       </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
-      <c r="J186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>0</v>
+      </c>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M186" t="n">
+      <c r="L186" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="M186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N186" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7237,22 +8463,27 @@
         <v>3246137</v>
       </c>
       <c r="G187" t="n">
+        <v>1.799266666666668</v>
+      </c>
+      <c r="H187" t="n">
         <v>1.80085</v>
       </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
       <c r="I187" t="n">
         <v>0</v>
       </c>
-      <c r="J187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>0</v>
+      </c>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M187" t="n">
+      <c r="L187" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="M187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N187" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7276,22 +8507,27 @@
         <v>1223574</v>
       </c>
       <c r="G188" t="n">
+        <v>1.799200000000001</v>
+      </c>
+      <c r="H188" t="n">
         <v>1.80055</v>
       </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
       <c r="I188" t="n">
         <v>0</v>
       </c>
-      <c r="J188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>0</v>
+      </c>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M188" t="n">
+      <c r="L188" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="M188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N188" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7315,22 +8551,27 @@
         <v>2147.4748</v>
       </c>
       <c r="G189" t="n">
+        <v>1.799133333333334</v>
+      </c>
+      <c r="H189" t="n">
         <v>1.800233333333334</v>
       </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>0</v>
+      </c>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M189" t="n">
+      <c r="L189" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="M189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N189" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7354,22 +8595,27 @@
         <v>3187599</v>
       </c>
       <c r="G190" t="n">
+        <v>1.797866666666668</v>
+      </c>
+      <c r="H190" t="n">
         <v>1.799833333333333</v>
       </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>0</v>
+      </c>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M190" t="n">
+      <c r="L190" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="M190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N190" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7393,22 +8639,27 @@
         <v>1650891</v>
       </c>
       <c r="G191" t="n">
+        <v>1.797800000000001</v>
+      </c>
+      <c r="H191" t="n">
         <v>1.799416666666667</v>
       </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>0</v>
+      </c>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M191" t="n">
+      <c r="L191" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="M191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N191" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7432,22 +8683,27 @@
         <v>1184.8501</v>
       </c>
       <c r="G192" t="n">
+        <v>1.798733333333334</v>
+      </c>
+      <c r="H192" t="n">
         <v>1.7995</v>
       </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
-      <c r="J192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>0</v>
+      </c>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M192" t="n">
+      <c r="L192" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="M192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N192" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7471,22 +8727,27 @@
         <v>2799385</v>
       </c>
       <c r="G193" t="n">
+        <v>1.797466666666668</v>
+      </c>
+      <c r="H193" t="n">
         <v>1.799383333333333</v>
       </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
-      <c r="J193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>0</v>
+      </c>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M193" t="n">
+      <c r="L193" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="M193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N193" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7510,22 +8771,27 @@
         <v>1635896</v>
       </c>
       <c r="G194" t="n">
+        <v>1.797400000000001</v>
+      </c>
+      <c r="H194" t="n">
         <v>1.799216666666666</v>
       </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>0</v>
+      </c>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M194" t="n">
+      <c r="L194" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="M194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N194" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7549,22 +8815,27 @@
         <v>634354</v>
       </c>
       <c r="G195" t="n">
+        <v>1.796066666666668</v>
+      </c>
+      <c r="H195" t="n">
         <v>1.799066666666666</v>
       </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
       <c r="I195" t="n">
         <v>0</v>
       </c>
-      <c r="J195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>0</v>
+      </c>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M195" t="n">
+      <c r="L195" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="M195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N195" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7588,22 +8859,27 @@
         <v>2940907</v>
       </c>
       <c r="G196" t="n">
+        <v>1.795800000000001</v>
+      </c>
+      <c r="H196" t="n">
         <v>1.798916666666666</v>
       </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
       <c r="I196" t="n">
         <v>0</v>
       </c>
-      <c r="J196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>0</v>
+      </c>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M196" t="n">
+      <c r="L196" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="M196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N196" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7627,22 +8903,27 @@
         <v>555</v>
       </c>
       <c r="G197" t="n">
+        <v>1.796866666666667</v>
+      </c>
+      <c r="H197" t="n">
         <v>1.7988</v>
       </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
       <c r="I197" t="n">
         <v>0</v>
       </c>
-      <c r="J197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>0</v>
+      </c>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M197" t="n">
+      <c r="L197" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="M197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N197" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7666,22 +8947,27 @@
         <v>4723</v>
       </c>
       <c r="G198" t="n">
+        <v>1.796533333333334</v>
+      </c>
+      <c r="H198" t="n">
         <v>1.79905</v>
       </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
       <c r="I198" t="n">
         <v>0</v>
       </c>
-      <c r="J198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>0</v>
+      </c>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M198" t="n">
+      <c r="L198" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="M198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N198" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7705,22 +8991,27 @@
         <v>394.4946</v>
       </c>
       <c r="G199" t="n">
+        <v>1.796333333333334</v>
+      </c>
+      <c r="H199" t="n">
         <v>1.799316666666667</v>
       </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
       <c r="I199" t="n">
         <v>0</v>
       </c>
-      <c r="J199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>0</v>
+      </c>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M199" t="n">
+      <c r="L199" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="M199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N199" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7744,22 +9035,27 @@
         <v>150000</v>
       </c>
       <c r="G200" t="n">
+        <v>1.796533333333334</v>
+      </c>
+      <c r="H200" t="n">
         <v>1.79935</v>
       </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
       <c r="I200" t="n">
         <v>0</v>
       </c>
-      <c r="J200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>0</v>
+      </c>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M200" t="n">
+      <c r="L200" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="M200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N200" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7783,22 +9079,27 @@
         <v>375.2957</v>
       </c>
       <c r="G201" t="n">
+        <v>1.797600000000001</v>
+      </c>
+      <c r="H201" t="n">
         <v>1.799283333333333</v>
       </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
       <c r="I201" t="n">
         <v>0</v>
       </c>
-      <c r="J201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>0</v>
+      </c>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M201" t="n">
+      <c r="L201" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="M201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N201" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7822,22 +9123,27 @@
         <v>116433.3094</v>
       </c>
       <c r="G202" t="n">
+        <v>1.797533333333334</v>
+      </c>
+      <c r="H202" t="n">
         <v>1.7992</v>
       </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
       <c r="I202" t="n">
         <v>0</v>
       </c>
-      <c r="J202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>0</v>
+      </c>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M202" t="n">
+      <c r="L202" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="M202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N202" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7861,22 +9167,27 @@
         <v>1866042.877451214</v>
       </c>
       <c r="G203" t="n">
+        <v>1.799666666666667</v>
+      </c>
+      <c r="H203" t="n">
         <v>1.799716666666666</v>
       </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
       <c r="I203" t="n">
         <v>0</v>
       </c>
-      <c r="J203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>0</v>
+      </c>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M203" t="n">
+      <c r="L203" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="M203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N203" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7900,22 +9211,27 @@
         <v>76767.23579999999</v>
       </c>
       <c r="G204" t="n">
+        <v>1.801866666666667</v>
+      </c>
+      <c r="H204" t="n">
         <v>1.799916666666667</v>
       </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
       <c r="I204" t="n">
         <v>0</v>
       </c>
-      <c r="J204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>0</v>
+      </c>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M204" t="n">
+      <c r="L204" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="M204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N204" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7939,22 +9255,27 @@
         <v>150000</v>
       </c>
       <c r="G205" t="n">
+        <v>1.804066666666667</v>
+      </c>
+      <c r="H205" t="n">
         <v>1.80045</v>
       </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
       <c r="I205" t="n">
         <v>0</v>
       </c>
-      <c r="J205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>0</v>
+      </c>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M205" t="n">
+      <c r="L205" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="M205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N205" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7978,22 +9299,27 @@
         <v>9870.807199999999</v>
       </c>
       <c r="G206" t="n">
+        <v>1.806266666666667</v>
+      </c>
+      <c r="H206" t="n">
         <v>1.800983333333333</v>
       </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
       <c r="I206" t="n">
         <v>0</v>
       </c>
-      <c r="J206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>0</v>
+      </c>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M206" t="n">
+      <c r="L206" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="M206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N206" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8017,22 +9343,27 @@
         <v>2231808</v>
       </c>
       <c r="G207" t="n">
+        <v>1.807400000000001</v>
+      </c>
+      <c r="H207" t="n">
         <v>1.8015</v>
       </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
       <c r="I207" t="n">
         <v>0</v>
       </c>
-      <c r="J207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>0</v>
+      </c>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M207" t="n">
+      <c r="L207" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="M207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N207" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8056,22 +9387,27 @@
         <v>2075867</v>
       </c>
       <c r="G208" t="n">
+        <v>1.808466666666667</v>
+      </c>
+      <c r="H208" t="n">
         <v>1.801433333333333</v>
       </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
       <c r="I208" t="n">
         <v>0</v>
       </c>
-      <c r="J208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>0</v>
+      </c>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M208" t="n">
+      <c r="L208" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="M208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N208" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8095,22 +9431,27 @@
         <v>50000</v>
       </c>
       <c r="G209" t="n">
+        <v>1.809733333333334</v>
+      </c>
+      <c r="H209" t="n">
         <v>1.801733333333333</v>
       </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
       <c r="I209" t="n">
         <v>0</v>
       </c>
-      <c r="J209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>0</v>
+      </c>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M209" t="n">
+      <c r="L209" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="M209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N209" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8134,22 +9475,27 @@
         <v>38398.73834339002</v>
       </c>
       <c r="G210" t="n">
+        <v>1.811866666666667</v>
+      </c>
+      <c r="H210" t="n">
         <v>1.801933333333333</v>
       </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
       <c r="I210" t="n">
         <v>0</v>
       </c>
-      <c r="J210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>0</v>
+      </c>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M210" t="n">
+      <c r="L210" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="M210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N210" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8173,22 +9519,27 @@
         <v>38398.7383</v>
       </c>
       <c r="G211" t="n">
+        <v>1.813133333333334</v>
+      </c>
+      <c r="H211" t="n">
         <v>1.80195</v>
       </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
       <c r="I211" t="n">
         <v>0</v>
       </c>
-      <c r="J211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>0</v>
+      </c>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M211" t="n">
+      <c r="L211" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="M211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N211" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8212,22 +9563,27 @@
         <v>280</v>
       </c>
       <c r="G212" t="n">
+        <v>1.814066666666667</v>
+      </c>
+      <c r="H212" t="n">
         <v>1.802116666666666</v>
       </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
       <c r="I212" t="n">
         <v>0</v>
       </c>
-      <c r="J212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>0</v>
+      </c>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M212" t="n">
+      <c r="L212" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="M212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N212" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8251,22 +9607,27 @@
         <v>1568321.43875661</v>
       </c>
       <c r="G213" t="n">
+        <v>1.815733333333334</v>
+      </c>
+      <c r="H213" t="n">
         <v>1.802783333333333</v>
       </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
       <c r="I213" t="n">
         <v>0</v>
       </c>
-      <c r="J213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>0</v>
+      </c>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M213" t="n">
+      <c r="L213" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="M213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N213" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8290,22 +9651,27 @@
         <v>52013.3652</v>
       </c>
       <c r="G214" t="n">
+        <v>1.817333333333334</v>
+      </c>
+      <c r="H214" t="n">
         <v>1.803449999999999</v>
       </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
       <c r="I214" t="n">
         <v>0</v>
       </c>
-      <c r="J214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>0</v>
+      </c>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M214" t="n">
+      <c r="L214" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="M214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N214" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8329,22 +9695,27 @@
         <v>976812.3577000001</v>
       </c>
       <c r="G215" t="n">
+        <v>1.820066666666668</v>
+      </c>
+      <c r="H215" t="n">
         <v>1.804166666666666</v>
       </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
       <c r="I215" t="n">
         <v>0</v>
       </c>
-      <c r="J215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>0</v>
+      </c>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M215" t="n">
+      <c r="L215" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="M215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N215" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8368,22 +9739,27 @@
         <v>1717309</v>
       </c>
       <c r="G216" t="n">
+        <v>1.821933333333334</v>
+      </c>
+      <c r="H216" t="n">
         <v>1.804549999999999</v>
       </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
       <c r="I216" t="n">
         <v>0</v>
       </c>
-      <c r="J216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>0</v>
+      </c>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M216" t="n">
+      <c r="L216" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="M216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N216" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8407,23 +9783,28 @@
         <v>2628444</v>
       </c>
       <c r="G217" t="n">
+        <v>1.822400000000001</v>
+      </c>
+      <c r="H217" t="n">
         <v>1.804899999999999</v>
       </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
       <c r="I217" t="n">
         <v>0</v>
       </c>
-      <c r="J217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>1</v>
+      </c>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M217" t="n">
-        <v>1</v>
+      <c r="L217" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="M217" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N217" t="n">
+        <v>1.02043810062182</v>
       </c>
     </row>
     <row r="218">
@@ -8446,22 +9827,21 @@
         <v>20296.4804</v>
       </c>
       <c r="G218" t="n">
+        <v>1.823000000000001</v>
+      </c>
+      <c r="H218" t="n">
         <v>1.805549999999999</v>
       </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
       <c r="I218" t="n">
         <v>0</v>
       </c>
-      <c r="J218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>0</v>
+      </c>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M218" t="n">
+      <c r="L218" t="inlineStr"/>
+      <c r="M218" t="inlineStr"/>
+      <c r="N218" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8485,22 +9865,21 @@
         <v>20347.6352</v>
       </c>
       <c r="G219" t="n">
+        <v>1.823533333333334</v>
+      </c>
+      <c r="H219" t="n">
         <v>1.806199999999999</v>
       </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
       <c r="I219" t="n">
         <v>0</v>
       </c>
-      <c r="J219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>1</v>
+      </c>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M219" t="n">
+      <c r="L219" t="inlineStr"/>
+      <c r="M219" t="inlineStr"/>
+      <c r="N219" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8524,22 +9903,21 @@
         <v>277189.8782</v>
       </c>
       <c r="G220" t="n">
+        <v>1.823933333333334</v>
+      </c>
+      <c r="H220" t="n">
         <v>1.806799999999999</v>
       </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
       <c r="I220" t="n">
         <v>0</v>
       </c>
-      <c r="J220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>1</v>
+      </c>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M220" t="n">
+      <c r="L220" t="inlineStr"/>
+      <c r="M220" t="inlineStr"/>
+      <c r="N220" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8563,22 +9941,21 @@
         <v>212283.2995</v>
       </c>
       <c r="G221" t="n">
+        <v>1.824333333333334</v>
+      </c>
+      <c r="H221" t="n">
         <v>1.807416666666665</v>
       </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
       <c r="I221" t="n">
         <v>0</v>
       </c>
-      <c r="J221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>1</v>
+      </c>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M221" t="n">
+      <c r="L221" t="inlineStr"/>
+      <c r="M221" t="inlineStr"/>
+      <c r="N221" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8602,22 +9979,21 @@
         <v>7075.8498</v>
       </c>
       <c r="G222" t="n">
+        <v>1.823466666666667</v>
+      </c>
+      <c r="H222" t="n">
         <v>1.807399999999999</v>
       </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
       <c r="I222" t="n">
         <v>0</v>
       </c>
-      <c r="J222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>0</v>
+      </c>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M222" t="n">
+      <c r="L222" t="inlineStr"/>
+      <c r="M222" t="inlineStr"/>
+      <c r="N222" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8641,22 +10017,21 @@
         <v>114864.3331</v>
       </c>
       <c r="G223" t="n">
+        <v>1.823533333333334</v>
+      </c>
+      <c r="H223" t="n">
         <v>1.807649999999999</v>
       </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
       <c r="I223" t="n">
         <v>0</v>
       </c>
-      <c r="J223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>1</v>
+      </c>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M223" t="n">
+      <c r="L223" t="inlineStr"/>
+      <c r="M223" t="inlineStr"/>
+      <c r="N223" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8680,22 +10055,21 @@
         <v>255907.5973</v>
       </c>
       <c r="G224" t="n">
+        <v>1.823266666666668</v>
+      </c>
+      <c r="H224" t="n">
         <v>1.807599999999999</v>
       </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
       <c r="I224" t="n">
         <v>0</v>
       </c>
-      <c r="J224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>0</v>
+      </c>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M224" t="n">
+      <c r="L224" t="inlineStr"/>
+      <c r="M224" t="inlineStr"/>
+      <c r="N224" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8719,22 +10093,21 @@
         <v>237546.8653</v>
       </c>
       <c r="G225" t="n">
+        <v>1.822133333333334</v>
+      </c>
+      <c r="H225" t="n">
         <v>1.807833333333332</v>
       </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
       <c r="I225" t="n">
         <v>0</v>
       </c>
-      <c r="J225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>0</v>
+      </c>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M225" t="n">
+      <c r="L225" t="inlineStr"/>
+      <c r="M225" t="inlineStr"/>
+      <c r="N225" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8758,22 +10131,21 @@
         <v>1304.7944</v>
       </c>
       <c r="G226" t="n">
+        <v>1.821866666666668</v>
+      </c>
+      <c r="H226" t="n">
         <v>1.807766666666665</v>
       </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
       <c r="I226" t="n">
         <v>0</v>
       </c>
-      <c r="J226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>0</v>
+      </c>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M226" t="n">
+      <c r="L226" t="inlineStr"/>
+      <c r="M226" t="inlineStr"/>
+      <c r="N226" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8797,22 +10169,21 @@
         <v>86546.3009</v>
       </c>
       <c r="G227" t="n">
+        <v>1.820466666666668</v>
+      </c>
+      <c r="H227" t="n">
         <v>1.807633333333332</v>
       </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
       <c r="I227" t="n">
         <v>0</v>
       </c>
-      <c r="J227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>0</v>
+      </c>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M227" t="n">
+      <c r="L227" t="inlineStr"/>
+      <c r="M227" t="inlineStr"/>
+      <c r="N227" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8836,22 +10207,21 @@
         <v>1000</v>
       </c>
       <c r="G228" t="n">
+        <v>1.817866666666668</v>
+      </c>
+      <c r="H228" t="n">
         <v>1.807649999999999</v>
       </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
       <c r="I228" t="n">
         <v>0</v>
       </c>
-      <c r="J228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>0</v>
+      </c>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M228" t="n">
+      <c r="L228" t="inlineStr"/>
+      <c r="M228" t="inlineStr"/>
+      <c r="N228" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8875,22 +10245,21 @@
         <v>7324.9366</v>
       </c>
       <c r="G229" t="n">
+        <v>1.815266666666667</v>
+      </c>
+      <c r="H229" t="n">
         <v>1.807666666666665</v>
       </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
       <c r="I229" t="n">
         <v>0</v>
       </c>
-      <c r="J229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>0</v>
+      </c>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M229" t="n">
+      <c r="L229" t="inlineStr"/>
+      <c r="M229" t="inlineStr"/>
+      <c r="N229" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8914,22 +10283,21 @@
         <v>494.2339</v>
       </c>
       <c r="G230" t="n">
+        <v>1.813333333333334</v>
+      </c>
+      <c r="H230" t="n">
         <v>1.807616666666665</v>
       </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
       <c r="I230" t="n">
         <v>0</v>
       </c>
-      <c r="J230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>0</v>
+      </c>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M230" t="n">
+      <c r="L230" t="inlineStr"/>
+      <c r="M230" t="inlineStr"/>
+      <c r="N230" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8953,22 +10321,21 @@
         <v>259254.3175</v>
       </c>
       <c r="G231" t="n">
+        <v>1.812733333333334</v>
+      </c>
+      <c r="H231" t="n">
         <v>1.807866666666665</v>
       </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
       <c r="I231" t="n">
         <v>0</v>
       </c>
-      <c r="J231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>0</v>
+      </c>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M231" t="n">
+      <c r="L231" t="inlineStr"/>
+      <c r="M231" t="inlineStr"/>
+      <c r="N231" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8992,22 +10359,21 @@
         <v>3171472</v>
       </c>
       <c r="G232" t="n">
+        <v>1.812266666666667</v>
+      </c>
+      <c r="H232" t="n">
         <v>1.807866666666665</v>
       </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
       <c r="I232" t="n">
         <v>0</v>
       </c>
-      <c r="J232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>0</v>
+      </c>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M232" t="n">
+      <c r="L232" t="inlineStr"/>
+      <c r="M232" t="inlineStr"/>
+      <c r="N232" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9031,22 +10397,21 @@
         <v>10000</v>
       </c>
       <c r="G233" t="n">
+        <v>1.811866666666667</v>
+      </c>
+      <c r="H233" t="n">
         <v>1.808433333333332</v>
       </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
       <c r="I233" t="n">
         <v>0</v>
       </c>
-      <c r="J233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>0</v>
+      </c>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M233" t="n">
+      <c r="L233" t="inlineStr"/>
+      <c r="M233" t="inlineStr"/>
+      <c r="N233" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9070,22 +10435,21 @@
         <v>50191.2824</v>
       </c>
       <c r="G234" t="n">
+        <v>1.811466666666667</v>
+      </c>
+      <c r="H234" t="n">
         <v>1.808999999999998</v>
       </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
       <c r="I234" t="n">
         <v>0</v>
       </c>
-      <c r="J234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>0</v>
+      </c>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M234" t="n">
+      <c r="L234" t="inlineStr"/>
+      <c r="M234" t="inlineStr"/>
+      <c r="N234" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9109,22 +10473,401 @@
         <v>1248773</v>
       </c>
       <c r="G235" t="n">
+        <v>1.811133333333334</v>
+      </c>
+      <c r="H235" t="n">
         <v>1.809249999999998</v>
       </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
       <c r="I235" t="n">
         <v>0</v>
       </c>
-      <c r="J235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>1</v>
+      </c>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M235" t="n">
+      <c r="L235" t="inlineStr"/>
+      <c r="M235" t="inlineStr"/>
+      <c r="N235" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="n">
+        <v>1.825</v>
+      </c>
+      <c r="C236" t="n">
+        <v>1.809</v>
+      </c>
+      <c r="D236" t="n">
+        <v>1.825</v>
+      </c>
+      <c r="E236" t="n">
+        <v>1.809</v>
+      </c>
+      <c r="F236" t="n">
+        <v>3064323</v>
+      </c>
+      <c r="G236" t="n">
+        <v>1.809733333333334</v>
+      </c>
+      <c r="H236" t="n">
+        <v>1.809533333333332</v>
+      </c>
+      <c r="I236" t="n">
+        <v>0</v>
+      </c>
+      <c r="J236" t="n">
+        <v>0</v>
+      </c>
+      <c r="K236" t="inlineStr"/>
+      <c r="L236" t="inlineStr"/>
+      <c r="M236" t="inlineStr"/>
+      <c r="N236" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="n">
+        <v>1.808</v>
+      </c>
+      <c r="C237" t="n">
+        <v>1.808</v>
+      </c>
+      <c r="D237" t="n">
+        <v>1.808</v>
+      </c>
+      <c r="E237" t="n">
+        <v>1.808</v>
+      </c>
+      <c r="F237" t="n">
+        <v>93531.769</v>
+      </c>
+      <c r="G237" t="n">
+        <v>1.809600000000001</v>
+      </c>
+      <c r="H237" t="n">
+        <v>1.809799999999999</v>
+      </c>
+      <c r="I237" t="n">
+        <v>0</v>
+      </c>
+      <c r="J237" t="n">
+        <v>0</v>
+      </c>
+      <c r="K237" t="inlineStr"/>
+      <c r="L237" t="inlineStr"/>
+      <c r="M237" t="inlineStr"/>
+      <c r="N237" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="n">
+        <v>1.808</v>
+      </c>
+      <c r="C238" t="n">
+        <v>1.808</v>
+      </c>
+      <c r="D238" t="n">
+        <v>1.808</v>
+      </c>
+      <c r="E238" t="n">
+        <v>1.808</v>
+      </c>
+      <c r="F238" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G238" t="n">
+        <v>1.809600000000001</v>
+      </c>
+      <c r="H238" t="n">
+        <v>1.809766666666665</v>
+      </c>
+      <c r="I238" t="n">
+        <v>0</v>
+      </c>
+      <c r="J238" t="n">
+        <v>0</v>
+      </c>
+      <c r="K238" t="inlineStr"/>
+      <c r="L238" t="inlineStr"/>
+      <c r="M238" t="inlineStr"/>
+      <c r="N238" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="n">
+        <v>1.823</v>
+      </c>
+      <c r="C239" t="n">
+        <v>1.823</v>
+      </c>
+      <c r="D239" t="n">
+        <v>1.823</v>
+      </c>
+      <c r="E239" t="n">
+        <v>1.823</v>
+      </c>
+      <c r="F239" t="n">
+        <v>275</v>
+      </c>
+      <c r="G239" t="n">
+        <v>1.810733333333334</v>
+      </c>
+      <c r="H239" t="n">
+        <v>1.810283333333332</v>
+      </c>
+      <c r="I239" t="n">
+        <v>0</v>
+      </c>
+      <c r="J239" t="n">
+        <v>0</v>
+      </c>
+      <c r="K239" t="inlineStr"/>
+      <c r="L239" t="inlineStr"/>
+      <c r="M239" t="inlineStr"/>
+      <c r="N239" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="n">
+        <v>1.821</v>
+      </c>
+      <c r="C240" t="n">
+        <v>1.821</v>
+      </c>
+      <c r="D240" t="n">
+        <v>1.821</v>
+      </c>
+      <c r="E240" t="n">
+        <v>1.821</v>
+      </c>
+      <c r="F240" t="n">
+        <v>275</v>
+      </c>
+      <c r="G240" t="n">
+        <v>1.811733333333334</v>
+      </c>
+      <c r="H240" t="n">
+        <v>1.810449999999998</v>
+      </c>
+      <c r="I240" t="n">
+        <v>0</v>
+      </c>
+      <c r="J240" t="n">
+        <v>0</v>
+      </c>
+      <c r="K240" t="inlineStr"/>
+      <c r="L240" t="inlineStr"/>
+      <c r="M240" t="inlineStr"/>
+      <c r="N240" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="n">
+        <v>1.821</v>
+      </c>
+      <c r="C241" t="n">
+        <v>1.821</v>
+      </c>
+      <c r="D241" t="n">
+        <v>1.821</v>
+      </c>
+      <c r="E241" t="n">
+        <v>1.821</v>
+      </c>
+      <c r="F241" t="n">
+        <v>275</v>
+      </c>
+      <c r="G241" t="n">
+        <v>1.812733333333334</v>
+      </c>
+      <c r="H241" t="n">
+        <v>1.810883333333332</v>
+      </c>
+      <c r="I241" t="n">
+        <v>0</v>
+      </c>
+      <c r="J241" t="n">
+        <v>0</v>
+      </c>
+      <c r="K241" t="inlineStr"/>
+      <c r="L241" t="inlineStr"/>
+      <c r="M241" t="inlineStr"/>
+      <c r="N241" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="n">
+        <v>1.808</v>
+      </c>
+      <c r="C242" t="n">
+        <v>1.808</v>
+      </c>
+      <c r="D242" t="n">
+        <v>1.808</v>
+      </c>
+      <c r="E242" t="n">
+        <v>1.808</v>
+      </c>
+      <c r="F242" t="n">
+        <v>150289.888</v>
+      </c>
+      <c r="G242" t="n">
+        <v>1.813266666666667</v>
+      </c>
+      <c r="H242" t="n">
+        <v>1.811166666666665</v>
+      </c>
+      <c r="I242" t="n">
+        <v>0</v>
+      </c>
+      <c r="J242" t="n">
+        <v>0</v>
+      </c>
+      <c r="K242" t="inlineStr"/>
+      <c r="L242" t="inlineStr"/>
+      <c r="M242" t="inlineStr"/>
+      <c r="N242" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="n">
+        <v>1.823</v>
+      </c>
+      <c r="C243" t="n">
+        <v>1.824</v>
+      </c>
+      <c r="D243" t="n">
+        <v>1.824</v>
+      </c>
+      <c r="E243" t="n">
+        <v>1.807</v>
+      </c>
+      <c r="F243" t="n">
+        <v>2408711</v>
+      </c>
+      <c r="G243" t="n">
+        <v>1.815333333333334</v>
+      </c>
+      <c r="H243" t="n">
+        <v>1.811366666666665</v>
+      </c>
+      <c r="I243" t="n">
+        <v>0</v>
+      </c>
+      <c r="J243" t="n">
+        <v>0</v>
+      </c>
+      <c r="K243" t="inlineStr"/>
+      <c r="L243" t="inlineStr"/>
+      <c r="M243" t="inlineStr"/>
+      <c r="N243" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="n">
+        <v>1.807</v>
+      </c>
+      <c r="C244" t="n">
+        <v>1.807</v>
+      </c>
+      <c r="D244" t="n">
+        <v>1.824</v>
+      </c>
+      <c r="E244" t="n">
+        <v>1.807</v>
+      </c>
+      <c r="F244" t="n">
+        <v>1185965</v>
+      </c>
+      <c r="G244" t="n">
+        <v>1.816266666666667</v>
+      </c>
+      <c r="H244" t="n">
+        <v>1.811299999999999</v>
+      </c>
+      <c r="I244" t="n">
+        <v>0</v>
+      </c>
+      <c r="J244" t="n">
+        <v>0</v>
+      </c>
+      <c r="K244" t="inlineStr"/>
+      <c r="L244" t="inlineStr"/>
+      <c r="M244" t="inlineStr"/>
+      <c r="N244" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="n">
+        <v>1.807</v>
+      </c>
+      <c r="C245" t="n">
+        <v>1.806</v>
+      </c>
+      <c r="D245" t="n">
+        <v>1.807</v>
+      </c>
+      <c r="E245" t="n">
+        <v>1.806</v>
+      </c>
+      <c r="F245" t="n">
+        <v>142191.4851</v>
+      </c>
+      <c r="G245" t="n">
+        <v>1.816266666666667</v>
+      </c>
+      <c r="H245" t="n">
+        <v>1.811549999999998</v>
+      </c>
+      <c r="I245" t="n">
+        <v>0</v>
+      </c>
+      <c r="J245" t="n">
+        <v>0</v>
+      </c>
+      <c r="K245" t="inlineStr"/>
+      <c r="L245" t="inlineStr"/>
+      <c r="M245" t="inlineStr"/>
+      <c r="N245" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-26 BackTest AOA.xlsx
+++ b/BackTest/2020-01-26 BackTest AOA.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-18333809.36816408</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-17177386.36816408</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-17160686.20065989</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-18064436.20065989</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-20853261.20065989</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-20853261.20065989</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-18987117.20065989</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -750,15 +750,9 @@
       <c r="H11" t="n">
         <v>2</v>
       </c>
-      <c r="I11" t="n">
-        <v>1.789</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -787,15 +781,11 @@
         <v>-19577175.20065989</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -824,15 +814,11 @@
         <v>-22612512.20065989</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -861,17 +847,11 @@
         <v>-22612512.20065989</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
-      </c>
-      <c r="I14" t="n">
-        <v>1.771</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -900,15 +880,11 @@
         <v>-22612512.20065989</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -941,11 +917,7 @@
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -974,15 +946,11 @@
         <v>-21486547.20065989</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1015,11 +983,7 @@
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1048,15 +1012,11 @@
         <v>-21486547.20065989</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1085,15 +1045,11 @@
         <v>-20668885.20065989</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1122,15 +1078,11 @@
         <v>-23018868.20065989</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1163,11 +1115,7 @@
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1196,17 +1144,11 @@
         <v>-22765957.20065989</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
-      </c>
-      <c r="I23" t="n">
-        <v>1.788</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1239,11 +1181,7 @@
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1276,11 +1214,7 @@
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1313,11 +1247,7 @@
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1350,11 +1280,7 @@
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1387,11 +1313,7 @@
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1424,11 +1346,7 @@
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1461,11 +1379,7 @@
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1498,11 +1412,7 @@
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1535,11 +1445,7 @@
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1572,11 +1478,7 @@
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1609,11 +1511,7 @@
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1646,11 +1544,7 @@
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1683,11 +1577,7 @@
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1716,16 +1606,14 @@
         <v>-24415305.90965989</v>
       </c>
       <c r="H37" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
       <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
@@ -1751,7 +1639,7 @@
         <v>-24416057.65055989</v>
       </c>
       <c r="H38" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1784,14 +1672,10 @@
         <v>-24454345.57835989</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
-      </c>
-      <c r="I39" t="n">
-        <v>1.783</v>
-      </c>
-      <c r="J39" t="n">
-        <v>1.783</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
@@ -1824,14 +1708,8 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>1.783</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1860,19 +1738,11 @@
         <v>-26751921.95805989</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
-      </c>
-      <c r="I41" t="n">
-        <v>1.766</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1.783</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1904,14 +1774,8 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>1.783</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1940,19 +1804,11 @@
         <v>-26936615.18245989</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
-      </c>
-      <c r="I43" t="n">
-        <v>1.765</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1.783</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1984,14 +1840,8 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>1.783</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2023,14 +1873,8 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>1.783</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2062,14 +1906,8 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>1.783</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2101,14 +1939,8 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>1.783</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2137,19 +1969,11 @@
         <v>-28326884.01535989</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
-      </c>
-      <c r="I48" t="n">
-        <v>1.761</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1.783</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2178,19 +2002,11 @@
         <v>-28326884.01535989</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
-      </c>
-      <c r="I49" t="n">
-        <v>1.761</v>
-      </c>
-      <c r="J49" t="n">
-        <v>1.783</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2219,19 +2035,11 @@
         <v>-28326884.01535989</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
-      </c>
-      <c r="I50" t="n">
-        <v>1.761</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1.783</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2260,19 +2068,11 @@
         <v>-26304453.01535989</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
-      </c>
-      <c r="I51" t="n">
-        <v>1.761</v>
-      </c>
-      <c r="J51" t="n">
-        <v>1.783</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2304,14 +2104,8 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>1.783</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2343,14 +2137,8 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>1.783</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2382,14 +2170,8 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>1.783</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2421,14 +2203,8 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>1.783</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2460,14 +2236,8 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>1.783</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2496,19 +2266,13 @@
         <v>-25236992.8040768</v>
       </c>
       <c r="H57" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>1.783</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
-        <v>1.008460459899047</v>
+        <v>1</v>
       </c>
       <c r="M57" t="inlineStr"/>
     </row>
@@ -2568,7 +2332,7 @@
         <v>-25296992.8040768</v>
       </c>
       <c r="H59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2601,7 +2365,7 @@
         <v>-24223700.2950768</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2634,7 +2398,7 @@
         <v>-24132373.8120768</v>
       </c>
       <c r="H61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2667,7 +2431,7 @@
         <v>-24388303.8120768</v>
       </c>
       <c r="H62" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2700,7 +2464,7 @@
         <v>-25762996.8715768</v>
       </c>
       <c r="H63" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2733,7 +2497,7 @@
         <v>-28561847.8715768</v>
       </c>
       <c r="H64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2766,7 +2530,7 @@
         <v>-28561107.13377681</v>
       </c>
       <c r="H65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2832,7 +2596,7 @@
         <v>-30007472.13377681</v>
       </c>
       <c r="H67" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2865,7 +2629,7 @@
         <v>-30007472.13377681</v>
       </c>
       <c r="H68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2898,7 +2662,7 @@
         <v>-30007195.13377681</v>
       </c>
       <c r="H69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2931,7 +2695,7 @@
         <v>-32234731.13377681</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2964,7 +2728,7 @@
         <v>-32234731.13377681</v>
       </c>
       <c r="H71" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2997,7 +2761,7 @@
         <v>-32245588.09677681</v>
       </c>
       <c r="H72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -3030,7 +2794,7 @@
         <v>-31261460.09677681</v>
       </c>
       <c r="H73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -3063,7 +2827,7 @@
         <v>-34063257.09677681</v>
       </c>
       <c r="H74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -3096,7 +2860,7 @@
         <v>-34062721.7937768</v>
       </c>
       <c r="H75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -3129,7 +2893,7 @@
         <v>-35068724.8823768</v>
       </c>
       <c r="H76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -3162,7 +2926,7 @@
         <v>-35068446.8823768</v>
       </c>
       <c r="H77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -3195,7 +2959,7 @@
         <v>-32445868.8823768</v>
       </c>
       <c r="H78" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3228,7 +2992,7 @@
         <v>-33621070.8823768</v>
       </c>
       <c r="H79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3261,7 +3025,7 @@
         <v>-33616070.8823768</v>
       </c>
       <c r="H80" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3294,7 +3058,7 @@
         <v>-33621070.8823768</v>
       </c>
       <c r="H81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3327,7 +3091,7 @@
         <v>-33621070.8823768</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3362,15 +3126,9 @@
       <c r="H83" t="n">
         <v>2</v>
       </c>
-      <c r="I83" t="n">
-        <v>1.768</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3399,15 +3157,11 @@
         <v>-34269273.8823768</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3436,15 +3190,11 @@
         <v>-34169712.2109768</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3473,15 +3223,11 @@
         <v>-32351156.2109768</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3512,15 +3258,9 @@
       <c r="H87" t="n">
         <v>2</v>
       </c>
-      <c r="I87" t="n">
-        <v>1.793</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3549,15 +3289,11 @@
         <v>-36623094.2109768</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3586,15 +3322,11 @@
         <v>-36623094.2109768</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3627,11 +3359,7 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3660,15 +3388,11 @@
         <v>-38952160.9815768</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3701,11 +3425,7 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3734,15 +3454,11 @@
         <v>-40166228.9815768</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3771,15 +3487,11 @@
         <v>-40166228.9815768</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3808,15 +3520,11 @@
         <v>-40161237.4390768</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3845,17 +3553,11 @@
         <v>-40271289.4558768</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
-      </c>
-      <c r="I96" t="n">
-        <v>1.773</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3884,17 +3586,11 @@
         <v>-38831264.28177681</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
-      </c>
-      <c r="I97" t="n">
-        <v>1.772</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3923,17 +3619,11 @@
         <v>-41010992.28177681</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
-      </c>
-      <c r="I98" t="n">
-        <v>1.803</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3966,11 +3656,7 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4003,11 +3689,7 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4040,11 +3722,7 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4077,11 +3755,7 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4114,11 +3788,7 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4151,11 +3821,7 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4184,15 +3850,11 @@
         <v>-45532509.58937681</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4225,11 +3887,7 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4262,11 +3920,7 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4299,11 +3953,7 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4336,11 +3986,7 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4373,11 +4019,7 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4410,11 +4052,7 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4447,11 +4085,7 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4484,11 +4118,7 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4521,11 +4151,7 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4558,11 +4184,7 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4595,11 +4217,7 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4632,11 +4250,7 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4669,11 +4283,7 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4706,11 +4316,7 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4743,11 +4349,7 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4780,11 +4382,7 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4817,11 +4415,7 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4854,11 +4448,7 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4891,11 +4481,7 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4924,15 +4510,11 @@
         <v>-45179110.9538768</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4961,16 +4543,14 @@
         <v>-46718436.9538768</v>
       </c>
       <c r="H126" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
       <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
@@ -5095,7 +4675,7 @@
         <v>-51857261.7300768</v>
       </c>
       <c r="H130" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -5293,7 +4873,7 @@
         <v>-50148897.01997679</v>
       </c>
       <c r="H136" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5326,7 +4906,7 @@
         <v>-53709456.01997679</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5359,7 +4939,7 @@
         <v>-53591685.3858768</v>
       </c>
       <c r="H138" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5392,7 +4972,7 @@
         <v>-53935571.5874768</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5425,7 +5005,7 @@
         <v>-54219408.57847679</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5458,7 +5038,7 @@
         <v>-55302396.6010768</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5491,7 +5071,7 @@
         <v>-55302396.6010768</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5524,7 +5104,7 @@
         <v>-55302396.6010768</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5590,7 +5170,7 @@
         <v>-53801054.6010768</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5623,7 +5203,7 @@
         <v>-55726785.6010768</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5656,7 +5236,7 @@
         <v>-55563171.69117679</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5689,7 +5269,7 @@
         <v>-55445006.11677679</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5722,7 +5302,7 @@
         <v>-55445006.11677679</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5755,7 +5335,7 @@
         <v>-56846457.11677679</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5788,7 +5368,7 @@
         <v>-56846457.11677679</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5821,7 +5401,7 @@
         <v>-56846457.11677679</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5854,7 +5434,7 @@
         <v>-56844235.11677679</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5887,7 +5467,7 @@
         <v>-57796589.24837679</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5920,7 +5500,7 @@
         <v>-54780389.24837679</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5953,7 +5533,7 @@
         <v>-55202285.24837679</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5986,7 +5566,7 @@
         <v>-55201925.96877679</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -6019,7 +5599,7 @@
         <v>-58915864.96877679</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -6052,7 +5632,7 @@
         <v>-58915864.96877679</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -6085,7 +5665,7 @@
         <v>-58915587.96877679</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -6118,7 +5698,7 @@
         <v>-58915864.96877679</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -6151,7 +5731,7 @@
         <v>-60511785.96877679</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -6217,7 +5797,7 @@
         <v>-60511785.96877679</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -6250,7 +5830,7 @@
         <v>-60511785.96877679</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -6283,7 +5863,7 @@
         <v>-59873867.96877679</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6349,7 +5929,7 @@
         <v>-59604155.96877679</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6415,7 +5995,7 @@
         <v>-62096684.96877679</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6514,7 +6094,7 @@
         <v>-64012159.96877679</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -10309,10 +9889,14 @@
         <v>-81166211.78762943</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
-      </c>
-      <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I288" t="n">
+        <v>1.793</v>
+      </c>
+      <c r="J288" t="n">
+        <v>1.793</v>
+      </c>
       <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
@@ -10342,11 +9926,19 @@
         <v>-80906957.47012943</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
-      </c>
-      <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I289" t="n">
+        <v>1.806</v>
+      </c>
+      <c r="J289" t="n">
+        <v>1.793</v>
+      </c>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10378,8 +9970,14 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>1.793</v>
+      </c>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10507,11 +10105,17 @@
         <v>-88381525.47012943</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
-      </c>
-      <c r="I294" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I294" t="n">
+        <v>1.825</v>
+      </c>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10544,7 +10148,11 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10577,7 +10185,11 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10606,11 +10218,17 @@
         <v>-88474782.23912942</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
-      </c>
-      <c r="I297" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I297" t="n">
+        <v>1.808</v>
+      </c>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10643,7 +10261,11 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10676,7 +10298,11 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10709,7 +10335,11 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10738,11 +10368,17 @@
         <v>-86216636.12712942</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
-      </c>
-      <c r="I301" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I301" t="n">
+        <v>1.808</v>
+      </c>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10775,7 +10411,11 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10804,17 +10444,23 @@
         <v>-87544792.61222942</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
-      </c>
-      <c r="I303" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I303" t="n">
+        <v>1.807</v>
+      </c>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
       <c r="M303" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-26 BackTest AOA.xlsx
+++ b/BackTest/2020-01-26 BackTest AOA.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-18333809.36816408</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-17177386.36816408</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-17160686.20065989</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-18064436.20065989</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-20853261.20065989</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-20853261.20065989</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-18987117.20065989</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-20862477.20065989</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-19577175.20065989</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-22612512.20065989</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-22612512.20065989</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-21486547.20065989</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-21486547.20065989</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-20668885.20065989</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-23018868.20065989</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-25296992.8040768</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-24223700.2950768</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-24132373.8120768</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-24388303.8120768</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-28561847.8715768</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-28561107.13377681</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-30007195.13377681</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-32234731.13377681</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-32234731.13377681</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-32245588.09677681</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-31261460.09677681</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-34063257.09677681</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-34062721.7937768</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-35068446.8823768</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-33621070.8823768</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-33616070.8823768</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-33621070.8823768</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-33621070.8823768</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-35889157.8823768</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-34269273.8823768</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-34169712.2109768</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-32351156.2109768</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-35252330.2109768</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-36623094.2109768</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-36622581.9815768</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-40166228.9815768</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-40166228.9815768</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-40161237.4390768</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-41010992.28177681</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-41006451.96217681</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-41010103.38397681</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-41009643.70357681</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-45532509.58937681</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>-45179110.9538768</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-46718436.9538768</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>-48919179.7300768</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>-51857261.7300768</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>-51857261.7300768</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>-51852261.7300768</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-51852261.7300768</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>-51839301.8853768</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>-53709456.01997679</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>-53591685.3858768</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>-54219408.57847679</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>-55302396.6010768</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>-55302396.6010768</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>-57796589.24837679</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>-54780389.24837679</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>-55202285.24837679</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>-55201925.96877679</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>-58915864.96877679</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>-60511785.96877679</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>-60511785.96877679</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>-60511785.96877679</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>-59873867.96877679</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>-59604155.96877679</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>-62096684.96877679</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -8437,10 +8437,14 @@
         <v>-75521335.40218064</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
-      </c>
-      <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I244" t="n">
+        <v>1.791</v>
+      </c>
+      <c r="J244" t="n">
+        <v>1.791</v>
+      </c>
       <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
@@ -8473,8 +8477,14 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>1.791</v>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8506,8 +8516,14 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>1.791</v>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8539,8 +8555,14 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>1.791</v>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8569,11 +8591,19 @@
         <v>-73498772.40218064</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I248" t="n">
+        <v>1.791</v>
+      </c>
+      <c r="J248" t="n">
+        <v>1.791</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8605,8 +8635,14 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>1.791</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8635,11 +8671,19 @@
         <v>-73497587.55208065</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
-      </c>
-      <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I250" t="n">
+        <v>1.791</v>
+      </c>
+      <c r="J250" t="n">
+        <v>1.791</v>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -8671,8 +8715,14 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>1.791</v>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -8704,8 +8754,14 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>1.791</v>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -8737,8 +8793,14 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>1.791</v>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -8770,8 +8832,14 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>1.791</v>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -8803,8 +8871,14 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>1.791</v>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -8836,8 +8910,14 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>1.791</v>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -8869,8 +8949,14 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>1.791</v>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -8899,11 +8985,19 @@
         <v>-76446023.05748065</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
-      </c>
-      <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I258" t="n">
+        <v>1.808</v>
+      </c>
+      <c r="J258" t="n">
+        <v>1.791</v>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -8932,11 +9026,19 @@
         <v>-76445647.76178065</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
-      </c>
-      <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I259" t="n">
+        <v>1.794</v>
+      </c>
+      <c r="J259" t="n">
+        <v>1.791</v>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -8965,11 +9067,19 @@
         <v>-76329214.45238064</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
-      </c>
-      <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I260" t="n">
+        <v>1.806</v>
+      </c>
+      <c r="J260" t="n">
+        <v>1.791</v>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9001,8 +9111,14 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>1.791</v>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9034,8 +9150,14 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>1.791</v>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9067,8 +9189,14 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>1.791</v>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9100,8 +9228,14 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>1.791</v>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9133,8 +9267,14 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>1.791</v>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9166,8 +9306,14 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>1.791</v>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9196,13 +9342,19 @@
         <v>-78644079.33912943</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>1.791</v>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L267" t="n">
-        <v>1</v>
+        <v>1.005608598548297</v>
       </c>
       <c r="M267" t="inlineStr"/>
     </row>
@@ -9229,7 +9381,7 @@
         <v>-78605680.60078605</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9262,7 +9414,7 @@
         <v>-78644079.33908604</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9295,7 +9447,7 @@
         <v>-78643799.33908604</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9328,7 +9480,7 @@
         <v>-77075477.90032943</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9889,14 +10041,10 @@
         <v>-81166211.78762943</v>
       </c>
       <c r="H288" t="n">
-        <v>1</v>
-      </c>
-      <c r="I288" t="n">
-        <v>1.793</v>
-      </c>
-      <c r="J288" t="n">
-        <v>1.793</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I288" t="inlineStr"/>
+      <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
@@ -9926,19 +10074,11 @@
         <v>-80906957.47012943</v>
       </c>
       <c r="H289" t="n">
-        <v>1</v>
-      </c>
-      <c r="I289" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="J289" t="n">
-        <v>1.793</v>
-      </c>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I289" t="inlineStr"/>
+      <c r="J289" t="inlineStr"/>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -9970,14 +10110,8 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="n">
-        <v>1.793</v>
-      </c>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J290" t="inlineStr"/>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10105,17 +10239,11 @@
         <v>-88381525.47012943</v>
       </c>
       <c r="H294" t="n">
-        <v>1</v>
-      </c>
-      <c r="I294" t="n">
-        <v>1.825</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10148,11 +10276,7 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10185,11 +10309,7 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10218,17 +10338,11 @@
         <v>-88474782.23912942</v>
       </c>
       <c r="H297" t="n">
-        <v>1</v>
-      </c>
-      <c r="I297" t="n">
-        <v>1.808</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10261,11 +10375,7 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10298,11 +10408,7 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10335,11 +10441,7 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10368,17 +10470,11 @@
         <v>-86216636.12712942</v>
       </c>
       <c r="H301" t="n">
-        <v>1</v>
-      </c>
-      <c r="I301" t="n">
-        <v>1.808</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10411,11 +10507,7 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10444,23 +10536,17 @@
         <v>-87544792.61222942</v>
       </c>
       <c r="H303" t="n">
-        <v>1</v>
-      </c>
-      <c r="I303" t="n">
-        <v>1.807</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
       </c>
       <c r="M303" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-26 BackTest AOA.xlsx
+++ b/BackTest/2020-01-26 BackTest AOA.xlsx
@@ -2497,7 +2497,7 @@
         <v>-28561847.8715768</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-30007472.13377681</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-32445868.8823768</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-36623094.2109768</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-36622581.9815768</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-38952160.9815768</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-40166228.9815768</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-40166228.9815768</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-41010992.28177681</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-41006451.96217681</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-41010103.38397681</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-41009643.70357681</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>-48919179.7300768</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>-51857261.7300768</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>-51857261.7300768</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>-51852261.7300768</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-51852261.7300768</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>-51839301.8853768</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>-55302396.6010768</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>-53801054.6010768</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>-55726785.6010768</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>-55563171.69117679</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>-55445006.11677679</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>-57796589.24837679</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>-54780389.24837679</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>-55202285.24837679</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>-55201925.96877679</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>-58915864.96877679</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>-63122264.96877679</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>-62096684.96877679</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -8437,14 +8437,10 @@
         <v>-75521335.40218064</v>
       </c>
       <c r="H244" t="n">
-        <v>1</v>
-      </c>
-      <c r="I244" t="n">
-        <v>1.791</v>
-      </c>
-      <c r="J244" t="n">
-        <v>1.791</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I244" t="inlineStr"/>
+      <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
@@ -8477,14 +8473,8 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>1.791</v>
-      </c>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8516,14 +8506,8 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>1.791</v>
-      </c>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8555,14 +8539,8 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>1.791</v>
-      </c>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8591,19 +8569,11 @@
         <v>-73498772.40218064</v>
       </c>
       <c r="H248" t="n">
-        <v>1</v>
-      </c>
-      <c r="I248" t="n">
-        <v>1.791</v>
-      </c>
-      <c r="J248" t="n">
-        <v>1.791</v>
-      </c>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I248" t="inlineStr"/>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8635,14 +8605,8 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>1.791</v>
-      </c>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8671,19 +8635,11 @@
         <v>-73497587.55208065</v>
       </c>
       <c r="H250" t="n">
-        <v>1</v>
-      </c>
-      <c r="I250" t="n">
-        <v>1.791</v>
-      </c>
-      <c r="J250" t="n">
-        <v>1.791</v>
-      </c>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I250" t="inlineStr"/>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -8715,14 +8671,8 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>1.791</v>
-      </c>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -8754,14 +8704,8 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>1.791</v>
-      </c>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -8793,14 +8737,8 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>1.791</v>
-      </c>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -8832,14 +8770,8 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>1.791</v>
-      </c>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -8871,14 +8803,8 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
-        <v>1.791</v>
-      </c>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -8910,14 +8836,8 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>1.791</v>
-      </c>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -8949,14 +8869,8 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
-        <v>1.791</v>
-      </c>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -8985,19 +8899,11 @@
         <v>-76446023.05748065</v>
       </c>
       <c r="H258" t="n">
-        <v>1</v>
-      </c>
-      <c r="I258" t="n">
-        <v>1.808</v>
-      </c>
-      <c r="J258" t="n">
-        <v>1.791</v>
-      </c>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I258" t="inlineStr"/>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9026,19 +8932,11 @@
         <v>-76445647.76178065</v>
       </c>
       <c r="H259" t="n">
-        <v>1</v>
-      </c>
-      <c r="I259" t="n">
-        <v>1.794</v>
-      </c>
-      <c r="J259" t="n">
-        <v>1.791</v>
-      </c>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I259" t="inlineStr"/>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9067,19 +8965,11 @@
         <v>-76329214.45238064</v>
       </c>
       <c r="H260" t="n">
-        <v>1</v>
-      </c>
-      <c r="I260" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="J260" t="n">
-        <v>1.791</v>
-      </c>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I260" t="inlineStr"/>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9111,14 +9001,8 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
-        <v>1.791</v>
-      </c>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9150,14 +9034,8 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>1.791</v>
-      </c>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9189,14 +9067,8 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
-        <v>1.791</v>
-      </c>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9228,14 +9100,8 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="n">
-        <v>1.791</v>
-      </c>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9267,14 +9133,8 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="n">
-        <v>1.791</v>
-      </c>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9306,14 +9166,8 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="n">
-        <v>1.791</v>
-      </c>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9342,19 +9196,13 @@
         <v>-78644079.33912943</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="n">
-        <v>1.791</v>
-      </c>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
-        <v>1.005608598548297</v>
+        <v>1</v>
       </c>
       <c r="M267" t="inlineStr"/>
     </row>
@@ -9381,7 +9229,7 @@
         <v>-78605680.60078605</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9414,7 +9262,7 @@
         <v>-78644079.33908604</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9447,7 +9295,7 @@
         <v>-78643799.33908604</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9480,7 +9328,7 @@
         <v>-77075477.90032943</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9579,7 +9427,7 @@
         <v>-77815974.54262942</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -10008,10 +9856,14 @@
         <v>-81166706.02152942</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
-      </c>
-      <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I287" t="n">
+        <v>1.793</v>
+      </c>
+      <c r="J287" t="n">
+        <v>1.793</v>
+      </c>
       <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
@@ -10041,11 +9893,19 @@
         <v>-81166211.78762943</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
-      </c>
-      <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I288" t="n">
+        <v>1.793</v>
+      </c>
+      <c r="J288" t="n">
+        <v>1.793</v>
+      </c>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10074,11 +9934,19 @@
         <v>-80906957.47012943</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
-      </c>
-      <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I289" t="n">
+        <v>1.806</v>
+      </c>
+      <c r="J289" t="n">
+        <v>1.793</v>
+      </c>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10173,7 +10041,7 @@
         <v>-84068429.47012943</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10206,7 +10074,7 @@
         <v>-85317202.47012943</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10404,7 +10272,7 @@
         <v>-88475057.23912942</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10470,11 +10338,17 @@
         <v>-86216636.12712942</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
-      </c>
-      <c r="I301" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I301" t="n">
+        <v>1.808</v>
+      </c>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10507,7 +10381,11 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10536,11 +10414,17 @@
         <v>-87544792.61222942</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
-      </c>
-      <c r="I303" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I303" t="n">
+        <v>1.807</v>
+      </c>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2020-01-26 BackTest AOA.xlsx
+++ b/BackTest/2020-01-26 BackTest AOA.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M303"/>
+  <dimension ref="A1:L303"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>3736320</v>
       </c>
       <c r="G2" t="n">
-        <v>-18333809.36816408</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>2346962</v>
       </c>
       <c r="G3" t="n">
-        <v>-15986847.36816408</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>1190539</v>
       </c>
       <c r="G4" t="n">
-        <v>-17177386.36816408</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>16700.1675041876</v>
       </c>
       <c r="G5" t="n">
-        <v>-17160686.20065989</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>903750</v>
       </c>
       <c r="G6" t="n">
-        <v>-18064436.20065989</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,21 @@
         <v>2788825</v>
       </c>
       <c r="G7" t="n">
-        <v>-20853261.20065989</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1.789</v>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +629,21 @@
         <v>1458854</v>
       </c>
       <c r="G8" t="n">
-        <v>-20853261.20065989</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1.772</v>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +665,19 @@
         <v>3026734</v>
       </c>
       <c r="G9" t="n">
-        <v>-20853261.20065989</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +699,21 @@
         <v>1866144</v>
       </c>
       <c r="G10" t="n">
-        <v>-18987117.20065989</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1.772</v>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +735,19 @@
         <v>1875360</v>
       </c>
       <c r="G11" t="n">
-        <v>-20862477.20065989</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +769,19 @@
         <v>1285302</v>
       </c>
       <c r="G12" t="n">
-        <v>-19577175.20065989</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +803,19 @@
         <v>3035337</v>
       </c>
       <c r="G13" t="n">
-        <v>-22612512.20065989</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +837,19 @@
         <v>2713954</v>
       </c>
       <c r="G14" t="n">
-        <v>-22612512.20065989</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +871,19 @@
         <v>732356</v>
       </c>
       <c r="G15" t="n">
-        <v>-22612512.20065989</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +905,19 @@
         <v>2259830</v>
       </c>
       <c r="G16" t="n">
-        <v>-20352682.20065989</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +939,19 @@
         <v>1133865</v>
       </c>
       <c r="G17" t="n">
-        <v>-21486547.20065989</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +973,21 @@
         <v>2877716</v>
       </c>
       <c r="G18" t="n">
-        <v>-21486547.20065989</v>
+        <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1.771</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +1009,19 @@
         <v>719123</v>
       </c>
       <c r="G19" t="n">
-        <v>-21486547.20065989</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +1043,21 @@
         <v>817662</v>
       </c>
       <c r="G20" t="n">
-        <v>-20668885.20065989</v>
+        <v>1</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1.771</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1079,21 @@
         <v>2349983</v>
       </c>
       <c r="G21" t="n">
-        <v>-23018868.20065989</v>
+        <v>1</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1.788</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1115,21 @@
         <v>252911</v>
       </c>
       <c r="G22" t="n">
-        <v>-22765957.20065989</v>
+        <v>1</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1.771</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1151,19 @@
         <v>2873137</v>
       </c>
       <c r="G23" t="n">
-        <v>-22765957.20065989</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1185,19 @@
         <v>448694</v>
       </c>
       <c r="G24" t="n">
-        <v>-23214651.20065989</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1219,21 @@
         <v>1317691</v>
       </c>
       <c r="G25" t="n">
-        <v>-23214651.20065989</v>
+        <v>1</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1.771</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1255,21 @@
         <v>2264689</v>
       </c>
       <c r="G26" t="n">
-        <v>-23214651.20065989</v>
+        <v>1</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1.771</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1291,21 @@
         <v>2150319</v>
       </c>
       <c r="G27" t="n">
-        <v>-23214651.20065989</v>
+        <v>1</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>1.771</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1327,19 @@
         <v>1575131</v>
       </c>
       <c r="G28" t="n">
-        <v>-23214651.20065989</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1361,21 @@
         <v>630.2910000000001</v>
       </c>
       <c r="G29" t="n">
-        <v>-23214020.90965989</v>
+        <v>1</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1.771</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1397,19 @@
         <v>2827113</v>
       </c>
       <c r="G30" t="n">
-        <v>-26041133.90965989</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1431,19 @@
         <v>1483500</v>
       </c>
       <c r="G31" t="n">
-        <v>-26041133.90965989</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1465,21 @@
         <v>2896465</v>
       </c>
       <c r="G32" t="n">
-        <v>-23144668.90965989</v>
+        <v>1</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1.771</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1501,21 @@
         <v>1270337</v>
       </c>
       <c r="G33" t="n">
-        <v>-24415005.90965989</v>
+        <v>1</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>1.786</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1537,21 @@
         <v>280</v>
       </c>
       <c r="G34" t="n">
-        <v>-24414725.90965989</v>
+        <v>1</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>1.771</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1573,21 @@
         <v>280</v>
       </c>
       <c r="G35" t="n">
-        <v>-24415005.90965989</v>
+        <v>1</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1.787</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1609,21 @@
         <v>300</v>
       </c>
       <c r="G36" t="n">
-        <v>-24415305.90965989</v>
+        <v>1</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>1.786</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1645,21 @@
         <v>692</v>
       </c>
       <c r="G37" t="n">
-        <v>-24415305.90965989</v>
+        <v>1</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>1.785</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1681,21 @@
         <v>751.7409</v>
       </c>
       <c r="G38" t="n">
-        <v>-24416057.65055989</v>
+        <v>1</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1.785</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1717,21 @@
         <v>38287.9278</v>
       </c>
       <c r="G39" t="n">
-        <v>-24454345.57835989</v>
+        <v>1</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>1.783</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1753,21 @@
         <v>2297576.3797</v>
       </c>
       <c r="G40" t="n">
-        <v>-26751921.95805989</v>
+        <v>1</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>1.771</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1789,21 @@
         <v>1258363</v>
       </c>
       <c r="G41" t="n">
-        <v>-26751921.95805989</v>
+        <v>1</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>1.766</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1825,21 @@
         <v>60000</v>
       </c>
       <c r="G42" t="n">
-        <v>-26811921.95805989</v>
+        <v>1</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>1.766</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1861,21 @@
         <v>124693.2244</v>
       </c>
       <c r="G43" t="n">
-        <v>-26936615.18245989</v>
+        <v>1</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>1.765</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1897,21 @@
         <v>2097047</v>
       </c>
       <c r="G44" t="n">
-        <v>-29033662.18245989</v>
+        <v>1</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>1.764</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1933,21 @@
         <v>1402278.1671</v>
       </c>
       <c r="G45" t="n">
-        <v>-27631384.01535989</v>
+        <v>1</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>1.763</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1969,21 @@
         <v>695500</v>
       </c>
       <c r="G46" t="n">
-        <v>-28326884.01535989</v>
+        <v>1</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>1.778</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +2005,19 @@
         <v>1377836</v>
       </c>
       <c r="G47" t="n">
-        <v>-28326884.01535989</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +2039,19 @@
         <v>1975573</v>
       </c>
       <c r="G48" t="n">
-        <v>-28326884.01535989</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +2073,21 @@
         <v>712039</v>
       </c>
       <c r="G49" t="n">
-        <v>-28326884.01535989</v>
+        <v>1</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>1.761</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +2109,21 @@
         <v>2710312</v>
       </c>
       <c r="G50" t="n">
-        <v>-28326884.01535989</v>
+        <v>1</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>1.761</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +2145,21 @@
         <v>2022431</v>
       </c>
       <c r="G51" t="n">
-        <v>-26304453.01535989</v>
+        <v>1</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>1.761</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +2181,21 @@
         <v>1347517</v>
       </c>
       <c r="G52" t="n">
-        <v>-27651970.01535989</v>
+        <v>1</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +2217,21 @@
         <v>2265051.650183082</v>
       </c>
       <c r="G53" t="n">
-        <v>-25386918.3651768</v>
+        <v>1</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>1.761</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2253,19 @@
         <v>106335.3394797118</v>
       </c>
       <c r="G54" t="n">
-        <v>-25280583.02569709</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2287,19 @@
         <v>100828.1561202882</v>
       </c>
       <c r="G55" t="n">
-        <v>-25179754.8695768</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2321,19 @@
         <v>5266.2756</v>
       </c>
       <c r="G56" t="n">
-        <v>-25174488.5939768</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2355,19 @@
         <v>62504.2101</v>
       </c>
       <c r="G57" t="n">
-        <v>-25236992.8040768</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2389,19 @@
         <v>4692.5593</v>
       </c>
       <c r="G58" t="n">
-        <v>-25236992.8040768</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2423,19 @@
         <v>60000</v>
       </c>
       <c r="G59" t="n">
-        <v>-25296992.8040768</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2457,19 @@
         <v>1073292.509</v>
       </c>
       <c r="G60" t="n">
-        <v>-24223700.2950768</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2491,19 @@
         <v>91326.48299999999</v>
       </c>
       <c r="G61" t="n">
-        <v>-24132373.8120768</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2525,19 @@
         <v>255930</v>
       </c>
       <c r="G62" t="n">
-        <v>-24388303.8120768</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2559,19 @@
         <v>1374693.0595</v>
       </c>
       <c r="G63" t="n">
-        <v>-25762996.8715768</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2593,19 @@
         <v>2798851</v>
       </c>
       <c r="G64" t="n">
-        <v>-28561847.8715768</v>
-      </c>
-      <c r="H64" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2627,19 @@
         <v>740.7378</v>
       </c>
       <c r="G65" t="n">
-        <v>-28561107.13377681</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2661,19 @@
         <v>277</v>
       </c>
       <c r="G66" t="n">
-        <v>-28560830.13377681</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2695,19 @@
         <v>1446642</v>
       </c>
       <c r="G67" t="n">
-        <v>-30007472.13377681</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2729,19 @@
         <v>2411476</v>
       </c>
       <c r="G68" t="n">
-        <v>-30007472.13377681</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2763,19 @@
         <v>277</v>
       </c>
       <c r="G69" t="n">
-        <v>-30007195.13377681</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2797,19 @@
         <v>2227536</v>
       </c>
       <c r="G70" t="n">
-        <v>-32234731.13377681</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2831,19 @@
         <v>1246114</v>
       </c>
       <c r="G71" t="n">
-        <v>-32234731.13377681</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2865,19 @@
         <v>10856.963</v>
       </c>
       <c r="G72" t="n">
-        <v>-32245588.09677681</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2899,19 @@
         <v>984128</v>
       </c>
       <c r="G73" t="n">
-        <v>-31261460.09677681</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2933,19 @@
         <v>2801797</v>
       </c>
       <c r="G74" t="n">
-        <v>-34063257.09677681</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2967,19 @@
         <v>535.303</v>
       </c>
       <c r="G75" t="n">
-        <v>-34062721.7937768</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +3001,19 @@
         <v>1006003.0886</v>
       </c>
       <c r="G76" t="n">
-        <v>-35068724.8823768</v>
-      </c>
-      <c r="H76" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +3035,19 @@
         <v>278</v>
       </c>
       <c r="G77" t="n">
-        <v>-35068446.8823768</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +3069,19 @@
         <v>2622578</v>
       </c>
       <c r="G78" t="n">
-        <v>-32445868.8823768</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +3103,19 @@
         <v>1175202</v>
       </c>
       <c r="G79" t="n">
-        <v>-33621070.8823768</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +3137,19 @@
         <v>5000</v>
       </c>
       <c r="G80" t="n">
-        <v>-33616070.8823768</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +3171,19 @@
         <v>5000</v>
       </c>
       <c r="G81" t="n">
-        <v>-33621070.8823768</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +3205,19 @@
         <v>118296.253</v>
       </c>
       <c r="G82" t="n">
-        <v>-33621070.8823768</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +3239,19 @@
         <v>2268087</v>
       </c>
       <c r="G83" t="n">
-        <v>-35889157.8823768</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +3273,19 @@
         <v>1619884</v>
       </c>
       <c r="G84" t="n">
-        <v>-34269273.8823768</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +3307,19 @@
         <v>99561.67140000001</v>
       </c>
       <c r="G85" t="n">
-        <v>-34169712.2109768</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +3341,19 @@
         <v>1818556</v>
       </c>
       <c r="G86" t="n">
-        <v>-32351156.2109768</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +3375,19 @@
         <v>2901174</v>
       </c>
       <c r="G87" t="n">
-        <v>-35252330.2109768</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3409,19 @@
         <v>1370764</v>
       </c>
       <c r="G88" t="n">
-        <v>-36623094.2109768</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3443,19 @@
         <v>2170938</v>
       </c>
       <c r="G89" t="n">
-        <v>-36623094.2109768</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3477,19 @@
         <v>512.2294000000001</v>
       </c>
       <c r="G90" t="n">
-        <v>-36622581.9815768</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3511,19 @@
         <v>2329579</v>
       </c>
       <c r="G91" t="n">
-        <v>-38952160.9815768</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3545,19 @@
         <v>1214068</v>
       </c>
       <c r="G92" t="n">
-        <v>-40166228.9815768</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3579,19 @@
         <v>2924510</v>
       </c>
       <c r="G93" t="n">
-        <v>-40166228.9815768</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3613,19 @@
         <v>645492</v>
       </c>
       <c r="G94" t="n">
-        <v>-40166228.9815768</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3647,19 @@
         <v>4991.5425</v>
       </c>
       <c r="G95" t="n">
-        <v>-40161237.4390768</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3681,19 @@
         <v>110052.0168</v>
       </c>
       <c r="G96" t="n">
-        <v>-40271289.4558768</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3715,19 @@
         <v>1440025.1741</v>
       </c>
       <c r="G97" t="n">
-        <v>-38831264.28177681</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3749,19 @@
         <v>2179728</v>
       </c>
       <c r="G98" t="n">
-        <v>-41010992.28177681</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3783,19 @@
         <v>4540.3196</v>
       </c>
       <c r="G99" t="n">
-        <v>-41006451.96217681</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3817,19 @@
         <v>3651.4218</v>
       </c>
       <c r="G100" t="n">
-        <v>-41010103.38397681</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +3851,19 @@
         <v>459.6804</v>
       </c>
       <c r="G101" t="n">
-        <v>-41009643.70357681</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +3885,19 @@
         <v>2887699.8858</v>
       </c>
       <c r="G102" t="n">
-        <v>-43897343.58937681</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +3919,19 @@
         <v>1318790</v>
       </c>
       <c r="G103" t="n">
-        <v>-42578553.58937681</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +3953,19 @@
         <v>10000</v>
       </c>
       <c r="G104" t="n">
-        <v>-42568553.58937681</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,18 +3987,19 @@
         <v>2963956</v>
       </c>
       <c r="G105" t="n">
-        <v>-45532509.58937681</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3880,18 +4021,19 @@
         <v>834076</v>
       </c>
       <c r="G106" t="n">
-        <v>-45532509.58937681</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3913,18 +4055,19 @@
         <v>8999.2333</v>
       </c>
       <c r="G107" t="n">
-        <v>-45523510.35607681</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3946,18 +4089,19 @@
         <v>394879.7469</v>
       </c>
       <c r="G108" t="n">
-        <v>-45918390.10297681</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3979,18 +4123,19 @@
         <v>1300</v>
       </c>
       <c r="G109" t="n">
-        <v>-45918390.10297681</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4012,18 +4157,19 @@
         <v>159347.3387</v>
       </c>
       <c r="G110" t="n">
-        <v>-45918390.10297681</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4045,18 +4191,19 @@
         <v>566.8509</v>
       </c>
       <c r="G111" t="n">
-        <v>-45917823.2520768</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4078,18 +4225,19 @@
         <v>4718.1491</v>
       </c>
       <c r="G112" t="n">
-        <v>-45917823.2520768</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4111,18 +4259,19 @@
         <v>167284.141</v>
       </c>
       <c r="G113" t="n">
-        <v>-45750539.1110768</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4144,18 +4293,19 @@
         <v>249801.1247</v>
       </c>
       <c r="G114" t="n">
-        <v>-45750539.1110768</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4177,18 +4327,19 @@
         <v>14342.7273</v>
       </c>
       <c r="G115" t="n">
-        <v>-45750539.1110768</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4210,18 +4361,19 @@
         <v>1983777.6673</v>
       </c>
       <c r="G116" t="n">
-        <v>-43766761.4437768</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4243,18 +4395,19 @@
         <v>2757586.5753</v>
       </c>
       <c r="G117" t="n">
-        <v>-46524348.0190768</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4276,18 +4429,19 @@
         <v>53634.362</v>
       </c>
       <c r="G118" t="n">
-        <v>-46524348.0190768</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4309,18 +4463,19 @@
         <v>150000</v>
       </c>
       <c r="G119" t="n">
-        <v>-46674348.0190768</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4342,18 +4497,19 @@
         <v>95933.3756</v>
       </c>
       <c r="G120" t="n">
-        <v>-46674348.0190768</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4375,18 +4531,19 @@
         <v>2835890</v>
       </c>
       <c r="G121" t="n">
-        <v>-43838458.0190768</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4408,18 +4565,19 @@
         <v>671392</v>
       </c>
       <c r="G122" t="n">
-        <v>-44509850.0190768</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4441,18 +4599,19 @@
         <v>1438713</v>
       </c>
       <c r="G123" t="n">
-        <v>-43071137.0190768</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4474,18 +4633,19 @@
         <v>2108540</v>
       </c>
       <c r="G124" t="n">
-        <v>-45179677.0190768</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4507,18 +4667,19 @@
         <v>566.0652</v>
       </c>
       <c r="G125" t="n">
-        <v>-45179110.9538768</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4540,18 +4701,19 @@
         <v>1539326</v>
       </c>
       <c r="G126" t="n">
-        <v>-46718436.9538768</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4573,18 +4735,19 @@
         <v>566.2238</v>
       </c>
       <c r="G127" t="n">
-        <v>-46717870.7300768</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4606,18 +4769,19 @@
         <v>2206309</v>
       </c>
       <c r="G128" t="n">
-        <v>-48924179.7300768</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4639,18 +4803,19 @@
         <v>5000</v>
       </c>
       <c r="G129" t="n">
-        <v>-48919179.7300768</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4672,18 +4837,19 @@
         <v>2938082</v>
       </c>
       <c r="G130" t="n">
-        <v>-51857261.7300768</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4705,18 +4871,19 @@
         <v>1584686</v>
       </c>
       <c r="G131" t="n">
-        <v>-51857261.7300768</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4738,18 +4905,19 @@
         <v>5000</v>
       </c>
       <c r="G132" t="n">
-        <v>-51852261.7300768</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4771,18 +4939,19 @@
         <v>126865.9876</v>
       </c>
       <c r="G133" t="n">
-        <v>-51852261.7300768</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4804,18 +4973,19 @@
         <v>12959.8447</v>
       </c>
       <c r="G134" t="n">
-        <v>-51839301.8853768</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4837,18 +5007,19 @@
         <v>35000</v>
       </c>
       <c r="G135" t="n">
-        <v>-51839301.8853768</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4870,18 +5041,19 @@
         <v>1690404.8654</v>
       </c>
       <c r="G136" t="n">
-        <v>-50148897.01997679</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4903,18 +5075,19 @@
         <v>3560559</v>
       </c>
       <c r="G137" t="n">
-        <v>-53709456.01997679</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -4936,18 +5109,19 @@
         <v>117770.6341</v>
       </c>
       <c r="G138" t="n">
-        <v>-53591685.3858768</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -4969,18 +5143,19 @@
         <v>343886.2016</v>
       </c>
       <c r="G139" t="n">
-        <v>-53935571.5874768</v>
-      </c>
-      <c r="H139" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5002,18 +5177,19 @@
         <v>283836.991</v>
       </c>
       <c r="G140" t="n">
-        <v>-54219408.57847679</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5035,18 +5211,19 @@
         <v>1082988.0226</v>
       </c>
       <c r="G141" t="n">
-        <v>-55302396.6010768</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5068,18 +5245,19 @@
         <v>279</v>
       </c>
       <c r="G142" t="n">
-        <v>-55302396.6010768</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5101,18 +5279,19 @@
         <v>122674.8742</v>
       </c>
       <c r="G143" t="n">
-        <v>-55302396.6010768</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5134,18 +5313,19 @@
         <v>645534</v>
       </c>
       <c r="G144" t="n">
-        <v>-54656862.6010768</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5167,18 +5347,19 @@
         <v>855808</v>
       </c>
       <c r="G145" t="n">
-        <v>-53801054.6010768</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5200,18 +5381,19 @@
         <v>1925731</v>
       </c>
       <c r="G146" t="n">
-        <v>-55726785.6010768</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5233,18 +5415,19 @@
         <v>163613.9099</v>
       </c>
       <c r="G147" t="n">
-        <v>-55563171.69117679</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5266,18 +5449,19 @@
         <v>118165.5744</v>
       </c>
       <c r="G148" t="n">
-        <v>-55445006.11677679</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5299,18 +5483,19 @@
         <v>942076</v>
       </c>
       <c r="G149" t="n">
-        <v>-55445006.11677679</v>
-      </c>
-      <c r="H149" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5332,18 +5517,19 @@
         <v>1401451</v>
       </c>
       <c r="G150" t="n">
-        <v>-56846457.11677679</v>
-      </c>
-      <c r="H150" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5365,18 +5551,19 @@
         <v>684776</v>
       </c>
       <c r="G151" t="n">
-        <v>-56846457.11677679</v>
-      </c>
-      <c r="H151" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5398,18 +5585,19 @@
         <v>1544812</v>
       </c>
       <c r="G152" t="n">
-        <v>-56846457.11677679</v>
-      </c>
-      <c r="H152" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5431,18 +5619,19 @@
         <v>2222</v>
       </c>
       <c r="G153" t="n">
-        <v>-56844235.11677679</v>
-      </c>
-      <c r="H153" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5464,18 +5653,19 @@
         <v>952354.1316</v>
       </c>
       <c r="G154" t="n">
-        <v>-57796589.24837679</v>
-      </c>
-      <c r="H154" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5497,18 +5687,19 @@
         <v>3016200</v>
       </c>
       <c r="G155" t="n">
-        <v>-54780389.24837679</v>
-      </c>
-      <c r="H155" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5530,18 +5721,19 @@
         <v>421896</v>
       </c>
       <c r="G156" t="n">
-        <v>-55202285.24837679</v>
-      </c>
-      <c r="H156" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5563,18 +5755,19 @@
         <v>359.2796</v>
       </c>
       <c r="G157" t="n">
-        <v>-55201925.96877679</v>
-      </c>
-      <c r="H157" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5596,18 +5789,19 @@
         <v>3713939</v>
       </c>
       <c r="G158" t="n">
-        <v>-58915864.96877679</v>
-      </c>
-      <c r="H158" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5629,18 +5823,19 @@
         <v>738823</v>
       </c>
       <c r="G159" t="n">
-        <v>-58915864.96877679</v>
-      </c>
-      <c r="H159" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5662,18 +5857,19 @@
         <v>277</v>
       </c>
       <c r="G160" t="n">
-        <v>-58915587.96877679</v>
-      </c>
-      <c r="H160" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5695,18 +5891,19 @@
         <v>277</v>
       </c>
       <c r="G161" t="n">
-        <v>-58915864.96877679</v>
-      </c>
-      <c r="H161" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5728,18 +5925,19 @@
         <v>1595921</v>
       </c>
       <c r="G162" t="n">
-        <v>-60511785.96877679</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5761,18 +5959,19 @@
         <v>3097551</v>
       </c>
       <c r="G163" t="n">
-        <v>-60511785.96877679</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -5794,18 +5993,19 @@
         <v>3020141</v>
       </c>
       <c r="G164" t="n">
-        <v>-60511785.96877679</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -5827,18 +6027,19 @@
         <v>1425535</v>
       </c>
       <c r="G165" t="n">
-        <v>-60511785.96877679</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -5860,18 +6061,19 @@
         <v>637918</v>
       </c>
       <c r="G166" t="n">
-        <v>-59873867.96877679</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -5893,18 +6095,19 @@
         <v>2934340</v>
       </c>
       <c r="G167" t="n">
-        <v>-59873867.96877679</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -5926,18 +6129,19 @@
         <v>269712</v>
       </c>
       <c r="G168" t="n">
-        <v>-59604155.96877679</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -5959,18 +6163,19 @@
         <v>3518109</v>
       </c>
       <c r="G169" t="n">
-        <v>-63122264.96877679</v>
-      </c>
-      <c r="H169" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -5992,18 +6197,19 @@
         <v>1025580</v>
       </c>
       <c r="G170" t="n">
-        <v>-62096684.96877679</v>
-      </c>
-      <c r="H170" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6025,18 +6231,19 @@
         <v>2617583</v>
       </c>
       <c r="G171" t="n">
-        <v>-64714267.96877679</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6058,18 +6265,19 @@
         <v>2622521</v>
       </c>
       <c r="G172" t="n">
-        <v>-62091746.96877679</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6091,18 +6299,19 @@
         <v>1920413</v>
       </c>
       <c r="G173" t="n">
-        <v>-64012159.96877679</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6124,18 +6333,19 @@
         <v>277</v>
       </c>
       <c r="G174" t="n">
-        <v>-64011882.96877679</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6157,18 +6367,19 @@
         <v>199623.5704761037</v>
       </c>
       <c r="G175" t="n">
-        <v>-63812259.39830068</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6190,18 +6401,19 @@
         <v>995237.7417218543</v>
       </c>
       <c r="G176" t="n">
-        <v>-63812259.39830068</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6223,18 +6435,19 @@
         <v>3046381</v>
       </c>
       <c r="G177" t="n">
-        <v>-66858640.39830068</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6256,18 +6469,19 @@
         <v>750700</v>
       </c>
       <c r="G178" t="n">
-        <v>-67609340.39830068</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6289,18 +6503,19 @@
         <v>277</v>
       </c>
       <c r="G179" t="n">
-        <v>-67609617.39830068</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6322,18 +6537,19 @@
         <v>277</v>
       </c>
       <c r="G180" t="n">
-        <v>-67609617.39830068</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6355,18 +6571,19 @@
         <v>2352953</v>
       </c>
       <c r="G181" t="n">
-        <v>-65256664.39830068</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6388,18 +6605,19 @@
         <v>1872007</v>
       </c>
       <c r="G182" t="n">
-        <v>-67128671.39830068</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6421,18 +6639,19 @@
         <v>1699087</v>
       </c>
       <c r="G183" t="n">
-        <v>-65429584.39830068</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6454,18 +6673,19 @@
         <v>2674487</v>
       </c>
       <c r="G184" t="n">
-        <v>-68104071.39830068</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6487,18 +6707,19 @@
         <v>2940.0325</v>
       </c>
       <c r="G185" t="n">
-        <v>-68101131.36580068</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6520,18 +6741,19 @@
         <v>277</v>
       </c>
       <c r="G186" t="n">
-        <v>-68101408.36580068</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6553,18 +6775,19 @@
         <v>490654.4351</v>
       </c>
       <c r="G187" t="n">
-        <v>-67610753.93070067</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="J187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -6586,18 +6809,19 @@
         <v>1015307.056402042</v>
       </c>
       <c r="G188" t="n">
-        <v>-66595446.87429863</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="J188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -6619,18 +6843,19 @@
         <v>3033448.2334</v>
       </c>
       <c r="G189" t="n">
-        <v>-63561998.64089863</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -6652,18 +6877,19 @@
         <v>406294</v>
       </c>
       <c r="G190" t="n">
-        <v>-63968292.64089863</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+      <c r="J190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -6685,18 +6911,19 @@
         <v>708595</v>
       </c>
       <c r="G191" t="n">
-        <v>-64676887.64089863</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+      <c r="J191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -6718,18 +6945,19 @@
         <v>2973208</v>
       </c>
       <c r="G192" t="n">
-        <v>-61703679.64089863</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+      <c r="J192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -6751,18 +6979,19 @@
         <v>64176.9309</v>
       </c>
       <c r="G193" t="n">
-        <v>-61767856.57179863</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+      <c r="J193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -6784,18 +7013,19 @@
         <v>190283.1272</v>
       </c>
       <c r="G194" t="n">
-        <v>-61767856.57179863</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+      <c r="J194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -6817,18 +7047,19 @@
         <v>2625683</v>
       </c>
       <c r="G195" t="n">
-        <v>-59142173.57179863</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+      <c r="J195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -6850,18 +7081,19 @@
         <v>1215418</v>
       </c>
       <c r="G196" t="n">
-        <v>-60357591.57179863</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+      <c r="J196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -6883,18 +7115,19 @@
         <v>2880471</v>
       </c>
       <c r="G197" t="n">
-        <v>-60357591.57179863</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+      <c r="J197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -6916,18 +7149,19 @@
         <v>1389327</v>
       </c>
       <c r="G198" t="n">
-        <v>-60357591.57179863</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -6949,18 +7183,19 @@
         <v>277</v>
       </c>
       <c r="G199" t="n">
-        <v>-60357314.57179863</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+      <c r="J199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -6982,18 +7217,19 @@
         <v>992451</v>
       </c>
       <c r="G200" t="n">
-        <v>-59364863.57179863</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+      <c r="J200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7015,18 +7251,19 @@
         <v>3612988</v>
       </c>
       <c r="G201" t="n">
-        <v>-62977851.57179863</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+      <c r="J201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7048,18 +7285,19 @@
         <v>2173511</v>
       </c>
       <c r="G202" t="n">
-        <v>-60804340.57179863</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+      <c r="J202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7081,18 +7319,19 @@
         <v>1385847</v>
       </c>
       <c r="G203" t="n">
-        <v>-62190187.57179863</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+      <c r="J203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7114,18 +7353,19 @@
         <v>2593826</v>
       </c>
       <c r="G204" t="n">
-        <v>-62190187.57179863</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+      <c r="J204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7147,18 +7387,19 @@
         <v>1030346</v>
       </c>
       <c r="G205" t="n">
-        <v>-62190187.57179863</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+      <c r="J205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7180,18 +7421,19 @@
         <v>262010</v>
       </c>
       <c r="G206" t="n">
-        <v>-61928177.57179863</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+      <c r="J206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7213,18 +7455,19 @@
         <v>3267985</v>
       </c>
       <c r="G207" t="n">
-        <v>-65196162.57179863</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+      <c r="J207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7246,18 +7489,19 @@
         <v>277</v>
       </c>
       <c r="G208" t="n">
-        <v>-65195885.57179863</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+      <c r="J208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7279,18 +7523,19 @@
         <v>277</v>
       </c>
       <c r="G209" t="n">
-        <v>-65196162.57179863</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+      <c r="J209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7312,18 +7557,19 @@
         <v>1057878</v>
       </c>
       <c r="G210" t="n">
-        <v>-64138284.57179863</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+      <c r="J210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7345,18 +7591,19 @@
         <v>2430967</v>
       </c>
       <c r="G211" t="n">
-        <v>-66569251.57179863</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+      <c r="J211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -7378,18 +7625,19 @@
         <v>2812145</v>
       </c>
       <c r="G212" t="n">
-        <v>-66569251.57179863</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+      <c r="J212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -7411,18 +7659,19 @@
         <v>714286</v>
       </c>
       <c r="G213" t="n">
-        <v>-66569251.57179863</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
+      <c r="J213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -7444,18 +7693,19 @@
         <v>1571382</v>
       </c>
       <c r="G214" t="n">
-        <v>-64997869.57179863</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
+      <c r="J214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -7477,18 +7727,19 @@
         <v>1771255</v>
       </c>
       <c r="G215" t="n">
-        <v>-66769124.57179863</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
+      <c r="J215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -7510,18 +7761,19 @@
         <v>3078092</v>
       </c>
       <c r="G216" t="n">
-        <v>-66769124.57179863</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
+      <c r="J216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -7543,18 +7795,19 @@
         <v>1482317</v>
       </c>
       <c r="G217" t="n">
-        <v>-66769124.57179863</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
+      <c r="J217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -7576,18 +7829,19 @@
         <v>774819</v>
       </c>
       <c r="G218" t="n">
-        <v>-65994305.57179863</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
+      <c r="J218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -7609,18 +7863,19 @@
         <v>3049302</v>
       </c>
       <c r="G219" t="n">
-        <v>-69043607.57179862</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
+      <c r="J219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -7642,18 +7897,19 @@
         <v>1613612</v>
       </c>
       <c r="G220" t="n">
-        <v>-67429995.57179862</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
+      <c r="J220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K220" t="n">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -7675,18 +7931,19 @@
         <v>1912792</v>
       </c>
       <c r="G221" t="n">
-        <v>-69342787.57179862</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
+      <c r="J221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -7708,18 +7965,19 @@
         <v>2124026</v>
       </c>
       <c r="G222" t="n">
-        <v>-67218761.57179862</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
+      <c r="J222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -7741,18 +7999,19 @@
         <v>1384013</v>
       </c>
       <c r="G223" t="n">
-        <v>-68602774.57179862</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
+      <c r="J223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K223" t="n">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -7774,18 +8033,19 @@
         <v>277</v>
       </c>
       <c r="G224" t="n">
-        <v>-68602497.57179862</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
+      <c r="J224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K224" t="n">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -7807,18 +8067,19 @@
         <v>277</v>
       </c>
       <c r="G225" t="n">
-        <v>-68602774.57179862</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H225" t="inlineStr"/>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
+      <c r="J225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K225" t="n">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -7840,18 +8101,19 @@
         <v>2318573</v>
       </c>
       <c r="G226" t="n">
-        <v>-70921347.57179862</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
+      <c r="J226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K226" t="n">
+        <v>1</v>
+      </c>
+      <c r="L226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -7873,18 +8135,19 @@
         <v>1466590</v>
       </c>
       <c r="G227" t="n">
-        <v>-70921347.57179862</v>
-      </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
+      <c r="J227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K227" t="n">
+        <v>1</v>
+      </c>
+      <c r="L227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -7906,18 +8169,19 @@
         <v>2347363</v>
       </c>
       <c r="G228" t="n">
-        <v>-68573984.57179862</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
+      <c r="J228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K228" t="n">
+        <v>1</v>
+      </c>
+      <c r="L228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -7939,18 +8203,19 @@
         <v>1211332</v>
       </c>
       <c r="G229" t="n">
-        <v>-67362652.57179862</v>
-      </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
+      <c r="J229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K229" t="n">
+        <v>1</v>
+      </c>
+      <c r="L229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -7972,18 +8237,19 @@
         <v>277</v>
       </c>
       <c r="G230" t="n">
-        <v>-67362929.57179862</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
+      <c r="J230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K230" t="n">
+        <v>1</v>
+      </c>
+      <c r="L230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8005,18 +8271,19 @@
         <v>1425801</v>
       </c>
       <c r="G231" t="n">
-        <v>-68788730.57179862</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H231" t="inlineStr"/>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
+      <c r="J231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K231" t="n">
+        <v>1</v>
+      </c>
+      <c r="L231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8038,18 +8305,19 @@
         <v>2060025</v>
       </c>
       <c r="G232" t="n">
-        <v>-68788730.57179862</v>
-      </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
+      <c r="J232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K232" t="n">
+        <v>1</v>
+      </c>
+      <c r="L232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8071,18 +8339,19 @@
         <v>269597</v>
       </c>
       <c r="G233" t="n">
-        <v>-68519133.57179862</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
+      <c r="J233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K233" t="n">
+        <v>1</v>
+      </c>
+      <c r="L233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -8104,18 +8373,19 @@
         <v>3540179</v>
       </c>
       <c r="G234" t="n">
-        <v>-72059312.57179862</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H234" t="inlineStr"/>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
+      <c r="J234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K234" t="n">
+        <v>1</v>
+      </c>
+      <c r="L234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -8137,18 +8407,19 @@
         <v>694510</v>
       </c>
       <c r="G235" t="n">
-        <v>-72059312.57179862</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
+      <c r="J235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K235" t="n">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -8170,18 +8441,19 @@
         <v>257910</v>
       </c>
       <c r="G236" t="n">
-        <v>-71801402.57179862</v>
-      </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H236" t="inlineStr"/>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
+      <c r="J236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K236" t="n">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -8203,18 +8475,19 @@
         <v>3369039</v>
       </c>
       <c r="G237" t="n">
-        <v>-75170441.57179862</v>
-      </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H237" t="inlineStr"/>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
+      <c r="J237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K237" t="n">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -8236,18 +8509,19 @@
         <v>5524.57205963556</v>
       </c>
       <c r="G238" t="n">
-        <v>-75164916.99973899</v>
-      </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H238" t="inlineStr"/>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M238" t="inlineStr"/>
+      <c r="J238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K238" t="n">
+        <v>1</v>
+      </c>
+      <c r="L238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -8269,18 +8543,19 @@
         <v>5000</v>
       </c>
       <c r="G239" t="n">
-        <v>-75169916.99973899</v>
-      </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H239" t="inlineStr"/>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M239" t="inlineStr"/>
+      <c r="J239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K239" t="n">
+        <v>1</v>
+      </c>
+      <c r="L239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -8302,18 +8577,19 @@
         <v>100000</v>
       </c>
       <c r="G240" t="n">
-        <v>-75269916.99973899</v>
-      </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H240" t="inlineStr"/>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="n">
-        <v>1</v>
-      </c>
-      <c r="M240" t="inlineStr"/>
+      <c r="J240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K240" t="n">
+        <v>1</v>
+      </c>
+      <c r="L240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -8335,18 +8611,19 @@
         <v>49685.95978915031</v>
       </c>
       <c r="G241" t="n">
-        <v>-75220231.03994983</v>
-      </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H241" t="inlineStr"/>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="n">
-        <v>1</v>
-      </c>
-      <c r="M241" t="inlineStr"/>
+      <c r="J241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K241" t="n">
+        <v>1</v>
+      </c>
+      <c r="L241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -8368,18 +8645,19 @@
         <v>1104.362230811706</v>
       </c>
       <c r="G242" t="n">
-        <v>-75221335.40218064</v>
-      </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H242" t="inlineStr"/>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="n">
-        <v>1</v>
-      </c>
-      <c r="M242" t="inlineStr"/>
+      <c r="J242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K242" t="n">
+        <v>1</v>
+      </c>
+      <c r="L242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -8401,18 +8679,19 @@
         <v>150000</v>
       </c>
       <c r="G243" t="n">
-        <v>-75371335.40218064</v>
-      </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H243" t="inlineStr"/>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="n">
-        <v>1</v>
-      </c>
-      <c r="M243" t="inlineStr"/>
+      <c r="J243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K243" t="n">
+        <v>1</v>
+      </c>
+      <c r="L243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -8434,18 +8713,19 @@
         <v>150000</v>
       </c>
       <c r="G244" t="n">
-        <v>-75521335.40218064</v>
-      </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H244" t="inlineStr"/>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
-      <c r="L244" t="n">
-        <v>1</v>
-      </c>
-      <c r="M244" t="inlineStr"/>
+      <c r="J244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K244" t="n">
+        <v>1</v>
+      </c>
+      <c r="L244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -8467,18 +8747,19 @@
         <v>3246137</v>
       </c>
       <c r="G245" t="n">
-        <v>-72275198.40218064</v>
-      </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H245" t="inlineStr"/>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
-      <c r="L245" t="n">
-        <v>1</v>
-      </c>
-      <c r="M245" t="inlineStr"/>
+      <c r="J245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K245" t="n">
+        <v>1</v>
+      </c>
+      <c r="L245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -8500,18 +8781,19 @@
         <v>1223574</v>
       </c>
       <c r="G246" t="n">
-        <v>-73498772.40218064</v>
-      </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H246" t="inlineStr"/>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
-      <c r="L246" t="n">
-        <v>1</v>
-      </c>
-      <c r="M246" t="inlineStr"/>
+      <c r="J246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K246" t="n">
+        <v>1</v>
+      </c>
+      <c r="L246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -8533,18 +8815,19 @@
         <v>2147.4748</v>
       </c>
       <c r="G247" t="n">
-        <v>-73498772.40218064</v>
-      </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H247" t="inlineStr"/>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
-      <c r="L247" t="n">
-        <v>1</v>
-      </c>
-      <c r="M247" t="inlineStr"/>
+      <c r="J247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K247" t="n">
+        <v>1</v>
+      </c>
+      <c r="L247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -8566,18 +8849,19 @@
         <v>3187599</v>
       </c>
       <c r="G248" t="n">
-        <v>-73498772.40218064</v>
-      </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H248" t="inlineStr"/>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
-      <c r="L248" t="n">
-        <v>1</v>
-      </c>
-      <c r="M248" t="inlineStr"/>
+      <c r="J248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K248" t="n">
+        <v>1</v>
+      </c>
+      <c r="L248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -8599,18 +8883,19 @@
         <v>1650891</v>
       </c>
       <c r="G249" t="n">
-        <v>-73498772.40218064</v>
-      </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H249" t="inlineStr"/>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
-      <c r="L249" t="n">
-        <v>1</v>
-      </c>
-      <c r="M249" t="inlineStr"/>
+      <c r="J249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K249" t="n">
+        <v>1</v>
+      </c>
+      <c r="L249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -8632,18 +8917,19 @@
         <v>1184.8501</v>
       </c>
       <c r="G250" t="n">
-        <v>-73497587.55208065</v>
-      </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H250" t="inlineStr"/>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
-      <c r="L250" t="n">
-        <v>1</v>
-      </c>
-      <c r="M250" t="inlineStr"/>
+      <c r="J250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K250" t="n">
+        <v>1</v>
+      </c>
+      <c r="L250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -8665,18 +8951,19 @@
         <v>2799385</v>
       </c>
       <c r="G251" t="n">
-        <v>-76296972.55208065</v>
-      </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H251" t="inlineStr"/>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
-      <c r="L251" t="n">
-        <v>1</v>
-      </c>
-      <c r="M251" t="inlineStr"/>
+      <c r="J251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K251" t="n">
+        <v>1</v>
+      </c>
+      <c r="L251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -8698,18 +8985,19 @@
         <v>1635896</v>
       </c>
       <c r="G252" t="n">
-        <v>-76296972.55208065</v>
-      </c>
-      <c r="H252" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H252" t="inlineStr"/>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
-      <c r="L252" t="n">
-        <v>1</v>
-      </c>
-      <c r="M252" t="inlineStr"/>
+      <c r="J252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K252" t="n">
+        <v>1</v>
+      </c>
+      <c r="L252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -8731,18 +9019,19 @@
         <v>634354</v>
       </c>
       <c r="G253" t="n">
-        <v>-76296972.55208065</v>
-      </c>
-      <c r="H253" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H253" t="inlineStr"/>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
-      <c r="L253" t="n">
-        <v>1</v>
-      </c>
-      <c r="M253" t="inlineStr"/>
+      <c r="J253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K253" t="n">
+        <v>1</v>
+      </c>
+      <c r="L253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -8764,18 +9053,19 @@
         <v>2940907</v>
       </c>
       <c r="G254" t="n">
-        <v>-76296972.55208065</v>
-      </c>
-      <c r="H254" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H254" t="inlineStr"/>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
-      <c r="L254" t="n">
-        <v>1</v>
-      </c>
-      <c r="M254" t="inlineStr"/>
+      <c r="J254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K254" t="n">
+        <v>1</v>
+      </c>
+      <c r="L254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -8797,18 +9087,19 @@
         <v>555</v>
       </c>
       <c r="G255" t="n">
-        <v>-76296417.55208065</v>
-      </c>
-      <c r="H255" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H255" t="inlineStr"/>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
-      <c r="L255" t="n">
-        <v>1</v>
-      </c>
-      <c r="M255" t="inlineStr"/>
+      <c r="J255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K255" t="n">
+        <v>1</v>
+      </c>
+      <c r="L255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -8830,18 +9121,19 @@
         <v>4723</v>
       </c>
       <c r="G256" t="n">
-        <v>-76296417.55208065</v>
-      </c>
-      <c r="H256" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H256" t="inlineStr"/>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
-      <c r="L256" t="n">
-        <v>1</v>
-      </c>
-      <c r="M256" t="inlineStr"/>
+      <c r="J256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K256" t="n">
+        <v>1</v>
+      </c>
+      <c r="L256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -8863,18 +9155,19 @@
         <v>394.4946</v>
       </c>
       <c r="G257" t="n">
-        <v>-76296023.05748065</v>
-      </c>
-      <c r="H257" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H257" t="inlineStr"/>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
-      <c r="L257" t="n">
-        <v>1</v>
-      </c>
-      <c r="M257" t="inlineStr"/>
+      <c r="J257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K257" t="n">
+        <v>1</v>
+      </c>
+      <c r="L257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -8896,18 +9189,19 @@
         <v>150000</v>
       </c>
       <c r="G258" t="n">
-        <v>-76446023.05748065</v>
-      </c>
-      <c r="H258" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H258" t="inlineStr"/>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
-      <c r="L258" t="n">
-        <v>1</v>
-      </c>
-      <c r="M258" t="inlineStr"/>
+      <c r="J258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K258" t="n">
+        <v>1</v>
+      </c>
+      <c r="L258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -8929,18 +9223,19 @@
         <v>375.2957</v>
       </c>
       <c r="G259" t="n">
-        <v>-76445647.76178065</v>
-      </c>
-      <c r="H259" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H259" t="inlineStr"/>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
-      <c r="L259" t="n">
-        <v>1</v>
-      </c>
-      <c r="M259" t="inlineStr"/>
+      <c r="J259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K259" t="n">
+        <v>1</v>
+      </c>
+      <c r="L259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -8962,18 +9257,19 @@
         <v>116433.3094</v>
       </c>
       <c r="G260" t="n">
-        <v>-76329214.45238064</v>
-      </c>
-      <c r="H260" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H260" t="inlineStr"/>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
-      <c r="L260" t="n">
-        <v>1</v>
-      </c>
-      <c r="M260" t="inlineStr"/>
+      <c r="J260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K260" t="n">
+        <v>1</v>
+      </c>
+      <c r="L260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -8995,18 +9291,19 @@
         <v>1866042.877451214</v>
       </c>
       <c r="G261" t="n">
-        <v>-74463171.57492943</v>
-      </c>
-      <c r="H261" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H261" t="inlineStr"/>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
-      <c r="L261" t="n">
-        <v>1</v>
-      </c>
-      <c r="M261" t="inlineStr"/>
+      <c r="J261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K261" t="n">
+        <v>1</v>
+      </c>
+      <c r="L261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -9028,18 +9325,19 @@
         <v>76767.23579999999</v>
       </c>
       <c r="G262" t="n">
-        <v>-74386404.33912943</v>
-      </c>
-      <c r="H262" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H262" t="inlineStr"/>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
-      <c r="L262" t="n">
-        <v>1</v>
-      </c>
-      <c r="M262" t="inlineStr"/>
+      <c r="J262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K262" t="n">
+        <v>1</v>
+      </c>
+      <c r="L262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -9061,18 +9359,19 @@
         <v>150000</v>
       </c>
       <c r="G263" t="n">
-        <v>-74386404.33912943</v>
-      </c>
-      <c r="H263" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H263" t="inlineStr"/>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
-      <c r="L263" t="n">
-        <v>1</v>
-      </c>
-      <c r="M263" t="inlineStr"/>
+      <c r="J263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K263" t="n">
+        <v>1</v>
+      </c>
+      <c r="L263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -9094,18 +9393,19 @@
         <v>9870.807199999999</v>
       </c>
       <c r="G264" t="n">
-        <v>-74386404.33912943</v>
-      </c>
-      <c r="H264" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H264" t="inlineStr"/>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
-      <c r="L264" t="n">
-        <v>1</v>
-      </c>
-      <c r="M264" t="inlineStr"/>
+      <c r="J264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K264" t="n">
+        <v>1</v>
+      </c>
+      <c r="L264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -9127,18 +9427,19 @@
         <v>2231808</v>
       </c>
       <c r="G265" t="n">
-        <v>-76618212.33912943</v>
-      </c>
-      <c r="H265" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H265" t="inlineStr"/>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
-      <c r="L265" t="n">
-        <v>1</v>
-      </c>
-      <c r="M265" t="inlineStr"/>
+      <c r="J265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K265" t="n">
+        <v>1</v>
+      </c>
+      <c r="L265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -9160,18 +9461,19 @@
         <v>2075867</v>
       </c>
       <c r="G266" t="n">
-        <v>-78694079.33912943</v>
-      </c>
-      <c r="H266" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H266" t="inlineStr"/>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
-      <c r="L266" t="n">
-        <v>1</v>
-      </c>
-      <c r="M266" t="inlineStr"/>
+      <c r="J266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K266" t="n">
+        <v>1</v>
+      </c>
+      <c r="L266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -9193,18 +9495,19 @@
         <v>50000</v>
       </c>
       <c r="G267" t="n">
-        <v>-78644079.33912943</v>
-      </c>
-      <c r="H267" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H267" t="inlineStr"/>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
-      <c r="L267" t="n">
-        <v>1</v>
-      </c>
-      <c r="M267" t="inlineStr"/>
+      <c r="J267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K267" t="n">
+        <v>1</v>
+      </c>
+      <c r="L267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -9226,18 +9529,19 @@
         <v>38398.73834339002</v>
       </c>
       <c r="G268" t="n">
-        <v>-78605680.60078605</v>
-      </c>
-      <c r="H268" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H268" t="inlineStr"/>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
-      <c r="L268" t="n">
-        <v>1</v>
-      </c>
-      <c r="M268" t="inlineStr"/>
+      <c r="J268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K268" t="n">
+        <v>1</v>
+      </c>
+      <c r="L268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -9259,18 +9563,19 @@
         <v>38398.7383</v>
       </c>
       <c r="G269" t="n">
-        <v>-78644079.33908604</v>
-      </c>
-      <c r="H269" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H269" t="inlineStr"/>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
-      <c r="L269" t="n">
-        <v>1</v>
-      </c>
-      <c r="M269" t="inlineStr"/>
+      <c r="J269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K269" t="n">
+        <v>1</v>
+      </c>
+      <c r="L269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -9292,18 +9597,19 @@
         <v>280</v>
       </c>
       <c r="G270" t="n">
-        <v>-78643799.33908604</v>
-      </c>
-      <c r="H270" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H270" t="inlineStr"/>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
-      <c r="L270" t="n">
-        <v>1</v>
-      </c>
-      <c r="M270" t="inlineStr"/>
+      <c r="J270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K270" t="n">
+        <v>1</v>
+      </c>
+      <c r="L270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -9325,18 +9631,19 @@
         <v>1568321.43875661</v>
       </c>
       <c r="G271" t="n">
-        <v>-77075477.90032943</v>
-      </c>
-      <c r="H271" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H271" t="inlineStr"/>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
-      <c r="L271" t="n">
-        <v>1</v>
-      </c>
-      <c r="M271" t="inlineStr"/>
+      <c r="J271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K271" t="n">
+        <v>1</v>
+      </c>
+      <c r="L271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -9358,18 +9665,19 @@
         <v>52013.3652</v>
       </c>
       <c r="G272" t="n">
-        <v>-77075477.90032943</v>
-      </c>
-      <c r="H272" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H272" t="inlineStr"/>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
-      <c r="L272" t="n">
-        <v>1</v>
-      </c>
-      <c r="M272" t="inlineStr"/>
+      <c r="J272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K272" t="n">
+        <v>1</v>
+      </c>
+      <c r="L272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -9391,18 +9699,19 @@
         <v>976812.3577000001</v>
       </c>
       <c r="G273" t="n">
-        <v>-76098665.54262942</v>
-      </c>
-      <c r="H273" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H273" t="inlineStr"/>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
-      <c r="L273" t="n">
-        <v>1</v>
-      </c>
-      <c r="M273" t="inlineStr"/>
+      <c r="J273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K273" t="n">
+        <v>1</v>
+      </c>
+      <c r="L273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -9424,18 +9733,17 @@
         <v>1717309</v>
       </c>
       <c r="G274" t="n">
-        <v>-77815974.54262942</v>
-      </c>
-      <c r="H274" t="n">
         <v>2</v>
       </c>
+      <c r="H274" t="inlineStr"/>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
+      <c r="J274" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="K274" t="inlineStr"/>
-      <c r="L274" t="n">
-        <v>1</v>
-      </c>
-      <c r="M274" t="inlineStr"/>
+      <c r="L274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -9457,18 +9765,15 @@
         <v>2628444</v>
       </c>
       <c r="G275" t="n">
-        <v>-80444418.54262942</v>
-      </c>
-      <c r="H275" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H275" t="inlineStr"/>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
-      <c r="L275" t="n">
-        <v>1</v>
-      </c>
-      <c r="M275" t="inlineStr"/>
+      <c r="K275" t="n">
+        <v>1</v>
+      </c>
+      <c r="L275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -9490,18 +9795,15 @@
         <v>20296.4804</v>
       </c>
       <c r="G276" t="n">
-        <v>-80424122.06222942</v>
-      </c>
-      <c r="H276" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H276" t="inlineStr"/>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
-      <c r="L276" t="n">
-        <v>1</v>
-      </c>
-      <c r="M276" t="inlineStr"/>
+      <c r="K276" t="n">
+        <v>1</v>
+      </c>
+      <c r="L276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -9523,18 +9825,15 @@
         <v>20347.6352</v>
       </c>
       <c r="G277" t="n">
-        <v>-80424122.06222942</v>
-      </c>
-      <c r="H277" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H277" t="inlineStr"/>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
-      <c r="L277" t="n">
-        <v>1</v>
-      </c>
-      <c r="M277" t="inlineStr"/>
+      <c r="K277" t="n">
+        <v>1</v>
+      </c>
+      <c r="L277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -9556,18 +9855,15 @@
         <v>277189.8782</v>
       </c>
       <c r="G278" t="n">
-        <v>-80701311.94042942</v>
-      </c>
-      <c r="H278" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H278" t="inlineStr"/>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
-      <c r="L278" t="n">
-        <v>1</v>
-      </c>
-      <c r="M278" t="inlineStr"/>
+      <c r="K278" t="n">
+        <v>1</v>
+      </c>
+      <c r="L278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -9589,18 +9885,15 @@
         <v>212283.2995</v>
       </c>
       <c r="G279" t="n">
-        <v>-80701311.94042942</v>
-      </c>
-      <c r="H279" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H279" t="inlineStr"/>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
-      <c r="L279" t="n">
-        <v>1</v>
-      </c>
-      <c r="M279" t="inlineStr"/>
+      <c r="K279" t="n">
+        <v>1</v>
+      </c>
+      <c r="L279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -9622,18 +9915,15 @@
         <v>7075.8498</v>
       </c>
       <c r="G280" t="n">
-        <v>-80708387.79022942</v>
-      </c>
-      <c r="H280" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H280" t="inlineStr"/>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
-      <c r="L280" t="n">
-        <v>1</v>
-      </c>
-      <c r="M280" t="inlineStr"/>
+      <c r="K280" t="n">
+        <v>1</v>
+      </c>
+      <c r="L280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -9655,18 +9945,15 @@
         <v>114864.3331</v>
       </c>
       <c r="G281" t="n">
-        <v>-80823252.12332943</v>
-      </c>
-      <c r="H281" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H281" t="inlineStr"/>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
-      <c r="L281" t="n">
-        <v>1</v>
-      </c>
-      <c r="M281" t="inlineStr"/>
+      <c r="K281" t="n">
+        <v>1</v>
+      </c>
+      <c r="L281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -9688,18 +9975,15 @@
         <v>255907.5973</v>
       </c>
       <c r="G282" t="n">
-        <v>-81079159.72062942</v>
-      </c>
-      <c r="H282" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H282" t="inlineStr"/>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
-      <c r="L282" t="n">
-        <v>1</v>
-      </c>
-      <c r="M282" t="inlineStr"/>
+      <c r="K282" t="n">
+        <v>1</v>
+      </c>
+      <c r="L282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -9721,18 +10005,15 @@
         <v>237546.8653</v>
       </c>
       <c r="G283" t="n">
-        <v>-81079159.72062942</v>
-      </c>
-      <c r="H283" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H283" t="inlineStr"/>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
-      <c r="L283" t="n">
-        <v>1</v>
-      </c>
-      <c r="M283" t="inlineStr"/>
+      <c r="K283" t="n">
+        <v>1</v>
+      </c>
+      <c r="L283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -9754,18 +10035,15 @@
         <v>1304.7944</v>
       </c>
       <c r="G284" t="n">
-        <v>-81079159.72062942</v>
-      </c>
-      <c r="H284" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H284" t="inlineStr"/>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
-      <c r="L284" t="n">
-        <v>1</v>
-      </c>
-      <c r="M284" t="inlineStr"/>
+      <c r="K284" t="n">
+        <v>1</v>
+      </c>
+      <c r="L284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -9787,18 +10065,15 @@
         <v>86546.3009</v>
       </c>
       <c r="G285" t="n">
-        <v>-81165706.02152942</v>
-      </c>
-      <c r="H285" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H285" t="inlineStr"/>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
-      <c r="L285" t="n">
-        <v>1</v>
-      </c>
-      <c r="M285" t="inlineStr"/>
+      <c r="K285" t="n">
+        <v>1</v>
+      </c>
+      <c r="L285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -9820,18 +10095,15 @@
         <v>1000</v>
       </c>
       <c r="G286" t="n">
-        <v>-81166706.02152942</v>
-      </c>
-      <c r="H286" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H286" t="inlineStr"/>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
-      <c r="L286" t="n">
-        <v>1</v>
-      </c>
-      <c r="M286" t="inlineStr"/>
+      <c r="K286" t="n">
+        <v>1</v>
+      </c>
+      <c r="L286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -9853,22 +10125,15 @@
         <v>7324.9366</v>
       </c>
       <c r="G287" t="n">
-        <v>-81166706.02152942</v>
-      </c>
-      <c r="H287" t="n">
-        <v>1</v>
-      </c>
-      <c r="I287" t="n">
-        <v>1.793</v>
-      </c>
-      <c r="J287" t="n">
-        <v>1.793</v>
-      </c>
-      <c r="K287" t="inlineStr"/>
-      <c r="L287" t="n">
-        <v>1</v>
-      </c>
-      <c r="M287" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H287" t="inlineStr"/>
+      <c r="I287" t="inlineStr"/>
+      <c r="J287" t="inlineStr"/>
+      <c r="K287" t="n">
+        <v>1</v>
+      </c>
+      <c r="L287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -9890,26 +10155,15 @@
         <v>494.2339</v>
       </c>
       <c r="G288" t="n">
-        <v>-81166211.78762943</v>
-      </c>
-      <c r="H288" t="n">
-        <v>1</v>
-      </c>
-      <c r="I288" t="n">
-        <v>1.793</v>
-      </c>
-      <c r="J288" t="n">
-        <v>1.793</v>
-      </c>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L288" t="n">
-        <v>1</v>
-      </c>
-      <c r="M288" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H288" t="inlineStr"/>
+      <c r="I288" t="inlineStr"/>
+      <c r="J288" t="inlineStr"/>
+      <c r="K288" t="n">
+        <v>1</v>
+      </c>
+      <c r="L288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -9931,26 +10185,15 @@
         <v>259254.3175</v>
       </c>
       <c r="G289" t="n">
-        <v>-80906957.47012943</v>
-      </c>
-      <c r="H289" t="n">
-        <v>1</v>
-      </c>
-      <c r="I289" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="J289" t="n">
-        <v>1.793</v>
-      </c>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L289" t="n">
-        <v>1</v>
-      </c>
-      <c r="M289" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H289" t="inlineStr"/>
+      <c r="I289" t="inlineStr"/>
+      <c r="J289" t="inlineStr"/>
+      <c r="K289" t="n">
+        <v>1</v>
+      </c>
+      <c r="L289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -9972,18 +10215,15 @@
         <v>3171472</v>
       </c>
       <c r="G290" t="n">
-        <v>-84078429.47012943</v>
-      </c>
-      <c r="H290" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H290" t="inlineStr"/>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
-      <c r="L290" t="n">
-        <v>1</v>
-      </c>
-      <c r="M290" t="inlineStr"/>
+      <c r="K290" t="n">
+        <v>1</v>
+      </c>
+      <c r="L290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -10005,18 +10245,15 @@
         <v>10000</v>
       </c>
       <c r="G291" t="n">
-        <v>-84068429.47012943</v>
-      </c>
-      <c r="H291" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H291" t="inlineStr"/>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
-      <c r="L291" t="n">
-        <v>1</v>
-      </c>
-      <c r="M291" t="inlineStr"/>
+      <c r="K291" t="n">
+        <v>1</v>
+      </c>
+      <c r="L291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -10038,18 +10275,15 @@
         <v>50191.2824</v>
       </c>
       <c r="G292" t="n">
-        <v>-84068429.47012943</v>
-      </c>
-      <c r="H292" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H292" t="inlineStr"/>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
-      <c r="L292" t="n">
-        <v>1</v>
-      </c>
-      <c r="M292" t="inlineStr"/>
+      <c r="K292" t="n">
+        <v>1</v>
+      </c>
+      <c r="L292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -10071,18 +10305,15 @@
         <v>1248773</v>
       </c>
       <c r="G293" t="n">
-        <v>-85317202.47012943</v>
-      </c>
-      <c r="H293" t="n">
         <v>2</v>
       </c>
+      <c r="H293" t="inlineStr"/>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
-      <c r="L293" t="n">
-        <v>1</v>
-      </c>
-      <c r="M293" t="inlineStr"/>
+      <c r="K293" t="n">
+        <v>1</v>
+      </c>
+      <c r="L293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -10104,18 +10335,15 @@
         <v>3064323</v>
       </c>
       <c r="G294" t="n">
-        <v>-88381525.47012943</v>
-      </c>
-      <c r="H294" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H294" t="inlineStr"/>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
-      <c r="L294" t="n">
-        <v>1</v>
-      </c>
-      <c r="M294" t="inlineStr"/>
+      <c r="K294" t="n">
+        <v>1</v>
+      </c>
+      <c r="L294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -10137,18 +10365,15 @@
         <v>93531.769</v>
       </c>
       <c r="G295" t="n">
-        <v>-88475057.23912942</v>
-      </c>
-      <c r="H295" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H295" t="inlineStr"/>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
-      <c r="L295" t="n">
-        <v>1</v>
-      </c>
-      <c r="M295" t="inlineStr"/>
+      <c r="K295" t="n">
+        <v>1</v>
+      </c>
+      <c r="L295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -10170,18 +10395,15 @@
         <v>1000</v>
       </c>
       <c r="G296" t="n">
-        <v>-88475057.23912942</v>
-      </c>
-      <c r="H296" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H296" t="inlineStr"/>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
-      <c r="L296" t="n">
-        <v>1</v>
-      </c>
-      <c r="M296" t="inlineStr"/>
+      <c r="K296" t="n">
+        <v>1</v>
+      </c>
+      <c r="L296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -10203,18 +10425,15 @@
         <v>275</v>
       </c>
       <c r="G297" t="n">
-        <v>-88474782.23912942</v>
-      </c>
-      <c r="H297" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H297" t="inlineStr"/>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
-      <c r="L297" t="n">
-        <v>1</v>
-      </c>
-      <c r="M297" t="inlineStr"/>
+      <c r="K297" t="n">
+        <v>1</v>
+      </c>
+      <c r="L297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -10236,18 +10455,15 @@
         <v>275</v>
       </c>
       <c r="G298" t="n">
-        <v>-88475057.23912942</v>
-      </c>
-      <c r="H298" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H298" t="inlineStr"/>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
-      <c r="L298" t="n">
-        <v>1</v>
-      </c>
-      <c r="M298" t="inlineStr"/>
+      <c r="K298" t="n">
+        <v>1</v>
+      </c>
+      <c r="L298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -10269,18 +10485,15 @@
         <v>275</v>
       </c>
       <c r="G299" t="n">
-        <v>-88475057.23912942</v>
-      </c>
-      <c r="H299" t="n">
         <v>2</v>
       </c>
+      <c r="H299" t="inlineStr"/>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
-      <c r="L299" t="n">
-        <v>1</v>
-      </c>
-      <c r="M299" t="inlineStr"/>
+      <c r="K299" t="n">
+        <v>1</v>
+      </c>
+      <c r="L299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -10302,18 +10515,15 @@
         <v>150289.888</v>
       </c>
       <c r="G300" t="n">
-        <v>-88625347.12712942</v>
-      </c>
-      <c r="H300" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H300" t="inlineStr"/>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
-      <c r="L300" t="n">
-        <v>1</v>
-      </c>
-      <c r="M300" t="inlineStr"/>
+      <c r="K300" t="n">
+        <v>1</v>
+      </c>
+      <c r="L300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -10335,24 +10545,15 @@
         <v>2408711</v>
       </c>
       <c r="G301" t="n">
-        <v>-86216636.12712942</v>
-      </c>
-      <c r="H301" t="n">
-        <v>1</v>
-      </c>
-      <c r="I301" t="n">
-        <v>1.808</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H301" t="inlineStr"/>
+      <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L301" t="n">
-        <v>1</v>
-      </c>
-      <c r="M301" t="inlineStr"/>
+      <c r="K301" t="n">
+        <v>1</v>
+      </c>
+      <c r="L301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -10374,22 +10575,15 @@
         <v>1185965</v>
       </c>
       <c r="G302" t="n">
-        <v>-87402601.12712942</v>
-      </c>
-      <c r="H302" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H302" t="inlineStr"/>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L302" t="n">
-        <v>1</v>
-      </c>
-      <c r="M302" t="inlineStr"/>
+      <c r="K302" t="n">
+        <v>1</v>
+      </c>
+      <c r="L302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -10411,24 +10605,15 @@
         <v>142191.4851</v>
       </c>
       <c r="G303" t="n">
-        <v>-87544792.61222942</v>
-      </c>
-      <c r="H303" t="n">
-        <v>1</v>
-      </c>
-      <c r="I303" t="n">
-        <v>1.807</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H303" t="inlineStr"/>
+      <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L303" t="n">
-        <v>1</v>
-      </c>
-      <c r="M303" t="inlineStr"/>
+      <c r="K303" t="n">
+        <v>1</v>
+      </c>
+      <c r="L303" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
